--- a/BackTest/2019-10-25 BackTest MTL.xlsx
+++ b/BackTest/2019-10-25 BackTest MTL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>331.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20</v>
+      </c>
       <c r="L13" t="n">
         <v>331.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>331.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>331.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>331.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L17" t="n">
         <v>332</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>15</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>83.33333333333334</v>
+      </c>
       <c r="L18" t="n">
         <v>332.9</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>15</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>83.33333333333334</v>
+      </c>
       <c r="L19" t="n">
         <v>333.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>16</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>81.81818181818183</v>
+      </c>
       <c r="L20" t="n">
         <v>335</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>17</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>83.33333333333334</v>
+      </c>
       <c r="L21" t="n">
         <v>336</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>86.66666666666667</v>
+      </c>
       <c r="L22" t="n">
         <v>337.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>65.21739130434783</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L23" t="n">
         <v>338.9</v>
@@ -1466,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>46.15384615384615</v>
+        <v>70</v>
       </c>
       <c r="L24" t="n">
         <v>340.2</v>
@@ -1515,7 +1537,7 @@
         <v>26</v>
       </c>
       <c r="K25" t="n">
-        <v>58.33333333333334</v>
+        <v>70</v>
       </c>
       <c r="L25" t="n">
         <v>341.6</v>
@@ -1564,7 +1586,7 @@
         <v>28</v>
       </c>
       <c r="K26" t="n">
-        <v>46.15384615384615</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L26" t="n">
         <v>342.8</v>
@@ -1613,7 +1635,7 @@
         <v>31</v>
       </c>
       <c r="K27" t="n">
-        <v>51.72413793103448</v>
+        <v>37.5</v>
       </c>
       <c r="L27" t="n">
         <v>343.5</v>
@@ -1662,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="K28" t="n">
-        <v>37.5</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L28" t="n">
         <v>343.8</v>
@@ -1711,7 +1733,7 @@
         <v>39</v>
       </c>
       <c r="K29" t="n">
-        <v>22.22222222222222</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L29" t="n">
         <v>343.6</v>
@@ -1760,7 +1782,7 @@
         <v>43</v>
       </c>
       <c r="K30" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>343.7</v>
@@ -1809,7 +1831,7 @@
         <v>45</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>343.5</v>
@@ -1860,7 +1882,7 @@
         <v>47</v>
       </c>
       <c r="K32" t="n">
-        <v>23.80952380952381</v>
+        <v>-25</v>
       </c>
       <c r="L32" t="n">
         <v>343.2</v>
@@ -1911,7 +1933,7 @@
         <v>48</v>
       </c>
       <c r="K33" t="n">
-        <v>20.93023255813954</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L33" t="n">
         <v>342.5</v>
@@ -1962,7 +1984,7 @@
         <v>48</v>
       </c>
       <c r="K34" t="n">
-        <v>20.93023255813954</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L34" t="n">
         <v>342.1</v>
@@ -2013,7 +2035,7 @@
         <v>48</v>
       </c>
       <c r="K35" t="n">
-        <v>23.80952380952381</v>
+        <v>-10</v>
       </c>
       <c r="L35" t="n">
         <v>341.7</v>
@@ -2064,7 +2086,7 @@
         <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>18.18181818181818</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L36" t="n">
         <v>341.3</v>
@@ -2115,7 +2137,7 @@
         <v>54</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>341</v>
@@ -2166,7 +2188,7 @@
         <v>57</v>
       </c>
       <c r="K38" t="n">
-        <v>14.28571428571428</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L38" t="n">
         <v>341.3</v>
@@ -2217,7 +2239,7 @@
         <v>57</v>
       </c>
       <c r="K39" t="n">
-        <v>14.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L39" t="n">
         <v>342.1</v>
@@ -2268,7 +2290,7 @@
         <v>59</v>
       </c>
       <c r="K40" t="n">
-        <v>16.27906976744186</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L40" t="n">
         <v>342.7</v>
@@ -2319,7 +2341,7 @@
         <v>59</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L41" t="n">
         <v>343.5</v>
@@ -2370,7 +2392,7 @@
         <v>61</v>
       </c>
       <c r="K42" t="n">
-        <v>12.19512195121951</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L42" t="n">
         <v>344.3</v>
@@ -2421,7 +2443,7 @@
         <v>65</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.761904761904762</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L43" t="n">
         <v>344.8</v>
@@ -2472,7 +2494,7 @@
         <v>68</v>
       </c>
       <c r="K44" t="n">
-        <v>9.523809523809524</v>
+        <v>40</v>
       </c>
       <c r="L44" t="n">
         <v>345.6</v>
@@ -2523,7 +2545,7 @@
         <v>70</v>
       </c>
       <c r="K45" t="n">
-        <v>4.545454545454546</v>
+        <v>40</v>
       </c>
       <c r="L45" t="n">
         <v>346.2</v>
@@ -2574,7 +2596,7 @@
         <v>74</v>
       </c>
       <c r="K46" t="n">
-        <v>17.39130434782609</v>
+        <v>40</v>
       </c>
       <c r="L46" t="n">
         <v>347.4</v>
@@ -2625,7 +2647,7 @@
         <v>76</v>
       </c>
       <c r="K47" t="n">
-        <v>6.666666666666667</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L47" t="n">
         <v>348</v>
@@ -2676,7 +2698,7 @@
         <v>76</v>
       </c>
       <c r="K48" t="n">
-        <v>14.28571428571428</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L48" t="n">
         <v>348.3</v>
@@ -2727,7 +2749,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>348.5</v>
@@ -2778,7 +2800,7 @@
         <v>79</v>
       </c>
       <c r="K50" t="n">
-        <v>22.22222222222222</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
         <v>348.7</v>
@@ -2829,7 +2851,7 @@
         <v>79</v>
       </c>
       <c r="K51" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>348.9</v>
@@ -2880,7 +2902,7 @@
         <v>81</v>
       </c>
       <c r="K52" t="n">
-        <v>17.64705882352941</v>
+        <v>12.5</v>
       </c>
       <c r="L52" t="n">
         <v>348.7</v>
@@ -2931,7 +2953,7 @@
         <v>84</v>
       </c>
       <c r="K53" t="n">
-        <v>11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L53" t="n">
         <v>348.6</v>
@@ -2982,7 +3004,7 @@
         <v>86</v>
       </c>
       <c r="K54" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>348.4</v>
@@ -3033,7 +3055,7 @@
         <v>87</v>
       </c>
       <c r="K55" t="n">
-        <v>12.82051282051282</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L55" t="n">
         <v>348.3</v>
@@ -3084,7 +3106,7 @@
         <v>88</v>
       </c>
       <c r="K56" t="n">
-        <v>15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>347.7</v>
@@ -3135,7 +3157,7 @@
         <v>89</v>
       </c>
       <c r="K57" t="n">
-        <v>8.571428571428571</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L57" t="n">
         <v>347.4</v>
@@ -3186,7 +3208,7 @@
         <v>90</v>
       </c>
       <c r="K58" t="n">
-        <v>-3.03030303030303</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L58" t="n">
         <v>347</v>
@@ -3237,7 +3259,7 @@
         <v>93</v>
       </c>
       <c r="K59" t="n">
-        <v>-11.11111111111111</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L59" t="n">
         <v>346.4</v>
@@ -3288,7 +3310,7 @@
         <v>96</v>
       </c>
       <c r="K60" t="n">
-        <v>-8.108108108108109</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L60" t="n">
         <v>345.9</v>
@@ -3339,7 +3361,7 @@
         <v>98</v>
       </c>
       <c r="K61" t="n">
-        <v>-12.82051282051282</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L61" t="n">
         <v>345.2</v>
@@ -3390,7 +3412,7 @@
         <v>99</v>
       </c>
       <c r="K62" t="n">
-        <v>-21.05263157894737</v>
+        <v>-20</v>
       </c>
       <c r="L62" t="n">
         <v>344.6</v>
@@ -3441,7 +3463,7 @@
         <v>101</v>
       </c>
       <c r="K63" t="n">
-        <v>-16.66666666666666</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L63" t="n">
         <v>344.1</v>
@@ -3492,7 +3514,7 @@
         <v>102</v>
       </c>
       <c r="K64" t="n">
-        <v>-23.52941176470588</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>343.5</v>
@@ -3543,7 +3565,7 @@
         <v>104</v>
       </c>
       <c r="K65" t="n">
-        <v>-11.76470588235294</v>
+        <v>-12.5</v>
       </c>
       <c r="L65" t="n">
         <v>343.2</v>
@@ -3594,7 +3616,7 @@
         <v>104</v>
       </c>
       <c r="K66" t="n">
-        <v>-26.66666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L66" t="n">
         <v>343</v>
@@ -3645,7 +3667,7 @@
         <v>105</v>
       </c>
       <c r="K67" t="n">
-        <v>-24.13793103448276</v>
+        <v>-20</v>
       </c>
       <c r="L67" t="n">
         <v>342.6</v>
@@ -3696,7 +3718,7 @@
         <v>105</v>
       </c>
       <c r="K68" t="n">
-        <v>-24.13793103448276</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>342.3</v>
@@ -3747,7 +3769,7 @@
         <v>106</v>
       </c>
       <c r="K69" t="n">
-        <v>-24.13793103448276</v>
+        <v>-40</v>
       </c>
       <c r="L69" t="n">
         <v>342.2</v>
@@ -3798,7 +3820,7 @@
         <v>106</v>
       </c>
       <c r="K70" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L70" t="n">
         <v>341.8</v>
@@ -3849,7 +3871,7 @@
         <v>108</v>
       </c>
       <c r="K71" t="n">
-        <v>-37.93103448275862</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>341.4</v>
@@ -3900,7 +3922,7 @@
         <v>108</v>
       </c>
       <c r="K72" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>341.1</v>
@@ -3951,7 +3973,7 @@
         <v>108</v>
       </c>
       <c r="K73" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>341</v>
@@ -4002,7 +4024,7 @@
         <v>110</v>
       </c>
       <c r="K74" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>341</v>
@@ -4053,7 +4075,7 @@
         <v>110</v>
       </c>
       <c r="K75" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>340.8</v>
@@ -4104,7 +4126,7 @@
         <v>111</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>340.7</v>
@@ -4155,7 +4177,7 @@
         <v>111</v>
       </c>
       <c r="K77" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>340.7</v>
@@ -4206,7 +4228,7 @@
         <v>112</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>340.8</v>
@@ -4257,7 +4279,7 @@
         <v>113</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L79" t="n">
         <v>341.1</v>
@@ -4308,7 +4330,7 @@
         <v>114</v>
       </c>
       <c r="K80" t="n">
-        <v>-11.11111111111111</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L80" t="n">
         <v>341.3</v>
@@ -4359,7 +4381,7 @@
         <v>116</v>
       </c>
       <c r="K81" t="n">
-        <v>11.11111111111111</v>
+        <v>75</v>
       </c>
       <c r="L81" t="n">
         <v>341.9</v>
@@ -4410,7 +4432,7 @@
         <v>117</v>
       </c>
       <c r="K82" t="n">
-        <v>22.22222222222222</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L82" t="n">
         <v>342.6</v>
@@ -4461,7 +4483,7 @@
         <v>119</v>
       </c>
       <c r="K83" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>343.1</v>
@@ -4512,7 +4534,7 @@
         <v>120</v>
       </c>
       <c r="K84" t="n">
-        <v>22.22222222222222</v>
+        <v>40</v>
       </c>
       <c r="L84" t="n">
         <v>343.5</v>
@@ -4563,7 +4585,7 @@
         <v>121</v>
       </c>
       <c r="K85" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L85" t="n">
         <v>343.8</v>
@@ -4614,7 +4636,7 @@
         <v>121</v>
       </c>
       <c r="K86" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>344</v>
@@ -4665,7 +4687,7 @@
         <v>121</v>
       </c>
       <c r="K87" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L87" t="n">
         <v>344.2</v>
@@ -4716,7 +4738,7 @@
         <v>121</v>
       </c>
       <c r="K88" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>344.3</v>
@@ -4767,7 +4789,7 @@
         <v>124</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L89" t="n">
         <v>344</v>
@@ -4818,7 +4840,7 @@
         <v>125</v>
       </c>
       <c r="K90" t="n">
-        <v>-5.263157894736842</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L90" t="n">
         <v>343.7</v>
@@ -4869,7 +4891,7 @@
         <v>125</v>
       </c>
       <c r="K91" t="n">
-        <v>5.88235294117647</v>
+        <v>-75</v>
       </c>
       <c r="L91" t="n">
         <v>343.2</v>
@@ -4920,7 +4942,7 @@
         <v>126</v>
       </c>
       <c r="K92" t="n">
-        <v>11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L92" t="n">
         <v>342.7</v>
@@ -4971,7 +4993,7 @@
         <v>129</v>
       </c>
       <c r="K93" t="n">
-        <v>23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L93" t="n">
         <v>342.7</v>
@@ -5022,7 +5044,7 @@
         <v>129</v>
       </c>
       <c r="K94" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>342.6</v>
@@ -5073,7 +5095,7 @@
         <v>131</v>
       </c>
       <c r="K95" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>342.4</v>
@@ -5124,7 +5146,7 @@
         <v>133</v>
       </c>
       <c r="K96" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>342.4</v>
@@ -5175,7 +5197,7 @@
         <v>135</v>
       </c>
       <c r="K97" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>342.6</v>
@@ -5226,7 +5248,7 @@
         <v>136</v>
       </c>
       <c r="K98" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L98" t="n">
         <v>342.9</v>
@@ -5277,7 +5299,7 @@
         <v>138</v>
       </c>
       <c r="K99" t="n">
-        <v>20</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L99" t="n">
         <v>343.7</v>
@@ -5328,7 +5350,7 @@
         <v>139</v>
       </c>
       <c r="K100" t="n">
-        <v>28</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L100" t="n">
         <v>344.7</v>
@@ -5379,7 +5401,7 @@
         <v>139</v>
       </c>
       <c r="K101" t="n">
-        <v>21.73913043478261</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L101" t="n">
         <v>345.7</v>
@@ -5430,7 +5452,7 @@
         <v>140</v>
       </c>
       <c r="K102" t="n">
-        <v>21.73913043478261</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L102" t="n">
         <v>346.7</v>
@@ -5481,7 +5503,7 @@
         <v>141</v>
       </c>
       <c r="K103" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L103" t="n">
         <v>347.3</v>
@@ -5532,7 +5554,7 @@
         <v>142</v>
       </c>
       <c r="K104" t="n">
-        <v>27.27272727272727</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L104" t="n">
         <v>348</v>
@@ -5583,7 +5605,7 @@
         <v>143</v>
       </c>
       <c r="K105" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L105" t="n">
         <v>348.8</v>
@@ -5634,7 +5656,7 @@
         <v>143</v>
       </c>
       <c r="K106" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L106" t="n">
         <v>349.4</v>
@@ -5685,7 +5707,7 @@
         <v>144</v>
       </c>
       <c r="K107" t="n">
-        <v>30.43478260869566</v>
+        <v>50</v>
       </c>
       <c r="L107" t="n">
         <v>349.9</v>
@@ -5736,7 +5758,7 @@
         <v>145</v>
       </c>
       <c r="K108" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L108" t="n">
         <v>350.2</v>
@@ -5787,7 +5809,7 @@
         <v>146</v>
       </c>
       <c r="K109" t="n">
-        <v>45.45454545454545</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L109" t="n">
         <v>350.4</v>
@@ -5838,7 +5860,7 @@
         <v>146</v>
       </c>
       <c r="K110" t="n">
-        <v>52.38095238095239</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>350.5</v>
@@ -5889,7 +5911,7 @@
         <v>146</v>
       </c>
       <c r="K111" t="n">
-        <v>52.38095238095239</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>350.6</v>
@@ -5940,7 +5962,7 @@
         <v>147</v>
       </c>
       <c r="K112" t="n">
-        <v>52.38095238095239</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>350.7</v>
@@ -5991,7 +6013,7 @@
         <v>148</v>
       </c>
       <c r="K113" t="n">
-        <v>47.36842105263158</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>351</v>
@@ -6042,7 +6064,7 @@
         <v>150</v>
       </c>
       <c r="K114" t="n">
-        <v>52.38095238095239</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L114" t="n">
         <v>351.4</v>
@@ -6093,7 +6115,7 @@
         <v>151</v>
       </c>
       <c r="K115" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L115" t="n">
         <v>351.8</v>
@@ -6144,7 +6166,7 @@
         <v>152</v>
       </c>
       <c r="K116" t="n">
-        <v>57.89473684210527</v>
+        <v>50</v>
       </c>
       <c r="L116" t="n">
         <v>352.3</v>
@@ -6195,7 +6217,7 @@
         <v>153</v>
       </c>
       <c r="K117" t="n">
-        <v>55.55555555555556</v>
+        <v>75</v>
       </c>
       <c r="L117" t="n">
         <v>352.8</v>
@@ -6246,7 +6268,7 @@
         <v>155</v>
       </c>
       <c r="K118" t="n">
-        <v>36.84210526315789</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>353.2</v>
@@ -6297,7 +6319,7 @@
         <v>155</v>
       </c>
       <c r="K119" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>353.5</v>
@@ -6348,7 +6370,7 @@
         <v>156</v>
       </c>
       <c r="K120" t="n">
-        <v>29.41176470588236</v>
+        <v>40</v>
       </c>
       <c r="L120" t="n">
         <v>353.9</v>
@@ -6399,7 +6421,7 @@
         <v>159</v>
       </c>
       <c r="K121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L121" t="n">
         <v>354.6</v>
@@ -6450,7 +6472,7 @@
         <v>160</v>
       </c>
       <c r="K122" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>355.1</v>
@@ -6501,7 +6523,7 @@
         <v>161</v>
       </c>
       <c r="K123" t="n">
-        <v>40</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L123" t="n">
         <v>355.6</v>
@@ -6552,7 +6574,7 @@
         <v>162</v>
       </c>
       <c r="K124" t="n">
-        <v>40</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L124" t="n">
         <v>356</v>
@@ -6603,7 +6625,7 @@
         <v>163</v>
       </c>
       <c r="K125" t="n">
-        <v>40</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L125" t="n">
         <v>356.4</v>
@@ -6654,7 +6676,7 @@
         <v>164</v>
       </c>
       <c r="K126" t="n">
-        <v>33.33333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L126" t="n">
         <v>356.6</v>
@@ -6705,7 +6727,7 @@
         <v>164</v>
       </c>
       <c r="K127" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>356.7</v>
@@ -6756,7 +6778,7 @@
         <v>164</v>
       </c>
       <c r="K128" t="n">
-        <v>36.84210526315789</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>357</v>
@@ -6807,7 +6829,7 @@
         <v>167</v>
       </c>
       <c r="K129" t="n">
-        <v>14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L129" t="n">
         <v>357</v>
@@ -6858,7 +6880,7 @@
         <v>170</v>
       </c>
       <c r="K130" t="n">
-        <v>25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L130" t="n">
         <v>357.2</v>
@@ -6909,7 +6931,7 @@
         <v>175</v>
       </c>
       <c r="K131" t="n">
-        <v>3.448275862068965</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>356.6</v>
@@ -6960,7 +6982,7 @@
         <v>176</v>
       </c>
       <c r="K132" t="n">
-        <v>3.448275862068965</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>356.2</v>
@@ -7011,7 +7033,7 @@
         <v>176</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L133" t="n">
         <v>355.7</v>
@@ -7062,7 +7084,7 @@
         <v>178</v>
       </c>
       <c r="K134" t="n">
-        <v>-14.28571428571428</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L134" t="n">
         <v>354.9</v>
@@ -7113,7 +7135,7 @@
         <v>178</v>
       </c>
       <c r="K135" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L135" t="n">
         <v>354.2</v>
@@ -7164,7 +7186,7 @@
         <v>178</v>
       </c>
       <c r="K136" t="n">
-        <v>-15.38461538461539</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L136" t="n">
         <v>353.6</v>
@@ -7215,7 +7237,7 @@
         <v>178</v>
       </c>
       <c r="K137" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L137" t="n">
         <v>353</v>
@@ -7266,7 +7288,7 @@
         <v>179</v>
       </c>
       <c r="K138" t="n">
-        <v>-8.333333333333332</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L138" t="n">
         <v>352.5</v>
@@ -7317,7 +7339,7 @@
         <v>179</v>
       </c>
       <c r="K139" t="n">
-        <v>-8.333333333333332</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L139" t="n">
         <v>352.3</v>
@@ -7368,7 +7390,7 @@
         <v>184</v>
       </c>
       <c r="K140" t="n">
-        <v>-28.57142857142857</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L140" t="n">
         <v>351.3</v>
@@ -7419,7 +7441,7 @@
         <v>188</v>
       </c>
       <c r="K141" t="n">
-        <v>-24.13793103448276</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L141" t="n">
         <v>351.2</v>
@@ -7470,7 +7492,7 @@
         <v>189</v>
       </c>
       <c r="K142" t="n">
-        <v>-24.13793103448276</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L142" t="n">
         <v>350.9</v>
@@ -7521,7 +7543,7 @@
         <v>192</v>
       </c>
       <c r="K143" t="n">
-        <v>-35.48387096774194</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L143" t="n">
         <v>350.3</v>
@@ -7572,7 +7594,7 @@
         <v>194</v>
       </c>
       <c r="K144" t="n">
-        <v>-31.25</v>
+        <v>-12.5</v>
       </c>
       <c r="L144" t="n">
         <v>350.1</v>
@@ -7623,7 +7645,7 @@
         <v>194</v>
       </c>
       <c r="K145" t="n">
-        <v>-29.03225806451613</v>
+        <v>-12.5</v>
       </c>
       <c r="L145" t="n">
         <v>349.9</v>
@@ -7674,7 +7696,7 @@
         <v>196</v>
       </c>
       <c r="K146" t="n">
-        <v>-31.25</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L146" t="n">
         <v>349.5</v>
@@ -7776,7 +7798,7 @@
         <v>199</v>
       </c>
       <c r="K148" t="n">
-        <v>-25.71428571428571</v>
+        <v>-20</v>
       </c>
       <c r="L148" t="n">
         <v>348.6</v>
@@ -7827,7 +7849,7 @@
         <v>200</v>
       </c>
       <c r="K149" t="n">
-        <v>-21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>348.1</v>
@@ -7878,7 +7900,7 @@
         <v>201</v>
       </c>
       <c r="K150" t="n">
-        <v>-35.48387096774194</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L150" t="n">
         <v>348</v>
@@ -7929,7 +7951,7 @@
         <v>201</v>
       </c>
       <c r="K151" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>347.5</v>
@@ -7980,7 +8002,7 @@
         <v>203</v>
       </c>
       <c r="K152" t="n">
-        <v>-18.51851851851852</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L152" t="n">
         <v>347.3</v>
@@ -8031,7 +8053,7 @@
         <v>203</v>
       </c>
       <c r="K153" t="n">
-        <v>-18.51851851851852</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L153" t="n">
         <v>347.4</v>
@@ -8082,7 +8104,7 @@
         <v>204</v>
       </c>
       <c r="K154" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>347.4</v>
@@ -8133,7 +8155,7 @@
         <v>204</v>
       </c>
       <c r="K155" t="n">
-        <v>-7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L155" t="n">
         <v>347.4</v>
@@ -8184,7 +8206,7 @@
         <v>205</v>
       </c>
       <c r="K156" t="n">
-        <v>-3.703703703703703</v>
+        <v>50</v>
       </c>
       <c r="L156" t="n">
         <v>347.7</v>
@@ -8235,7 +8257,7 @@
         <v>207</v>
       </c>
       <c r="K157" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>347.9</v>
@@ -8286,7 +8308,7 @@
         <v>208</v>
       </c>
       <c r="K158" t="n">
-        <v>-10.3448275862069</v>
+        <v>25</v>
       </c>
       <c r="L158" t="n">
         <v>348</v>
@@ -8337,7 +8359,7 @@
         <v>208</v>
       </c>
       <c r="K159" t="n">
-        <v>-10.3448275862069</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L159" t="n">
         <v>348.2</v>
@@ -8388,7 +8410,7 @@
         <v>209</v>
       </c>
       <c r="K160" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L160" t="n">
         <v>348.6</v>
@@ -8439,7 +8461,7 @@
         <v>210</v>
       </c>
       <c r="K161" t="n">
-        <v>-9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L161" t="n">
         <v>348.9</v>
@@ -8490,7 +8512,7 @@
         <v>210</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L162" t="n">
         <v>349</v>
@@ -8541,7 +8563,7 @@
         <v>210</v>
       </c>
       <c r="K163" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>349.1</v>
@@ -8592,7 +8614,7 @@
         <v>211</v>
       </c>
       <c r="K164" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L164" t="n">
         <v>349</v>
@@ -8643,7 +8665,7 @@
         <v>212</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L165" t="n">
         <v>349</v>
@@ -8694,7 +8716,7 @@
         <v>212</v>
       </c>
       <c r="K166" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L166" t="n">
         <v>348.9</v>
@@ -8745,7 +8767,7 @@
         <v>214</v>
       </c>
       <c r="K167" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>349.2</v>
@@ -8796,7 +8818,7 @@
         <v>214</v>
       </c>
       <c r="K168" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>349.4</v>
@@ -8847,7 +8869,7 @@
         <v>216</v>
       </c>
       <c r="K169" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L169" t="n">
         <v>349.4</v>
@@ -8898,7 +8920,7 @@
         <v>216</v>
       </c>
       <c r="K170" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>349.3</v>
@@ -8949,7 +8971,7 @@
         <v>216</v>
       </c>
       <c r="K171" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>349.3</v>
@@ -9051,7 +9073,7 @@
         <v>217</v>
       </c>
       <c r="K173" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>349.5</v>
@@ -9102,7 +9124,7 @@
         <v>217</v>
       </c>
       <c r="K174" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L174" t="n">
         <v>349.7</v>
@@ -9153,7 +9175,7 @@
         <v>218</v>
       </c>
       <c r="K175" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>349.9</v>
@@ -9204,7 +9226,7 @@
         <v>220</v>
       </c>
       <c r="K176" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>349.9</v>
@@ -9255,7 +9277,7 @@
         <v>221</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L177" t="n">
         <v>349.6</v>
@@ -9306,7 +9328,7 @@
         <v>221</v>
       </c>
       <c r="K178" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L178" t="n">
         <v>349.3</v>
@@ -9357,7 +9379,7 @@
         <v>221</v>
       </c>
       <c r="K179" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L179" t="n">
         <v>349.2</v>
@@ -9408,7 +9430,7 @@
         <v>222</v>
       </c>
       <c r="K180" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>349</v>
@@ -9459,7 +9481,7 @@
         <v>222</v>
       </c>
       <c r="K181" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L181" t="n">
         <v>348.8</v>
@@ -9510,7 +9532,7 @@
         <v>223</v>
       </c>
       <c r="K182" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>348.6</v>
@@ -9561,7 +9583,7 @@
         <v>225</v>
       </c>
       <c r="K183" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L183" t="n">
         <v>348.2</v>
@@ -9612,7 +9634,7 @@
         <v>225</v>
       </c>
       <c r="K184" t="n">
-        <v>-14.28571428571428</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L184" t="n">
         <v>347.8</v>
@@ -9663,7 +9685,7 @@
         <v>226</v>
       </c>
       <c r="K185" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>347.4</v>
@@ -9714,7 +9736,7 @@
         <v>227</v>
       </c>
       <c r="K186" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>347.3</v>
@@ -9765,7 +9787,7 @@
         <v>228</v>
       </c>
       <c r="K187" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L187" t="n">
         <v>347.4</v>
@@ -9816,7 +9838,7 @@
         <v>229</v>
       </c>
       <c r="K188" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>347.4</v>
@@ -9867,7 +9889,7 @@
         <v>230</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L189" t="n">
         <v>347.5</v>
@@ -9918,7 +9940,7 @@
         <v>231</v>
       </c>
       <c r="K190" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>347.8</v>
@@ -9969,7 +9991,7 @@
         <v>234</v>
       </c>
       <c r="K191" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L191" t="n">
         <v>347.8</v>
@@ -10020,7 +10042,7 @@
         <v>234</v>
       </c>
       <c r="K192" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L192" t="n">
         <v>347.7</v>
@@ -10071,7 +10093,7 @@
         <v>234</v>
       </c>
       <c r="K193" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L193" t="n">
         <v>347.8</v>
@@ -10122,7 +10144,7 @@
         <v>234</v>
       </c>
       <c r="K194" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>347.9</v>
@@ -10173,7 +10195,7 @@
         <v>235</v>
       </c>
       <c r="K195" t="n">
-        <v>-29.41176470588236</v>
+        <v>-25</v>
       </c>
       <c r="L195" t="n">
         <v>347.8</v>
@@ -10224,7 +10246,7 @@
         <v>236</v>
       </c>
       <c r="K196" t="n">
-        <v>-12.5</v>
+        <v>-25</v>
       </c>
       <c r="L196" t="n">
         <v>347.7</v>
@@ -10275,7 +10297,7 @@
         <v>237</v>
       </c>
       <c r="K197" t="n">
-        <v>-12.5</v>
+        <v>-25</v>
       </c>
       <c r="L197" t="n">
         <v>347.4</v>
@@ -10326,7 +10348,7 @@
         <v>237</v>
       </c>
       <c r="K198" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L198" t="n">
         <v>347.2</v>
@@ -10377,7 +10399,7 @@
         <v>238</v>
       </c>
       <c r="K199" t="n">
-        <v>-5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L199" t="n">
         <v>347</v>
@@ -10428,7 +10450,7 @@
         <v>239</v>
       </c>
       <c r="K200" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>346.8</v>
@@ -10530,7 +10552,7 @@
         <v>241</v>
       </c>
       <c r="K202" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L202" t="n">
         <v>346.7</v>
@@ -10581,7 +10603,7 @@
         <v>241</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L203" t="n">
         <v>346.6</v>
@@ -10632,7 +10654,7 @@
         <v>242</v>
       </c>
       <c r="K204" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L204" t="n">
         <v>346.4</v>
@@ -10734,7 +10756,7 @@
         <v>245</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L206" t="n">
         <v>346.6</v>
@@ -10785,7 +10807,7 @@
         <v>246</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>346.9</v>
@@ -10836,7 +10858,7 @@
         <v>247</v>
       </c>
       <c r="K208" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>347.3</v>
@@ -10887,7 +10909,7 @@
         <v>248</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L209" t="n">
         <v>347.5</v>
@@ -10938,7 +10960,7 @@
         <v>249</v>
       </c>
       <c r="K210" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L210" t="n">
         <v>347.5</v>
@@ -10989,7 +11011,7 @@
         <v>250</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L211" t="n">
         <v>347.5</v>
@@ -11040,7 +11062,7 @@
         <v>251</v>
       </c>
       <c r="K212" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L212" t="n">
         <v>347.7</v>
@@ -11091,7 +11113,7 @@
         <v>252</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L213" t="n">
         <v>347.8</v>
@@ -11193,7 +11215,7 @@
         <v>254</v>
       </c>
       <c r="K215" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>347.8</v>
@@ -11244,7 +11266,7 @@
         <v>258</v>
       </c>
       <c r="K216" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>347.9</v>
@@ -11295,7 +11317,7 @@
         <v>259</v>
       </c>
       <c r="K217" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>348</v>
@@ -11346,7 +11368,7 @@
         <v>262</v>
       </c>
       <c r="K218" t="n">
-        <v>4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L218" t="n">
         <v>347.7</v>
@@ -11397,7 +11419,7 @@
         <v>262</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L219" t="n">
         <v>347.5</v>
@@ -11448,7 +11470,7 @@
         <v>262</v>
       </c>
       <c r="K220" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>347.4</v>
@@ -11499,7 +11521,7 @@
         <v>262</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L221" t="n">
         <v>347.4</v>
@@ -11550,7 +11572,7 @@
         <v>263</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L222" t="n">
         <v>347.2</v>
@@ -11601,7 +11623,7 @@
         <v>264</v>
       </c>
       <c r="K223" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>347.2</v>
@@ -11652,7 +11674,7 @@
         <v>265</v>
       </c>
       <c r="K224" t="n">
-        <v>4.347826086956522</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L224" t="n">
         <v>347.1</v>
@@ -11703,7 +11725,7 @@
         <v>265</v>
       </c>
       <c r="K225" t="n">
-        <v>-4.761904761904762</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L225" t="n">
         <v>347.2</v>
@@ -11754,7 +11776,7 @@
         <v>266</v>
       </c>
       <c r="K226" t="n">
-        <v>-14.28571428571428</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L226" t="n">
         <v>346.8</v>
@@ -11805,7 +11827,7 @@
         <v>268</v>
       </c>
       <c r="K227" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>346.5</v>
@@ -11856,7 +11878,7 @@
         <v>269</v>
       </c>
       <c r="K228" t="n">
-        <v>-18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L228" t="n">
         <v>346.4</v>
@@ -11907,7 +11929,7 @@
         <v>270</v>
       </c>
       <c r="K229" t="n">
-        <v>-18.18181818181818</v>
+        <v>-25</v>
       </c>
       <c r="L229" t="n">
         <v>346.2</v>
@@ -11958,7 +11980,7 @@
         <v>271</v>
       </c>
       <c r="K230" t="n">
-        <v>-9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L230" t="n">
         <v>346.1</v>
@@ -12009,7 +12031,7 @@
         <v>272</v>
       </c>
       <c r="K231" t="n">
-        <v>-9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L231" t="n">
         <v>345.9</v>
@@ -12060,7 +12082,7 @@
         <v>272</v>
       </c>
       <c r="K232" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L232" t="n">
         <v>345.8</v>
@@ -12111,7 +12133,7 @@
         <v>272</v>
       </c>
       <c r="K233" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>345.6</v>
@@ -12162,7 +12184,7 @@
         <v>272</v>
       </c>
       <c r="K234" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L234" t="n">
         <v>345.5</v>
@@ -12264,7 +12286,7 @@
         <v>272</v>
       </c>
       <c r="K236" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L236" t="n">
         <v>345.4</v>
@@ -12315,7 +12337,7 @@
         <v>273</v>
       </c>
       <c r="K237" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>345.3</v>
@@ -12366,7 +12388,7 @@
         <v>273</v>
       </c>
       <c r="K238" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>345.3</v>
@@ -12417,7 +12439,7 @@
         <v>275</v>
       </c>
       <c r="K239" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L239" t="n">
         <v>345.2</v>
@@ -12468,7 +12490,7 @@
         <v>277</v>
       </c>
       <c r="K240" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L240" t="n">
         <v>345.2</v>
@@ -12519,7 +12541,7 @@
         <v>280</v>
       </c>
       <c r="K241" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L241" t="n">
         <v>345</v>
@@ -12570,7 +12592,7 @@
         <v>280</v>
       </c>
       <c r="K242" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L242" t="n">
         <v>344.8</v>
@@ -12621,7 +12643,7 @@
         <v>281</v>
       </c>
       <c r="K243" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L243" t="n">
         <v>344.5</v>
@@ -12672,7 +12694,7 @@
         <v>281</v>
       </c>
       <c r="K244" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>344.2</v>
@@ -12723,7 +12745,7 @@
         <v>282</v>
       </c>
       <c r="K245" t="n">
-        <v>-29.41176470588236</v>
+        <v>-40</v>
       </c>
       <c r="L245" t="n">
         <v>343.8</v>
@@ -12774,7 +12796,7 @@
         <v>282</v>
       </c>
       <c r="K246" t="n">
-        <v>-25</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L246" t="n">
         <v>343.4</v>
@@ -12825,7 +12847,7 @@
         <v>282</v>
       </c>
       <c r="K247" t="n">
-        <v>-42.85714285714285</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L247" t="n">
         <v>342.9</v>
@@ -12876,7 +12898,7 @@
         <v>285</v>
       </c>
       <c r="K248" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L248" t="n">
         <v>342.1</v>
@@ -12927,7 +12949,7 @@
         <v>287</v>
       </c>
       <c r="K249" t="n">
-        <v>-29.41176470588236</v>
+        <v>-60</v>
       </c>
       <c r="L249" t="n">
         <v>341.7</v>
@@ -12978,7 +13000,7 @@
         <v>290</v>
       </c>
       <c r="K250" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>341.4</v>
@@ -13029,7 +13051,7 @@
         <v>292</v>
       </c>
       <c r="K251" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L251" t="n">
         <v>341.2</v>
@@ -13080,7 +13102,7 @@
         <v>292</v>
       </c>
       <c r="K252" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L252" t="n">
         <v>341</v>
@@ -13131,7 +13153,7 @@
         <v>292</v>
       </c>
       <c r="K253" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L253" t="n">
         <v>340.9</v>
@@ -13182,7 +13204,7 @@
         <v>296</v>
       </c>
       <c r="K254" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L254" t="n">
         <v>340.4</v>
@@ -13233,7 +13255,7 @@
         <v>300</v>
       </c>
       <c r="K255" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>340.4</v>
@@ -13284,7 +13306,7 @@
         <v>300</v>
       </c>
       <c r="K256" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>340.4</v>
@@ -13335,7 +13357,7 @@
         <v>300</v>
       </c>
       <c r="K257" t="n">
-        <v>-18.51851851851852</v>
+        <v>20</v>
       </c>
       <c r="L257" t="n">
         <v>340.4</v>
@@ -13386,7 +13408,7 @@
         <v>300</v>
       </c>
       <c r="K258" t="n">
-        <v>-18.51851851851852</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L258" t="n">
         <v>340.7</v>
@@ -13437,7 +13459,7 @@
         <v>303</v>
       </c>
       <c r="K259" t="n">
-        <v>-21.42857142857143</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L259" t="n">
         <v>340.5</v>
@@ -13539,7 +13561,7 @@
         <v>308</v>
       </c>
       <c r="K261" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>339.9</v>
@@ -13590,7 +13612,7 @@
         <v>309</v>
       </c>
       <c r="K262" t="n">
-        <v>-10.3448275862069</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L262" t="n">
         <v>339.8</v>
@@ -13641,7 +13663,7 @@
         <v>309</v>
       </c>
       <c r="K263" t="n">
-        <v>-7.142857142857142</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L263" t="n">
         <v>339.7</v>
@@ -13692,7 +13714,7 @@
         <v>309</v>
       </c>
       <c r="K264" t="n">
-        <v>-7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L264" t="n">
         <v>340</v>
@@ -13743,7 +13765,7 @@
         <v>309</v>
       </c>
       <c r="K265" t="n">
-        <v>-3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L265" t="n">
         <v>339.9</v>
@@ -13794,7 +13816,7 @@
         <v>310</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.142857142857142</v>
+        <v>-20</v>
       </c>
       <c r="L266" t="n">
         <v>339.7</v>
@@ -13845,7 +13867,7 @@
         <v>311</v>
       </c>
       <c r="K267" t="n">
-        <v>-3.448275862068965</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L267" t="n">
         <v>339.6</v>
@@ -13896,7 +13918,7 @@
         <v>312</v>
       </c>
       <c r="K268" t="n">
-        <v>3.703703703703703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L268" t="n">
         <v>339.4</v>
@@ -13947,7 +13969,7 @@
         <v>313</v>
       </c>
       <c r="K269" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L269" t="n">
         <v>339.4</v>
@@ -13998,7 +14020,7 @@
         <v>313</v>
       </c>
       <c r="K270" t="n">
-        <v>-21.73913043478261</v>
+        <v>-60</v>
       </c>
       <c r="L270" t="n">
         <v>339.5</v>
@@ -14049,7 +14071,7 @@
         <v>314</v>
       </c>
       <c r="K271" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L271" t="n">
         <v>339.3</v>
@@ -14100,7 +14122,7 @@
         <v>315</v>
       </c>
       <c r="K272" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
         <v>339.3</v>
@@ -14151,7 +14173,7 @@
         <v>316</v>
       </c>
       <c r="K273" t="n">
-        <v>-8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L273" t="n">
         <v>339.2</v>
@@ -14202,7 +14224,7 @@
         <v>317</v>
       </c>
       <c r="K274" t="n">
-        <v>4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L274" t="n">
         <v>339</v>
@@ -14253,7 +14275,7 @@
         <v>318</v>
       </c>
       <c r="K275" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>338.9</v>
@@ -14304,7 +14326,7 @@
         <v>318</v>
       </c>
       <c r="K276" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L276" t="n">
         <v>338.9</v>
@@ -14355,7 +14377,7 @@
         <v>318</v>
       </c>
       <c r="K277" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>338.8</v>
@@ -14406,7 +14428,7 @@
         <v>318</v>
       </c>
       <c r="K278" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L278" t="n">
         <v>338.8</v>
@@ -14457,7 +14479,7 @@
         <v>318</v>
       </c>
       <c r="K279" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L279" t="n">
         <v>338.9</v>
@@ -14508,7 +14530,7 @@
         <v>318</v>
       </c>
       <c r="K280" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>339</v>
@@ -14559,7 +14581,7 @@
         <v>318</v>
       </c>
       <c r="K281" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>339</v>
@@ -14610,7 +14632,7 @@
         <v>321</v>
       </c>
       <c r="K282" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L282" t="n">
         <v>339.2</v>
@@ -14661,7 +14683,7 @@
         <v>321</v>
       </c>
       <c r="K283" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L283" t="n">
         <v>339.5</v>
@@ -14712,7 +14734,7 @@
         <v>321</v>
       </c>
       <c r="K284" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L284" t="n">
         <v>339.9</v>
@@ -14763,7 +14785,7 @@
         <v>323</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L285" t="n">
         <v>340</v>
@@ -14814,7 +14836,7 @@
         <v>323</v>
       </c>
       <c r="K286" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L286" t="n">
         <v>340.1</v>
@@ -14865,7 +14887,7 @@
         <v>323</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L287" t="n">
         <v>340.2</v>
@@ -14916,7 +14938,7 @@
         <v>323</v>
       </c>
       <c r="K288" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L288" t="n">
         <v>340.3</v>
@@ -14967,7 +14989,7 @@
         <v>325</v>
       </c>
       <c r="K289" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L289" t="n">
         <v>340.6</v>
@@ -15018,7 +15040,7 @@
         <v>329</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L290" t="n">
         <v>340.5</v>
@@ -15069,7 +15091,7 @@
         <v>329</v>
       </c>
       <c r="K291" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L291" t="n">
         <v>340.4</v>
@@ -15120,7 +15142,7 @@
         <v>329</v>
       </c>
       <c r="K292" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L292" t="n">
         <v>340</v>
@@ -15171,7 +15193,7 @@
         <v>329</v>
       </c>
       <c r="K293" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L293" t="n">
         <v>339.6</v>
@@ -15222,7 +15244,7 @@
         <v>330</v>
       </c>
       <c r="K294" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L294" t="n">
         <v>339.1</v>
@@ -15273,7 +15295,7 @@
         <v>330</v>
       </c>
       <c r="K295" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L295" t="n">
         <v>338.8</v>
@@ -15324,7 +15346,7 @@
         <v>332</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L296" t="n">
         <v>338.7</v>
@@ -15375,7 +15397,7 @@
         <v>333</v>
       </c>
       <c r="K297" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>338.7</v>
@@ -15426,7 +15448,7 @@
         <v>335</v>
       </c>
       <c r="K298" t="n">
-        <v>-5.88235294117647</v>
+        <v>-40</v>
       </c>
       <c r="L298" t="n">
         <v>338.5</v>
@@ -15477,7 +15499,7 @@
         <v>335</v>
       </c>
       <c r="K299" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>338.1</v>
@@ -15528,7 +15550,7 @@
         <v>335</v>
       </c>
       <c r="K300" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>338.1</v>
@@ -15579,7 +15601,7 @@
         <v>335</v>
       </c>
       <c r="K301" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>338.1</v>
@@ -15630,7 +15652,7 @@
         <v>335</v>
       </c>
       <c r="K302" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>338.1</v>
@@ -15681,7 +15703,7 @@
         <v>335</v>
       </c>
       <c r="K303" t="n">
-        <v>-28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L303" t="n">
         <v>338.1</v>
@@ -15732,7 +15754,7 @@
         <v>336</v>
       </c>
       <c r="K304" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>338.1</v>
@@ -15783,7 +15805,7 @@
         <v>337</v>
       </c>
       <c r="K305" t="n">
-        <v>-28.57142857142857</v>
+        <v>-60</v>
       </c>
       <c r="L305" t="n">
         <v>338</v>
@@ -15834,7 +15856,7 @@
         <v>338</v>
       </c>
       <c r="K306" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L306" t="n">
         <v>337.8</v>
@@ -15885,7 +15907,7 @@
         <v>341</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L307" t="n">
         <v>337.8</v>
@@ -15936,7 +15958,7 @@
         <v>343</v>
       </c>
       <c r="K308" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>337.8</v>
@@ -15987,7 +16009,7 @@
         <v>345</v>
       </c>
       <c r="K309" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L309" t="n">
         <v>337.6</v>
@@ -16038,7 +16060,7 @@
         <v>345</v>
       </c>
       <c r="K310" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L310" t="n">
         <v>337.4</v>
@@ -16140,7 +16162,7 @@
         <v>348</v>
       </c>
       <c r="K312" t="n">
-        <v>5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L312" t="n">
         <v>337.5</v>
@@ -16191,7 +16213,7 @@
         <v>348</v>
       </c>
       <c r="K313" t="n">
-        <v>5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L313" t="n">
         <v>337.6</v>
@@ -16242,7 +16264,7 @@
         <v>349</v>
       </c>
       <c r="K314" t="n">
-        <v>5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L314" t="n">
         <v>337.7</v>
@@ -16293,7 +16315,7 @@
         <v>349</v>
       </c>
       <c r="K315" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L315" t="n">
         <v>337.9</v>
@@ -16344,7 +16366,7 @@
         <v>349</v>
       </c>
       <c r="K316" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L316" t="n">
         <v>338</v>
@@ -16395,7 +16417,7 @@
         <v>350</v>
       </c>
       <c r="K317" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L317" t="n">
         <v>337.9</v>
@@ -16446,7 +16468,7 @@
         <v>351</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>337.9</v>
@@ -16497,7 +16519,7 @@
         <v>353</v>
       </c>
       <c r="K319" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L319" t="n">
         <v>338.3</v>
@@ -16548,7 +16570,7 @@
         <v>354</v>
       </c>
       <c r="K320" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L320" t="n">
         <v>338.6</v>
@@ -16599,7 +16621,7 @@
         <v>355</v>
       </c>
       <c r="K321" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L321" t="n">
         <v>338.8</v>
@@ -16650,7 +16672,7 @@
         <v>355</v>
       </c>
       <c r="K322" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L322" t="n">
         <v>338.9</v>
@@ -16701,7 +16723,7 @@
         <v>355</v>
       </c>
       <c r="K323" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>339</v>
@@ -16752,7 +16774,7 @@
         <v>357</v>
       </c>
       <c r="K324" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>339</v>
@@ -16803,7 +16825,7 @@
         <v>358</v>
       </c>
       <c r="K325" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L325" t="n">
         <v>338.9</v>
@@ -16854,7 +16876,7 @@
         <v>359</v>
       </c>
       <c r="K326" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L326" t="n">
         <v>338.9</v>
@@ -16905,7 +16927,7 @@
         <v>359</v>
       </c>
       <c r="K327" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>338.8</v>
@@ -16956,7 +16978,7 @@
         <v>360</v>
       </c>
       <c r="K328" t="n">
-        <v>-5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L328" t="n">
         <v>338.7</v>
@@ -17007,7 +17029,7 @@
         <v>360</v>
       </c>
       <c r="K329" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L329" t="n">
         <v>338.4</v>
@@ -17058,7 +17080,7 @@
         <v>360</v>
       </c>
       <c r="K330" t="n">
-        <v>6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L330" t="n">
         <v>338.2</v>
@@ -17109,7 +17131,7 @@
         <v>361</v>
       </c>
       <c r="K331" t="n">
-        <v>-14.28571428571428</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L331" t="n">
         <v>337.8</v>
@@ -17160,7 +17182,7 @@
         <v>362</v>
       </c>
       <c r="K332" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L332" t="n">
         <v>337.5</v>
@@ -17211,7 +17233,7 @@
         <v>362</v>
       </c>
       <c r="K333" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L333" t="n">
         <v>337.2</v>
@@ -17262,7 +17284,7 @@
         <v>363</v>
       </c>
       <c r="K334" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L334" t="n">
         <v>337</v>
@@ -17313,7 +17335,7 @@
         <v>363</v>
       </c>
       <c r="K335" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L335" t="n">
         <v>336.9</v>
@@ -17364,7 +17386,7 @@
         <v>366</v>
       </c>
       <c r="K336" t="n">
-        <v>-29.41176470588236</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L336" t="n">
         <v>336.4</v>
@@ -17415,7 +17437,7 @@
         <v>366</v>
       </c>
       <c r="K337" t="n">
-        <v>-37.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L337" t="n">
         <v>335.9</v>
@@ -17466,7 +17488,7 @@
         <v>368</v>
       </c>
       <c r="K338" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L338" t="n">
         <v>335.7</v>
@@ -17517,7 +17539,7 @@
         <v>369</v>
       </c>
       <c r="K339" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>335.4</v>
@@ -17568,7 +17590,7 @@
         <v>370</v>
       </c>
       <c r="K340" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>335</v>
@@ -17619,7 +17641,7 @@
         <v>371</v>
       </c>
       <c r="K341" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>334.8</v>
@@ -17670,7 +17692,7 @@
         <v>372</v>
       </c>
       <c r="K342" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L342" t="n">
         <v>334.6</v>
@@ -17721,7 +17743,7 @@
         <v>372</v>
       </c>
       <c r="K343" t="n">
-        <v>-29.41176470588236</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L343" t="n">
         <v>334.4</v>
@@ -17772,7 +17794,7 @@
         <v>373</v>
       </c>
       <c r="K344" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L344" t="n">
         <v>334.2</v>
@@ -17823,7 +17845,7 @@
         <v>375</v>
       </c>
       <c r="K345" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>334.2</v>
@@ -17874,7 +17896,7 @@
         <v>376</v>
       </c>
       <c r="K346" t="n">
-        <v>-17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L346" t="n">
         <v>334.4</v>
@@ -17925,7 +17947,7 @@
         <v>377</v>
       </c>
       <c r="K347" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L347" t="n">
         <v>334.7</v>
@@ -17976,7 +17998,7 @@
         <v>380</v>
       </c>
       <c r="K348" t="n">
-        <v>10</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L348" t="n">
         <v>335.1</v>
@@ -18027,7 +18049,7 @@
         <v>385</v>
       </c>
       <c r="K349" t="n">
-        <v>-12</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L349" t="n">
         <v>335.1</v>
@@ -18078,7 +18100,7 @@
         <v>387</v>
       </c>
       <c r="K350" t="n">
-        <v>-3.703703703703703</v>
+        <v>12.5</v>
       </c>
       <c r="L350" t="n">
         <v>335.4</v>
@@ -18129,7 +18151,7 @@
         <v>387</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L351" t="n">
         <v>335.6</v>
@@ -18180,7 +18202,7 @@
         <v>387</v>
       </c>
       <c r="K352" t="n">
-        <v>-4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L352" t="n">
         <v>335.7</v>
@@ -18231,7 +18253,7 @@
         <v>387</v>
       </c>
       <c r="K353" t="n">
-        <v>-4</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L353" t="n">
         <v>335.8</v>
@@ -18333,7 +18355,7 @@
         <v>388</v>
       </c>
       <c r="K355" t="n">
-        <v>4</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L355" t="n">
         <v>336.1</v>
@@ -18384,7 +18406,7 @@
         <v>388</v>
       </c>
       <c r="K356" t="n">
-        <v>18.18181818181818</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L356" t="n">
         <v>336.3</v>
@@ -18435,7 +18457,7 @@
         <v>389</v>
       </c>
       <c r="K357" t="n">
-        <v>13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L357" t="n">
         <v>336.3</v>
@@ -18486,7 +18508,7 @@
         <v>390</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L358" t="n">
         <v>335.9</v>
@@ -18537,7 +18559,7 @@
         <v>392</v>
       </c>
       <c r="K359" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L359" t="n">
         <v>336.2</v>
@@ -18588,7 +18610,7 @@
         <v>394</v>
       </c>
       <c r="K360" t="n">
-        <v>8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L360" t="n">
         <v>336.1</v>
@@ -18639,7 +18661,7 @@
         <v>396</v>
       </c>
       <c r="K361" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L361" t="n">
         <v>336.2</v>
@@ -18690,7 +18712,7 @@
         <v>400</v>
       </c>
       <c r="K362" t="n">
-        <v>-7.142857142857142</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L362" t="n">
         <v>335.9</v>
@@ -18741,7 +18763,7 @@
         <v>404</v>
       </c>
       <c r="K363" t="n">
-        <v>6.25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L363" t="n">
         <v>336</v>
@@ -18792,7 +18814,7 @@
         <v>406</v>
       </c>
       <c r="K364" t="n">
-        <v>3.03030303030303</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L364" t="n">
         <v>335.9</v>
@@ -18843,7 +18865,7 @@
         <v>406</v>
       </c>
       <c r="K365" t="n">
-        <v>-3.225806451612903</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L365" t="n">
         <v>335.7</v>
@@ -18894,7 +18916,7 @@
         <v>407</v>
       </c>
       <c r="K366" t="n">
-        <v>-3.225806451612903</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L366" t="n">
         <v>335.4</v>
@@ -18945,7 +18967,7 @@
         <v>408</v>
       </c>
       <c r="K367" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>335.3</v>
@@ -18996,7 +19018,7 @@
         <v>409</v>
       </c>
       <c r="K368" t="n">
-        <v>-17.24137931034483</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L368" t="n">
         <v>335.2</v>
@@ -19047,7 +19069,7 @@
         <v>409</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L369" t="n">
         <v>334.9</v>
@@ -19098,7 +19120,7 @@
         <v>409</v>
       </c>
       <c r="K370" t="n">
-        <v>-9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L370" t="n">
         <v>334.8</v>
@@ -19149,7 +19171,7 @@
         <v>412</v>
       </c>
       <c r="K371" t="n">
-        <v>4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>334.8</v>
@@ -19200,7 +19222,7 @@
         <v>413</v>
       </c>
       <c r="K372" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L372" t="n">
         <v>335.1</v>
@@ -19251,7 +19273,7 @@
         <v>414</v>
       </c>
       <c r="K373" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>334.9</v>
@@ -19302,7 +19324,7 @@
         <v>415</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L374" t="n">
         <v>335</v>
@@ -19353,7 +19375,7 @@
         <v>415</v>
       </c>
       <c r="K375" t="n">
-        <v>-3.703703703703703</v>
+        <v>25</v>
       </c>
       <c r="L375" t="n">
         <v>335.1</v>
@@ -19404,7 +19426,7 @@
         <v>415</v>
       </c>
       <c r="K376" t="n">
-        <v>-3.703703703703703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L376" t="n">
         <v>335.3</v>
@@ -19455,7 +19477,7 @@
         <v>416</v>
       </c>
       <c r="K377" t="n">
-        <v>-3.703703703703703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L377" t="n">
         <v>335.3</v>
@@ -19506,7 +19528,7 @@
         <v>418</v>
       </c>
       <c r="K378" t="n">
-        <v>7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L378" t="n">
         <v>335.6</v>
@@ -19557,7 +19579,7 @@
         <v>419</v>
       </c>
       <c r="K379" t="n">
-        <v>-3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L379" t="n">
         <v>335.8</v>
@@ -19659,7 +19681,7 @@
         <v>423</v>
       </c>
       <c r="K381" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>336.1</v>
@@ -19710,7 +19732,7 @@
         <v>423</v>
       </c>
       <c r="K382" t="n">
-        <v>13.04347826086956</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L382" t="n">
         <v>336.1</v>
@@ -19761,7 +19783,7 @@
         <v>424</v>
       </c>
       <c r="K383" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L383" t="n">
         <v>336.1</v>
@@ -19812,7 +19834,7 @@
         <v>424</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L384" t="n">
         <v>336</v>
@@ -19863,7 +19885,7 @@
         <v>426</v>
       </c>
       <c r="K385" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L385" t="n">
         <v>336.1</v>
@@ -19914,7 +19936,7 @@
         <v>427</v>
       </c>
       <c r="K386" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L386" t="n">
         <v>336.1</v>
@@ -19965,7 +19987,7 @@
         <v>427</v>
       </c>
       <c r="K387" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L387" t="n">
         <v>336.2</v>
@@ -20016,7 +20038,7 @@
         <v>428</v>
       </c>
       <c r="K388" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L388" t="n">
         <v>336.2</v>
@@ -20067,7 +20089,7 @@
         <v>431</v>
       </c>
       <c r="K389" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L389" t="n">
         <v>336.6</v>
@@ -20118,7 +20140,7 @@
         <v>432</v>
       </c>
       <c r="K390" t="n">
-        <v>30.43478260869566</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L390" t="n">
         <v>336.9</v>
@@ -20169,7 +20191,7 @@
         <v>432</v>
       </c>
       <c r="K391" t="n">
-        <v>20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L391" t="n">
         <v>337.4</v>
@@ -20220,7 +20242,7 @@
         <v>433</v>
       </c>
       <c r="K392" t="n">
-        <v>30</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L392" t="n">
         <v>338</v>
@@ -20271,7 +20293,7 @@
         <v>433</v>
       </c>
       <c r="K393" t="n">
-        <v>36.84210526315789</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L393" t="n">
         <v>338.7</v>
@@ -20322,7 +20344,7 @@
         <v>435</v>
       </c>
       <c r="K394" t="n">
-        <v>40</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L394" t="n">
         <v>339.6</v>
@@ -20373,7 +20395,7 @@
         <v>435</v>
       </c>
       <c r="K395" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L395" t="n">
         <v>340.3</v>
@@ -20424,7 +20446,7 @@
         <v>436</v>
       </c>
       <c r="K396" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L396" t="n">
         <v>341.2</v>
@@ -20475,7 +20497,7 @@
         <v>437</v>
       </c>
       <c r="K397" t="n">
-        <v>42.85714285714285</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L397" t="n">
         <v>342</v>
@@ -20526,7 +20548,7 @@
         <v>438</v>
       </c>
       <c r="K398" t="n">
-        <v>40</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L398" t="n">
         <v>342.8</v>
@@ -20577,7 +20599,7 @@
         <v>438</v>
       </c>
       <c r="K399" t="n">
-        <v>47.36842105263158</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L399" t="n">
         <v>343.3</v>
@@ -20628,7 +20650,7 @@
         <v>442</v>
       </c>
       <c r="K400" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L400" t="n">
         <v>343.3</v>
@@ -20679,7 +20701,7 @@
         <v>445</v>
       </c>
       <c r="K401" t="n">
-        <v>36.36363636363637</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L401" t="n">
         <v>343.6</v>
@@ -20730,7 +20752,7 @@
         <v>447</v>
       </c>
       <c r="K402" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>343.6</v>
@@ -20781,7 +20803,7 @@
         <v>447</v>
       </c>
       <c r="K403" t="n">
-        <v>30.43478260869566</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L403" t="n">
         <v>343.6</v>
@@ -20832,7 +20854,7 @@
         <v>448</v>
       </c>
       <c r="K404" t="n">
-        <v>25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L404" t="n">
         <v>343.3</v>
@@ -20883,7 +20905,7 @@
         <v>451</v>
       </c>
       <c r="K405" t="n">
-        <v>28</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L405" t="n">
         <v>343.3</v>
@@ -20934,7 +20956,7 @@
         <v>451</v>
       </c>
       <c r="K406" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>343.2</v>
@@ -20985,7 +21007,7 @@
         <v>453</v>
       </c>
       <c r="K407" t="n">
-        <v>23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L407" t="n">
         <v>343</v>
@@ -21036,7 +21058,7 @@
         <v>455</v>
       </c>
       <c r="K408" t="n">
-        <v>25.92592592592592</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L408" t="n">
         <v>342.9</v>
@@ -21087,7 +21109,7 @@
         <v>455</v>
       </c>
       <c r="K409" t="n">
-        <v>16.66666666666666</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L409" t="n">
         <v>342.8</v>
@@ -21138,7 +21160,7 @@
         <v>455</v>
       </c>
       <c r="K410" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>343.1</v>
@@ -21189,7 +21211,7 @@
         <v>455</v>
       </c>
       <c r="K411" t="n">
-        <v>13.04347826086956</v>
+        <v>25</v>
       </c>
       <c r="L411" t="n">
         <v>343.1</v>
@@ -21240,7 +21262,7 @@
         <v>455</v>
       </c>
       <c r="K412" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L412" t="n">
         <v>343.3</v>
@@ -21291,7 +21313,7 @@
         <v>456</v>
       </c>
       <c r="K413" t="n">
-        <v>13.04347826086956</v>
+        <v>50</v>
       </c>
       <c r="L413" t="n">
         <v>343.6</v>
@@ -21342,7 +21364,7 @@
         <v>456</v>
       </c>
       <c r="K414" t="n">
-        <v>4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L414" t="n">
         <v>344</v>
@@ -21393,7 +21415,7 @@
         <v>457</v>
       </c>
       <c r="K415" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L415" t="n">
         <v>344.2</v>
@@ -21444,7 +21466,7 @@
         <v>459</v>
       </c>
       <c r="K416" t="n">
-        <v>-4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L416" t="n">
         <v>344.2</v>
@@ -21495,7 +21517,7 @@
         <v>461</v>
       </c>
       <c r="K417" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>344.6</v>
@@ -21546,7 +21568,7 @@
         <v>463</v>
       </c>
       <c r="K418" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>344.6</v>
@@ -21597,7 +21619,7 @@
         <v>464</v>
       </c>
       <c r="K419" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L419" t="n">
         <v>344.7</v>
@@ -21648,7 +21670,7 @@
         <v>466</v>
       </c>
       <c r="K420" t="n">
-        <v>25</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L420" t="n">
         <v>345</v>
@@ -21699,7 +21721,7 @@
         <v>466</v>
       </c>
       <c r="K421" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L421" t="n">
         <v>345.3</v>
@@ -21750,7 +21772,7 @@
         <v>468</v>
       </c>
       <c r="K422" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L422" t="n">
         <v>345.4</v>
@@ -21801,7 +21823,7 @@
         <v>470</v>
       </c>
       <c r="K423" t="n">
-        <v>21.73913043478261</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L423" t="n">
         <v>345.6</v>
@@ -21852,7 +21874,7 @@
         <v>470</v>
       </c>
       <c r="K424" t="n">
-        <v>27.27272727272727</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L424" t="n">
         <v>345.8</v>
@@ -21903,7 +21925,7 @@
         <v>470</v>
       </c>
       <c r="K425" t="n">
-        <v>15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L425" t="n">
         <v>345.9</v>
@@ -21954,7 +21976,7 @@
         <v>471</v>
       </c>
       <c r="K426" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L426" t="n">
         <v>346.1</v>
@@ -22005,7 +22027,7 @@
         <v>472</v>
       </c>
       <c r="K427" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L427" t="n">
         <v>346.2</v>
@@ -22056,7 +22078,7 @@
         <v>472</v>
       </c>
       <c r="K428" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L428" t="n">
         <v>346.5</v>
@@ -22107,7 +22129,7 @@
         <v>473</v>
       </c>
       <c r="K429" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L429" t="n">
         <v>346.8</v>
@@ -22158,7 +22180,7 @@
         <v>475</v>
       </c>
       <c r="K430" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>347.1</v>
@@ -22209,7 +22231,7 @@
         <v>475</v>
       </c>
       <c r="K431" t="n">
-        <v>30</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L431" t="n">
         <v>347.4</v>
@@ -22260,7 +22282,7 @@
         <v>476</v>
       </c>
       <c r="K432" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L432" t="n">
         <v>347.8</v>
@@ -22311,7 +22333,7 @@
         <v>478</v>
       </c>
       <c r="K433" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>347.8</v>
@@ -22362,7 +22384,7 @@
         <v>481</v>
       </c>
       <c r="K434" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L434" t="n">
         <v>348.1</v>
@@ -22413,7 +22435,7 @@
         <v>481</v>
       </c>
       <c r="K435" t="n">
-        <v>16.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L435" t="n">
         <v>348.4</v>
@@ -22464,7 +22486,7 @@
         <v>482</v>
       </c>
       <c r="K436" t="n">
-        <v>30.43478260869566</v>
+        <v>40</v>
       </c>
       <c r="L436" t="n">
         <v>348.9</v>
@@ -22515,7 +22537,7 @@
         <v>483</v>
       </c>
       <c r="K437" t="n">
-        <v>18.18181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L437" t="n">
         <v>349.2</v>
@@ -22566,7 +22588,7 @@
         <v>485</v>
       </c>
       <c r="K438" t="n">
-        <v>36.36363636363637</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>349.7</v>
@@ -22617,7 +22639,7 @@
         <v>486</v>
       </c>
       <c r="K439" t="n">
-        <v>27.27272727272727</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L439" t="n">
         <v>350</v>
@@ -22668,7 +22690,7 @@
         <v>488</v>
       </c>
       <c r="K440" t="n">
-        <v>9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L440" t="n">
         <v>349.9</v>
@@ -22719,7 +22741,7 @@
         <v>488</v>
       </c>
       <c r="K441" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>349.8</v>
@@ -22770,7 +22792,7 @@
         <v>489</v>
       </c>
       <c r="K442" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L442" t="n">
         <v>349.9</v>
@@ -22821,7 +22843,7 @@
         <v>490</v>
       </c>
       <c r="K443" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L443" t="n">
         <v>350.3</v>
@@ -22872,7 +22894,7 @@
         <v>490</v>
       </c>
       <c r="K444" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L444" t="n">
         <v>350.4</v>
@@ -22923,7 +22945,7 @@
         <v>490</v>
       </c>
       <c r="K445" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>350.5</v>
@@ -22974,7 +22996,7 @@
         <v>490</v>
       </c>
       <c r="K446" t="n">
-        <v>26.31578947368421</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L446" t="n">
         <v>350.5</v>
@@ -23025,7 +23047,7 @@
         <v>490</v>
       </c>
       <c r="K447" t="n">
-        <v>22.22222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L447" t="n">
         <v>350.6</v>
@@ -23076,7 +23098,7 @@
         <v>490</v>
       </c>
       <c r="K448" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>350.5</v>
@@ -23127,7 +23149,7 @@
         <v>490</v>
       </c>
       <c r="K449" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L449" t="n">
         <v>350.5</v>
@@ -23178,7 +23200,7 @@
         <v>490</v>
       </c>
       <c r="K450" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L450" t="n">
         <v>350.7</v>
@@ -23229,7 +23251,7 @@
         <v>490</v>
       </c>
       <c r="K451" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L451" t="n">
         <v>350.9</v>
@@ -23279,9 +23301,7 @@
       <c r="J452" t="n">
         <v>490</v>
       </c>
-      <c r="K452" t="n">
-        <v>14.28571428571428</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>351</v>
       </c>
@@ -23331,7 +23351,7 @@
         <v>492</v>
       </c>
       <c r="K453" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L453" t="n">
         <v>351.2</v>
@@ -23382,7 +23402,7 @@
         <v>494</v>
       </c>
       <c r="K454" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>351.2</v>
@@ -23433,7 +23453,7 @@
         <v>495</v>
       </c>
       <c r="K455" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L455" t="n">
         <v>351.3</v>
@@ -23586,7 +23606,7 @@
         <v>498</v>
       </c>
       <c r="K458" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L458" t="n">
         <v>351.6</v>
@@ -23637,7 +23657,7 @@
         <v>498</v>
       </c>
       <c r="K459" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L459" t="n">
         <v>351.8</v>
@@ -23688,7 +23708,7 @@
         <v>498</v>
       </c>
       <c r="K460" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L460" t="n">
         <v>352</v>
@@ -23739,7 +23759,7 @@
         <v>499</v>
       </c>
       <c r="K461" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L461" t="n">
         <v>352.1</v>
@@ -23790,7 +23810,7 @@
         <v>500</v>
       </c>
       <c r="K462" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>352.3</v>
@@ -23841,7 +23861,7 @@
         <v>501</v>
       </c>
       <c r="K463" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L463" t="n">
         <v>352.2</v>
@@ -23892,7 +23912,7 @@
         <v>501</v>
       </c>
       <c r="K464" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>352.3</v>
@@ -24045,7 +24065,7 @@
         <v>504</v>
       </c>
       <c r="K467" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
         <v>352.5</v>
@@ -24096,7 +24116,7 @@
         <v>504</v>
       </c>
       <c r="K468" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>352.5</v>
@@ -24147,7 +24167,7 @@
         <v>504</v>
       </c>
       <c r="K469" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>352.5</v>
@@ -24198,7 +24218,7 @@
         <v>505</v>
       </c>
       <c r="K470" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>352.4</v>
@@ -24249,7 +24269,7 @@
         <v>507</v>
       </c>
       <c r="K471" t="n">
-        <v>-5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L471" t="n">
         <v>352.2</v>
@@ -24300,7 +24320,7 @@
         <v>508</v>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L472" t="n">
         <v>352</v>
@@ -24351,7 +24371,7 @@
         <v>510</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L473" t="n">
         <v>352.1</v>
@@ -24453,7 +24473,7 @@
         <v>512</v>
       </c>
       <c r="K475" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L475" t="n">
         <v>352</v>
@@ -24508,7 +24528,7 @@
         <v>513</v>
       </c>
       <c r="K476" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L476" t="n">
         <v>351.9</v>
@@ -24565,7 +24585,7 @@
         <v>514</v>
       </c>
       <c r="K477" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>351.9</v>
@@ -24624,7 +24644,7 @@
         <v>516</v>
       </c>
       <c r="K478" t="n">
-        <v>-11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L478" t="n">
         <v>351.7</v>
@@ -24681,7 +24701,7 @@
         <v>516</v>
       </c>
       <c r="K479" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L479" t="n">
         <v>351.5</v>
@@ -24736,7 +24756,7 @@
         <v>517</v>
       </c>
       <c r="K480" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L480" t="n">
         <v>351.5</v>
@@ -24793,7 +24813,7 @@
         <v>518</v>
       </c>
       <c r="K481" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>351.6</v>
@@ -24850,7 +24870,7 @@
         <v>519</v>
       </c>
       <c r="K482" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L482" t="n">
         <v>351.7</v>
@@ -24907,7 +24927,7 @@
         <v>519</v>
       </c>
       <c r="K483" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L483" t="n">
         <v>351.6</v>
@@ -24964,7 +24984,7 @@
         <v>519</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L484" t="n">
         <v>351.7</v>
@@ -25021,7 +25041,7 @@
         <v>521</v>
       </c>
       <c r="K485" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L485" t="n">
         <v>352</v>
@@ -25078,7 +25098,7 @@
         <v>521</v>
       </c>
       <c r="K486" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L486" t="n">
         <v>352.2</v>
@@ -25135,7 +25155,7 @@
         <v>521</v>
       </c>
       <c r="K487" t="n">
-        <v>5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L487" t="n">
         <v>352.3</v>
@@ -25192,7 +25212,7 @@
         <v>522</v>
       </c>
       <c r="K488" t="n">
-        <v>11.11111111111111</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L488" t="n">
         <v>352.7</v>
@@ -25249,7 +25269,7 @@
         <v>522</v>
       </c>
       <c r="K489" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L489" t="n">
         <v>353.1</v>
@@ -25306,7 +25326,7 @@
         <v>523</v>
       </c>
       <c r="K490" t="n">
-        <v>22.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L490" t="n">
         <v>353.5</v>
@@ -25363,7 +25383,7 @@
         <v>523</v>
       </c>
       <c r="K491" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L491" t="n">
         <v>354</v>
@@ -25420,7 +25440,7 @@
         <v>525</v>
       </c>
       <c r="K492" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L492" t="n">
         <v>354.2</v>
@@ -25477,7 +25497,7 @@
         <v>526</v>
       </c>
       <c r="K493" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L493" t="n">
         <v>354.5</v>
@@ -25534,7 +25554,7 @@
         <v>527</v>
       </c>
       <c r="K494" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
         <v>354.7</v>
@@ -25591,7 +25611,7 @@
         <v>527</v>
       </c>
       <c r="K495" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>354.7</v>
@@ -25648,7 +25668,7 @@
         <v>529</v>
       </c>
       <c r="K496" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L496" t="n">
         <v>354.5</v>
@@ -25705,7 +25725,7 @@
         <v>531</v>
       </c>
       <c r="K497" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L497" t="n">
         <v>354.5</v>

--- a/BackTest/2019-10-25 BackTest MTL.xlsx
+++ b/BackTest/2019-10-25 BackTest MTL.xlsx
@@ -451,17 +451,13 @@
         <v>325.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>333</v>
-      </c>
-      <c r="K2" t="n">
-        <v>333</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>325.7333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>333</v>
-      </c>
-      <c r="K3" t="n">
-        <v>333</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>325.95</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>333</v>
-      </c>
-      <c r="K4" t="n">
-        <v>333</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>326.1333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>332</v>
-      </c>
-      <c r="K5" t="n">
-        <v>333</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>326.3166666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>331</v>
-      </c>
-      <c r="K6" t="n">
-        <v>333</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>326.5166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>331</v>
-      </c>
-      <c r="K7" t="n">
-        <v>333</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>326.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>331</v>
-      </c>
-      <c r="K8" t="n">
-        <v>333</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>326.85</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>331</v>
-      </c>
-      <c r="K9" t="n">
-        <v>333</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>327.0166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>330</v>
-      </c>
-      <c r="K10" t="n">
-        <v>333</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>327.1666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>331</v>
-      </c>
-      <c r="K11" t="n">
-        <v>333</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>327.3666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>332</v>
-      </c>
-      <c r="K12" t="n">
-        <v>333</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>327.5333333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>332</v>
-      </c>
-      <c r="K13" t="n">
-        <v>333</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>327.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>332</v>
-      </c>
-      <c r="K14" t="n">
-        <v>333</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>327.8666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>331</v>
-      </c>
-      <c r="K15" t="n">
-        <v>333</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>333</v>
-      </c>
-      <c r="K16" t="n">
-        <v>333</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>328.3</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>337</v>
-      </c>
-      <c r="K17" t="n">
-        <v>333</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>328.5833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>339</v>
-      </c>
-      <c r="K18" t="n">
-        <v>333</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>328.8666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>339</v>
-      </c>
-      <c r="K19" t="n">
-        <v>333</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1227,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>333</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1268,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>333</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1309,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>333</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>333</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1388,17 +1224,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>333</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,16 +1262,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>333</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>1.031036036036036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1610,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1645,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1680,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2240,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -3077,14 +2901,20 @@
         <v>343.2</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>339</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3119,7 +2949,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3154,7 +2988,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +3020,20 @@
         <v>343.6333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>341</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3217,14 +3061,20 @@
         <v>343.8166666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>341</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3252,14 +3102,20 @@
         <v>343.8666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>342</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3294,7 +3150,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3329,7 +3189,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3364,7 +3228,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3399,7 +3267,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3434,7 +3306,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3469,7 +3345,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3504,7 +3384,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3539,7 +3423,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3574,7 +3462,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3609,7 +3501,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3644,7 +3540,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3679,7 +3579,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3707,14 +3611,20 @@
         <v>344.0166666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>341</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3749,7 +3659,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3784,7 +3698,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3819,7 +3737,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3776,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3889,7 +3815,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3924,7 +3854,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3959,7 +3893,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3994,7 +3932,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4029,7 +3971,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4064,7 +4010,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4099,7 +4049,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4134,7 +4088,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4169,7 +4127,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4204,7 +4166,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4239,7 +4205,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4274,7 +4244,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4309,7 +4283,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4344,7 +4322,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4379,7 +4361,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4414,7 +4400,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4449,7 +4439,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4484,7 +4478,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4519,7 +4517,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4554,7 +4556,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4589,7 +4595,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4624,7 +4634,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4659,7 +4673,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4694,7 +4712,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4729,7 +4751,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4764,7 +4790,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +4829,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4834,7 +4868,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4869,7 +4907,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4904,7 +4946,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4939,7 +4985,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4974,7 +5024,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5063,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5044,7 +5102,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5079,7 +5141,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5114,7 +5180,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5149,7 +5219,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5184,7 +5258,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5219,7 +5297,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5254,7 +5336,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5289,7 +5375,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5324,7 +5414,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5359,7 +5453,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5394,7 +5492,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5429,7 +5531,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5464,7 +5570,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +5609,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5534,7 +5648,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5569,7 +5687,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5604,7 +5726,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5639,7 +5765,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5674,7 +5804,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5709,7 +5843,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5744,7 +5882,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5779,7 +5921,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5814,7 +5960,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5849,7 +5999,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5884,7 +6038,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5919,7 +6077,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5954,7 +6116,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5989,7 +6155,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6024,7 +6194,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6059,7 +6233,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6094,7 +6272,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6129,7 +6311,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6350,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6199,7 +6389,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6234,7 +6428,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6269,7 +6467,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6304,7 +6506,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6339,7 +6545,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6374,7 +6584,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6409,7 +6623,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6444,7 +6662,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6479,7 +6701,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6514,7 +6740,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6549,7 +6779,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6584,7 +6818,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6619,7 +6857,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +6896,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6689,7 +6935,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6724,7 +6974,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6759,7 +7013,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6794,7 +7052,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6829,7 +7091,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6864,7 +7130,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6899,7 +7169,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6934,7 +7208,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6969,7 +7247,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7004,7 +7286,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7039,7 +7325,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7074,7 +7364,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7109,7 +7403,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7144,7 +7442,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7179,7 +7481,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7214,7 +7520,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7249,7 +7559,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7284,7 +7598,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7637,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7354,7 +7676,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7389,7 +7715,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7424,7 +7754,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7459,7 +7793,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7494,7 +7832,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7529,7 +7871,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7564,7 +7910,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7599,7 +7949,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7634,7 +7988,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7669,7 +8027,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7704,7 +8066,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7739,7 +8105,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7774,7 +8144,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +8183,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7844,7 +8222,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7879,7 +8261,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7914,7 +8300,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7949,7 +8339,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7984,7 +8378,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8019,7 +8417,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8054,7 +8456,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8089,7 +8495,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8124,7 +8534,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8159,7 +8573,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8194,7 +8612,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8229,7 +8651,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8264,7 +8690,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8299,7 +8729,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8334,7 +8768,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8369,7 +8807,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8404,7 +8846,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8439,7 +8885,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8924,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8509,7 +8963,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8544,7 +9002,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8579,7 +9041,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8614,7 +9080,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8649,7 +9119,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8684,7 +9158,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +9197,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8754,7 +9236,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8789,7 +9275,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8824,7 +9314,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8859,7 +9353,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8894,7 +9392,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8929,7 +9431,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8964,7 +9470,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8999,7 +9509,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9034,7 +9548,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9069,7 +9587,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9104,7 +9626,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9139,7 +9665,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9174,7 +9704,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9209,7 +9743,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9244,7 +9782,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9279,7 +9821,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9314,7 +9860,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9349,7 +9899,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9384,7 +9938,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9419,7 +9977,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9454,7 +10016,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9489,7 +10055,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9517,14 +10087,20 @@
         <v>345.0833333333333</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>341</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9559,7 +10135,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9587,14 +10167,20 @@
         <v>344.9166666666667</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>341</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10215,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9664,7 +10254,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9699,7 +10293,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9727,14 +10325,20 @@
         <v>344.3833333333333</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>341</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9769,7 +10373,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9804,7 +10412,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9839,7 +10451,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9874,7 +10490,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9909,7 +10529,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9937,14 +10561,20 @@
         <v>343.6</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>340</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9979,7 +10609,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10007,14 +10641,20 @@
         <v>343.25</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>338</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10042,14 +10682,20 @@
         <v>343.1166666666667</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>338</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10077,14 +10723,20 @@
         <v>342.9833333333333</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>339</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10119,7 +10771,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10154,7 +10810,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10189,7 +10849,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10224,7 +10888,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10259,7 +10927,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10294,7 +10966,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10329,7 +11005,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10364,7 +11044,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10399,7 +11083,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10434,7 +11122,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10469,7 +11161,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10504,7 +11200,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10539,7 +11239,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10574,7 +11278,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10609,7 +11317,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10644,7 +11356,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10679,7 +11395,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10714,7 +11434,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10749,7 +11473,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11512,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10819,7 +11551,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10854,7 +11590,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10889,7 +11629,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10924,7 +11668,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10959,7 +11707,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10994,7 +11746,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11029,7 +11785,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11064,7 +11824,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11099,7 +11863,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11134,7 +11902,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11169,7 +11941,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11204,7 +11980,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11239,7 +12019,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +12058,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11309,7 +12097,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11344,7 +12136,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11379,7 +12175,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11414,7 +12214,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11449,7 +12253,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11484,7 +12292,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11519,7 +12331,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11554,7 +12370,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11589,7 +12409,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11624,7 +12448,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11659,7 +12487,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11694,7 +12526,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11729,7 +12565,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11764,7 +12604,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11799,7 +12643,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11834,7 +12682,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11869,7 +12721,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11904,7 +12760,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12799,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11974,7 +12838,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12009,7 +12877,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12044,7 +12916,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12079,7 +12955,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12114,7 +12994,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12149,7 +13033,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12184,7 +13072,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12219,7 +13111,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12254,7 +13150,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12289,7 +13189,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12324,7 +13228,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12359,7 +13267,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12394,7 +13306,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12429,7 +13345,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12464,7 +13384,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12499,7 +13423,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12534,7 +13462,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12569,7 +13501,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12604,7 +13540,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12639,7 +13579,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12674,7 +13618,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12709,7 +13657,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12744,7 +13696,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12779,7 +13735,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12814,7 +13774,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12849,7 +13813,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12884,7 +13852,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12919,7 +13891,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12954,7 +13930,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12989,7 +13969,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13024,7 +14008,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13059,7 +14047,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +14086,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13129,7 +14125,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13164,7 +14164,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13199,7 +14203,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13234,7 +14242,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13269,7 +14281,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13304,7 +14320,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13339,7 +14359,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13374,7 +14398,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13409,7 +14437,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13444,7 +14476,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13479,7 +14515,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13514,7 +14554,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13549,7 +14593,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13584,7 +14632,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13619,7 +14671,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13654,7 +14710,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13689,7 +14749,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13724,7 +14788,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13759,7 +14827,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13794,7 +14866,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13829,7 +14905,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13864,7 +14944,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13899,7 +14983,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13934,7 +15022,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13969,7 +15061,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14004,7 +15100,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14039,7 +15139,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14074,7 +15178,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14109,7 +15217,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14144,7 +15256,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14179,7 +15295,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14214,7 +15334,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +15373,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14284,7 +15412,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14319,7 +15451,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14354,7 +15490,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14389,7 +15529,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14424,7 +15568,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14459,7 +15607,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14494,7 +15646,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14529,7 +15685,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14564,7 +15724,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14599,7 +15763,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14634,7 +15802,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +15841,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14704,7 +15880,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14739,7 +15919,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14774,7 +15958,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14809,7 +15997,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14844,7 +16036,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14879,7 +16075,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14914,7 +16114,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14949,7 +16153,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14984,7 +16192,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15019,7 +16231,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15054,7 +16270,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15089,7 +16309,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15124,7 +16348,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15159,7 +16387,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15194,7 +16426,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15229,7 +16465,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15264,7 +16504,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15299,7 +16543,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15334,7 +16582,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15369,7 +16621,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +16660,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15439,7 +16699,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15474,7 +16738,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15509,7 +16777,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15544,7 +16816,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15579,7 +16855,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15614,7 +16894,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15649,7 +16933,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15684,7 +16972,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15719,7 +17011,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15754,7 +17050,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15789,7 +17089,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15824,7 +17128,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15859,7 +17167,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -15894,7 +17206,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -15929,7 +17245,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -15964,7 +17284,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -15999,7 +17323,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16034,7 +17362,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16069,7 +17401,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16104,7 +17440,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16139,7 +17479,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16174,7 +17518,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16209,7 +17557,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16244,7 +17596,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16279,7 +17635,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16314,7 +17674,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16349,7 +17713,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16384,7 +17752,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16419,7 +17791,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16454,7 +17830,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16489,7 +17869,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16524,7 +17908,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +17947,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16594,7 +17986,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16629,7 +18025,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16664,7 +18064,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16699,7 +18103,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16734,7 +18142,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16769,7 +18181,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16804,7 +18220,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16839,7 +18259,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16874,7 +18298,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16909,7 +18337,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -16944,7 +18376,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +18415,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17014,7 +18454,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17049,7 +18493,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17084,7 +18532,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17119,7 +18571,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17154,7 +18610,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17189,7 +18649,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17224,7 +18688,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-25 BackTest MTL.xlsx
+++ b/BackTest/2019-10-25 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16519.9327</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>319</v>
@@ -523,7 +523,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>320</v>
@@ -562,7 +562,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>320</v>
@@ -601,7 +601,7 @@
         <v>-15291.8452</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>320</v>
@@ -640,7 +640,7 @@
         <v>-14277.4761</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>319</v>
@@ -679,7 +679,7 @@
         <v>-14227.6662</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>320</v>
@@ -718,7 +718,7 @@
         <v>-14527.6662</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>321</v>
@@ -757,7 +757,7 @@
         <v>-11417.7555</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>320</v>
@@ -796,7 +796,7 @@
         <v>-14519.8914</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>323</v>
@@ -835,9 +835,11 @@
         <v>-13539.9856</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>320</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,9 +874,11 @@
         <v>-13539.9856</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>322</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -909,7 +913,7 @@
         <v>-17239.5428</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>322</v>
@@ -948,9 +952,11 @@
         <v>-17239.5428</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>321</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -985,7 +991,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>321</v>
@@ -1024,7 +1030,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>323</v>
@@ -1063,7 +1069,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>323</v>
@@ -1102,7 +1108,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>323</v>
@@ -1141,7 +1147,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>323</v>
@@ -1180,9 +1186,11 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>323</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1217,9 +1225,11 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>323</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1254,7 +1264,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>324</v>
@@ -1293,7 +1303,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>324</v>
@@ -1332,7 +1342,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>324</v>
@@ -1371,7 +1381,7 @@
         <v>-16788.1613</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>324</v>
@@ -1410,7 +1420,7 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>321</v>
@@ -1449,7 +1459,7 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>323</v>
@@ -1488,7 +1498,7 @@
         <v>-17983.04399999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>323</v>
@@ -1527,7 +1537,7 @@
         <v>-17983.04399999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>321</v>
@@ -1566,7 +1576,7 @@
         <v>-17983.04399999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>321</v>
@@ -1605,7 +1615,7 @@
         <v>-18283.04399999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>321</v>
@@ -1644,7 +1654,7 @@
         <v>-15394.04419999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>320</v>
@@ -1683,7 +1693,7 @@
         <v>-8203.044199999995</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>322</v>
@@ -1722,7 +1732,7 @@
         <v>-3887.561699999995</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>323</v>
@@ -1761,9 +1771,11 @@
         <v>-967.5616999999947</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>324</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1798,9 +1810,11 @@
         <v>6926.499000000005</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>325</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1835,9 +1849,11 @@
         <v>7226.499000000005</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>326</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1872,9 +1888,11 @@
         <v>7226.499000000005</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>327</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1909,9 +1927,11 @@
         <v>11041.9852</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>327</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1946,9 +1966,11 @@
         <v>24439.96400000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>328</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1983,9 +2005,11 @@
         <v>24439.96400000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>329</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2094,9 +2118,11 @@
         <v>26738.48680000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>330</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2131,9 +2157,11 @@
         <v>26860.82690000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>330</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2168,9 +2196,11 @@
         <v>26860.82690000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>331</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2205,9 +2235,11 @@
         <v>27080.14910000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>331</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2242,9 +2274,11 @@
         <v>27080.14910000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>332</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2279,9 +2313,11 @@
         <v>26933.14910000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>332</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2316,9 +2352,11 @@
         <v>22831.9795</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>331</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2353,9 +2391,11 @@
         <v>25263.48953423</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>330</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2390,9 +2430,11 @@
         <v>22700.17493423</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>333</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2427,9 +2469,11 @@
         <v>22700.17493423</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>331</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2464,9 +2508,11 @@
         <v>22700.17493423</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>331</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2501,9 +2547,11 @@
         <v>23172.37273423</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>331</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2538,9 +2586,11 @@
         <v>23172.37273423</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>332</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2575,9 +2625,11 @@
         <v>23186.42103423</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>332</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2649,9 +2701,11 @@
         <v>23186.42103423</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>333</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2723,9 +2777,11 @@
         <v>23186.42103423</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>333</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2760,9 +2816,11 @@
         <v>23186.42103423</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>333</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2797,9 +2855,11 @@
         <v>20401.33363423</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>333</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2834,9 +2894,11 @@
         <v>20401.33363423</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>331</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2871,9 +2933,11 @@
         <v>20401.33363423</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>331</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2908,9 +2972,11 @@
         <v>20401.33363423</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>331</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2945,9 +3011,11 @@
         <v>16521.33363423</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>331</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2982,9 +3050,11 @@
         <v>16521.33363423</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>330</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3019,9 +3089,11 @@
         <v>16643.43093423</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>330</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3056,9 +3128,11 @@
         <v>16643.43093423</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>332</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3093,9 +3167,11 @@
         <v>16643.43093423</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>332</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3130,9 +3206,11 @@
         <v>16643.43093423</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>332</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3167,9 +3245,11 @@
         <v>16527.43093423</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>332</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3204,9 +3284,11 @@
         <v>16527.43093423</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>331</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3241,9 +3323,11 @@
         <v>26008.43093423</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>331</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3315,7 +3399,7 @@
         <v>39795.11093423</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3352,7 +3436,7 @@
         <v>41568.11093423</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3389,9 +3473,11 @@
         <v>42524.35053423</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>341</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3463,7 +3549,7 @@
         <v>49483.99423423001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3500,7 +3586,7 @@
         <v>47169.26673423</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3537,7 +3623,7 @@
         <v>47169.26673423</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3574,7 +3660,7 @@
         <v>46636.50633423001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3611,7 +3697,7 @@
         <v>47541.30743423</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3648,16 +3734,18 @@
         <v>47014.70143423</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
       <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -3687,7 +3775,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3720,7 +3812,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3753,7 +3849,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3786,7 +3886,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3819,7 +3923,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3852,7 +3960,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3885,7 +3997,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3918,7 +4034,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3951,7 +4071,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3984,7 +4108,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4017,7 +4145,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4046,11 +4178,15 @@
         <v>42126.97033423</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +4215,15 @@
         <v>42126.97033423</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4112,11 +4252,15 @@
         <v>50553.93863423</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +4289,15 @@
         <v>50331.85003423</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4178,11 +4326,15 @@
         <v>50483.71693423</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4211,11 +4363,15 @@
         <v>49688.62833422999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4244,11 +4400,15 @@
         <v>58705.03443422999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4277,11 +4437,15 @@
         <v>58679.03443422999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4310,11 +4474,15 @@
         <v>58679.03443422999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4343,11 +4511,15 @@
         <v>58678.03443422999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4380,7 +4552,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4589,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4446,7 +4626,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4479,7 +4663,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4512,7 +4700,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4545,7 +4737,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4770,15 @@
         <v>60186.46003423</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4807,15 @@
         <v>60196.46003423</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4644,7 +4848,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4677,7 +4885,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4710,7 +4922,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4743,7 +4959,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4776,7 +4996,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4805,11 +5029,15 @@
         <v>53218.28413422999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4838,11 +5066,15 @@
         <v>53219.28413422999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4875,7 +5107,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4908,7 +5144,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4937,11 +5177,15 @@
         <v>53814.07363422999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4970,11 +5214,15 @@
         <v>53814.07363422999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5003,11 +5251,15 @@
         <v>53715.21873422999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5040,7 +5292,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5073,7 +5329,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5102,11 +5362,15 @@
         <v>53446.78483423</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5139,7 +5403,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +5436,15 @@
         <v>54232.22283423</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5201,11 +5473,15 @@
         <v>54232.22283423</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5234,11 +5510,15 @@
         <v>54248.89733423</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5271,7 +5551,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5304,7 +5588,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5337,7 +5625,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5370,7 +5662,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5403,7 +5699,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5436,7 +5736,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5469,7 +5773,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5502,7 +5810,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5535,7 +5847,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5884,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5601,7 +5921,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5634,7 +5958,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5667,7 +5995,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5700,7 +6032,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5733,7 +6069,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5766,7 +6106,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5799,7 +6143,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5832,7 +6180,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5861,11 +6213,15 @@
         <v>62537.16603422999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +6250,15 @@
         <v>63218.38293422999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5931,7 +6291,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5964,7 +6328,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5997,7 +6365,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6030,7 +6402,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6063,7 +6439,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6096,7 +6476,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6129,7 +6513,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6162,7 +6550,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6191,11 +6583,15 @@
         <v>81218.15291314</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6228,7 +6624,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6261,7 +6661,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6294,7 +6698,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6327,7 +6735,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6360,7 +6772,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6393,7 +6809,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6426,7 +6846,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6459,7 +6883,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6488,11 +6916,15 @@
         <v>147008.21935821</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6525,7 +6957,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6558,7 +6994,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6591,7 +7031,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6624,7 +7068,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6657,7 +7105,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6690,7 +7142,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6719,11 +7175,15 @@
         <v>153834.74493111</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6752,11 +7212,15 @@
         <v>139820.41953111</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +7249,15 @@
         <v>144877.98083111</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6818,14 +7286,16 @@
         <v>152187.01405821</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -6851,7 +7321,7 @@
         <v>151488.63418531</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6884,7 +7354,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6917,7 +7387,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6950,7 +7420,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6983,7 +7453,7 @@
         <v>135545.51626438</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7016,7 +7486,7 @@
         <v>163390.80936438</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7049,7 +7519,7 @@
         <v>157288.42786438</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7082,7 +7552,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7115,7 +7585,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7148,7 +7618,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7181,7 +7651,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7214,7 +7684,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7247,7 +7717,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7280,7 +7750,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7313,7 +7783,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7346,7 +7816,7 @@
         <v>155682.57866438</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7379,7 +7849,7 @@
         <v>165010.7486643801</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7412,7 +7882,7 @@
         <v>163461.6231643801</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7445,7 +7915,7 @@
         <v>162863.6373643801</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7478,7 +7948,7 @@
         <v>168096.3652643801</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7511,7 +7981,7 @@
         <v>168096.3652643801</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7544,7 +8014,7 @@
         <v>166433.7868643801</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7577,7 +8047,7 @@
         <v>165564.4980643801</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7610,7 +8080,7 @@
         <v>165565.4980643801</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7643,7 +8113,7 @@
         <v>163517.5293643801</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7676,7 +8146,7 @@
         <v>163174.83796438</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7709,7 +8179,7 @@
         <v>163174.83796438</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7742,7 +8212,7 @@
         <v>163205.83796438</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7775,7 +8245,7 @@
         <v>163205.83796438</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7808,7 +8278,7 @@
         <v>163206.83796438</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7973,7 +8443,7 @@
         <v>162994.5891643801</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8006,7 +8476,7 @@
         <v>168094.5891643801</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8072,7 +8542,7 @@
         <v>167619.1054643801</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8138,7 +8608,7 @@
         <v>158115.8252643801</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8171,7 +8641,7 @@
         <v>159419.72816438</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8204,7 +8674,7 @@
         <v>159419.72816438</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8237,7 +8707,7 @@
         <v>161690.56306438</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8270,7 +8740,7 @@
         <v>161690.56306438</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8303,7 +8773,7 @@
         <v>153097.80666438</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8336,7 +8806,7 @@
         <v>153097.80666438</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8369,7 +8839,7 @@
         <v>153097.80666438</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8402,7 +8872,7 @@
         <v>153098.80666438</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8435,7 +8905,7 @@
         <v>153098.80666438</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8468,7 +8938,7 @@
         <v>153098.80666438</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8501,7 +8971,7 @@
         <v>153099.80666438</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8534,7 +9004,7 @@
         <v>153050.50276438</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8567,7 +9037,7 @@
         <v>143514.29956438</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8600,7 +9070,7 @@
         <v>143514.29956438</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8633,7 +9103,7 @@
         <v>143514.29956438</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8666,7 +9136,7 @@
         <v>143488.05426438</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8699,7 +9169,7 @@
         <v>143488.05426438</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8732,7 +9202,7 @@
         <v>145524.42166438</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8765,7 +9235,7 @@
         <v>142400.98246438</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8798,7 +9268,7 @@
         <v>142400.98246438</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8831,7 +9301,7 @@
         <v>142450.91786438</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8864,7 +9334,7 @@
         <v>142451.91786438</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8897,7 +9367,7 @@
         <v>144278.94756438</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8930,7 +9400,7 @@
         <v>143045.18686438</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8963,7 +9433,7 @@
         <v>147343.18106438</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8996,7 +9466,7 @@
         <v>151035.84666438</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9029,7 +9499,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9062,7 +9532,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9095,7 +9565,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9128,7 +9598,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9161,7 +9631,7 @@
         <v>147589.67456438</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9194,7 +9664,7 @@
         <v>147724.93276438</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9227,7 +9697,7 @@
         <v>146751.52076438</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9260,7 +9730,7 @@
         <v>146751.52076438</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9293,7 +9763,7 @@
         <v>147669.71646438</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9590,7 +10060,7 @@
         <v>145763.22926438</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9656,7 +10126,7 @@
         <v>130725.77486438</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9689,7 +10159,7 @@
         <v>130117.03386438</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9722,7 +10192,7 @@
         <v>147379.96196438</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9755,7 +10225,7 @@
         <v>137368.97766438</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9788,7 +10258,7 @@
         <v>137368.97766438</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9821,7 +10291,7 @@
         <v>118486.36386438</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9854,7 +10324,7 @@
         <v>120165.92686438</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9887,7 +10357,7 @@
         <v>120265.92686438</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9920,7 +10390,7 @@
         <v>119505.87906438</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9953,7 +10423,7 @@
         <v>119505.87906438</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9986,7 +10456,7 @@
         <v>119505.87906438</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10019,7 +10489,7 @@
         <v>119505.87906438</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10052,7 +10522,7 @@
         <v>116536.50726438</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10085,7 +10555,7 @@
         <v>117034.64256438</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10118,7 +10588,7 @@
         <v>116363.64256438</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10151,7 +10621,7 @@
         <v>116363.64256438</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10184,7 +10654,7 @@
         <v>102309.96606438</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10217,7 +10687,7 @@
         <v>116452.96606438</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10250,7 +10720,7 @@
         <v>114675.92776438</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10283,7 +10753,7 @@
         <v>99291.12336437998</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10316,7 +10786,7 @@
         <v>106897.92396438</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10349,7 +10819,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10382,7 +10852,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10415,7 +10885,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10448,7 +10918,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10481,7 +10951,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10514,7 +10984,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10547,7 +11017,7 @@
         <v>105713.23386438</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10580,7 +11050,7 @@
         <v>105713.23386438</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10613,7 +11083,7 @@
         <v>105195.49146438</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10646,7 +11116,7 @@
         <v>105196.49146438</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10679,7 +11149,7 @@
         <v>101458.29556438</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10712,7 +11182,7 @@
         <v>101458.29556438</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10745,7 +11215,7 @@
         <v>98673.73256437997</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11042,7 +11512,7 @@
         <v>108744.45606438</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -13715,7 +14185,7 @@
         <v>74862.71296437994</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13913,7 +14383,7 @@
         <v>67151.32226437994</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13946,7 +14416,7 @@
         <v>66440.85216437993</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13979,7 +14449,7 @@
         <v>66442.41216437993</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14012,7 +14482,7 @@
         <v>67119.86586437993</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14045,7 +14515,7 @@
         <v>67119.86586437993</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14078,7 +14548,7 @@
         <v>66432.63346437993</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14111,7 +14581,7 @@
         <v>66567.84966437993</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14243,7 +14713,7 @@
         <v>81020.77986437993</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14903,7 +15373,7 @@
         <v>71943.75566437995</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14936,7 +15406,7 @@
         <v>71943.75566437995</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15002,7 +15472,7 @@
         <v>67550.49686437994</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15035,7 +15505,7 @@
         <v>66458.67696437993</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15068,7 +15538,7 @@
         <v>66459.92696437993</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15134,7 +15604,7 @@
         <v>66459.92696437993</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15662,7 +16132,7 @@
         <v>77767.95676437995</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15695,7 +16165,7 @@
         <v>77767.95676437995</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15728,7 +16198,7 @@
         <v>78849.21176437996</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15761,7 +16231,7 @@
         <v>78849.21176437996</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15794,7 +16264,7 @@
         <v>78850.46176437996</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15827,7 +16297,7 @@
         <v>76291.47326437995</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15860,7 +16330,7 @@
         <v>79895.77636437996</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15893,7 +16363,7 @@
         <v>79895.77636437996</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15926,7 +16396,7 @@
         <v>54516.84606437996</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15959,7 +16429,7 @@
         <v>54518.09606437996</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15992,7 +16462,7 @@
         <v>53292.08764032996</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16025,7 +16495,7 @@
         <v>53292.08764032996</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16058,7 +16528,7 @@
         <v>53230.24894032996</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16091,7 +16561,7 @@
         <v>53231.47894032996</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16124,7 +16594,7 @@
         <v>53231.47894032996</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16157,7 +16627,7 @@
         <v>51769.49064032996</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16190,7 +16660,7 @@
         <v>52549.49064032996</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16223,7 +16693,7 @@
         <v>52549.49064032996</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16487,7 +16957,7 @@
         <v>52044.18554032996</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16553,7 +17023,7 @@
         <v>51307.34004032996</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17213,7 +17683,7 @@
         <v>69935.23234032994</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17279,7 +17749,7 @@
         <v>66333.37814032994</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17444,7 +17914,7 @@
         <v>69246.01464032994</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17510,7 +17980,7 @@
         <v>69246.01464032994</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18071,7 +18541,7 @@
         <v>57432.92115723996</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18335,7 +18805,7 @@
         <v>50918.94115723996</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18500,7 +18970,7 @@
         <v>49067.84155723997</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18533,7 +19003,7 @@
         <v>49067.84155723997</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18566,7 +19036,7 @@
         <v>51312.30745723997</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18599,7 +19069,7 @@
         <v>50758.34975723997</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18632,7 +19102,7 @@
         <v>50759.34975723997</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18665,7 +19135,7 @@
         <v>50759.34975723997</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18764,7 +19234,7 @@
         <v>61588.84385723998</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18775,6 +19245,6 @@
       <c r="M545" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest MTL.xlsx
+++ b/BackTest/2019-10-25 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16519.9327</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,290 +484,274 @@
         <v>-14870.4298</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>320</v>
+      </c>
+      <c r="C4" t="n">
+        <v>320</v>
+      </c>
+      <c r="D4" t="n">
+        <v>320</v>
+      </c>
+      <c r="E4" t="n">
+        <v>320</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.4786</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-14870.4298</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>320</v>
+      </c>
+      <c r="C5" t="n">
+        <v>320</v>
+      </c>
+      <c r="D5" t="n">
+        <v>320</v>
+      </c>
+      <c r="E5" t="n">
+        <v>320</v>
+      </c>
+      <c r="F5" t="n">
+        <v>363.3964</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-14870.4298</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>319</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="C6" t="n">
+        <v>319</v>
+      </c>
+      <c r="D6" t="n">
+        <v>319</v>
+      </c>
+      <c r="E6" t="n">
+        <v>319</v>
+      </c>
+      <c r="F6" t="n">
+        <v>421.4154</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-15291.8452</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>320</v>
+      </c>
+      <c r="J6" t="n">
+        <v>320</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>320</v>
+      </c>
+      <c r="C7" t="n">
+        <v>320</v>
+      </c>
+      <c r="D7" t="n">
+        <v>320</v>
+      </c>
+      <c r="E7" t="n">
+        <v>320</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1014.3691</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-14277.4761</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>319</v>
+      </c>
+      <c r="J7" t="n">
+        <v>320</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>321</v>
+      </c>
+      <c r="C8" t="n">
+        <v>321</v>
+      </c>
+      <c r="D8" t="n">
+        <v>321</v>
+      </c>
+      <c r="E8" t="n">
+        <v>321</v>
+      </c>
+      <c r="F8" t="n">
+        <v>49.8099</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-14227.6662</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>320</v>
+      </c>
+      <c r="J8" t="n">
+        <v>320</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>320</v>
+      </c>
+      <c r="C9" t="n">
+        <v>320</v>
+      </c>
+      <c r="D9" t="n">
+        <v>320</v>
+      </c>
+      <c r="E9" t="n">
+        <v>320</v>
+      </c>
+      <c r="F9" t="n">
+        <v>300</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-14527.6662</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>321</v>
+      </c>
+      <c r="J9" t="n">
+        <v>321</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>321</v>
+      </c>
+      <c r="C10" t="n">
+        <v>323</v>
+      </c>
+      <c r="D10" t="n">
+        <v>323</v>
+      </c>
+      <c r="E10" t="n">
+        <v>321</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3109.9107</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-11417.7555</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>320</v>
+      </c>
+      <c r="J10" t="n">
+        <v>321</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>320</v>
-      </c>
-      <c r="C4" t="n">
-        <v>320</v>
-      </c>
-      <c r="D4" t="n">
-        <v>320</v>
-      </c>
-      <c r="E4" t="n">
-        <v>320</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.4786</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-14870.4298</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>320</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>320</v>
-      </c>
-      <c r="C5" t="n">
-        <v>320</v>
-      </c>
-      <c r="D5" t="n">
-        <v>320</v>
-      </c>
-      <c r="E5" t="n">
-        <v>320</v>
-      </c>
-      <c r="F5" t="n">
-        <v>363.3964</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-14870.4298</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>320</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>319</v>
-      </c>
-      <c r="C6" t="n">
-        <v>319</v>
-      </c>
-      <c r="D6" t="n">
-        <v>319</v>
-      </c>
-      <c r="E6" t="n">
-        <v>319</v>
-      </c>
-      <c r="F6" t="n">
-        <v>421.4154</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-15291.8452</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>320</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>320</v>
-      </c>
-      <c r="C7" t="n">
-        <v>320</v>
-      </c>
-      <c r="D7" t="n">
-        <v>320</v>
-      </c>
-      <c r="E7" t="n">
-        <v>320</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1014.3691</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-14277.4761</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>319</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>321</v>
-      </c>
-      <c r="C8" t="n">
-        <v>321</v>
-      </c>
-      <c r="D8" t="n">
-        <v>321</v>
-      </c>
-      <c r="E8" t="n">
-        <v>321</v>
-      </c>
-      <c r="F8" t="n">
-        <v>49.8099</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-14227.6662</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>320</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>320</v>
-      </c>
-      <c r="C9" t="n">
-        <v>320</v>
-      </c>
-      <c r="D9" t="n">
-        <v>320</v>
-      </c>
-      <c r="E9" t="n">
-        <v>320</v>
-      </c>
-      <c r="F9" t="n">
-        <v>300</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-14527.6662</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>321</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>321</v>
-      </c>
-      <c r="C10" t="n">
-        <v>323</v>
-      </c>
-      <c r="D10" t="n">
-        <v>323</v>
-      </c>
-      <c r="E10" t="n">
-        <v>321</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3109.9107</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-11417.7555</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>320</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,7 +785,9 @@
       <c r="I11" t="n">
         <v>323</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>321</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -835,12 +821,12 @@
         <v>-13539.9856</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>320</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>321</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -874,12 +860,12 @@
         <v>-13539.9856</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>322</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>321</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -913,12 +899,12 @@
         <v>-17239.5428</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>322</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>321</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -957,7 +943,9 @@
       <c r="I15" t="n">
         <v>321</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>321</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -996,7 +984,9 @@
       <c r="I16" t="n">
         <v>321</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>321</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1035,7 +1025,9 @@
       <c r="I17" t="n">
         <v>323</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>321</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1069,12 +1061,12 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>323</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>321</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1108,12 +1100,12 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>323</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>321</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1147,12 +1139,12 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>323</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>321</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1186,12 +1178,12 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>323</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>321</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1225,12 +1217,12 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>323</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>321</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,12 +1256,12 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>324</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>321</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1303,12 +1295,12 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>324</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>321</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,12 +1334,12 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>324</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>321</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1381,12 +1373,12 @@
         <v>-16788.1613</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>324</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>321</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,12 +1412,12 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>321</v>
       </c>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1459,12 +1451,12 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>323</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>321</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1498,12 +1490,12 @@
         <v>-17983.04399999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>323</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>321</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1542,7 +1534,9 @@
       <c r="I30" t="n">
         <v>321</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>321</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1581,7 +1575,9 @@
       <c r="I31" t="n">
         <v>321</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>321</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1620,7 +1616,9 @@
       <c r="I32" t="n">
         <v>321</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>321</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1659,7 +1657,9 @@
       <c r="I33" t="n">
         <v>320</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>321</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1698,7 +1698,9 @@
       <c r="I34" t="n">
         <v>322</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>321</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1737,7 +1739,9 @@
       <c r="I35" t="n">
         <v>323</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>321</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1776,7 +1780,9 @@
       <c r="I36" t="n">
         <v>324</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>321</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1815,7 +1821,9 @@
       <c r="I37" t="n">
         <v>325</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>321</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1849,12 +1857,12 @@
         <v>7226.499000000005</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>326</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>321</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,12 +1896,12 @@
         <v>7226.499000000005</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>327</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>321</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1927,12 +1935,12 @@
         <v>11041.9852</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>327</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>321</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,12 +1974,12 @@
         <v>24439.96400000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>328</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>321</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,12 +2013,12 @@
         <v>24439.96400000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>329</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>321</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2047,7 +2055,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>321</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2084,7 +2094,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>321</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,12 +2130,12 @@
         <v>26738.48680000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>330</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>321</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2157,12 +2169,12 @@
         <v>26860.82690000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>330</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>321</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2196,12 +2208,12 @@
         <v>26860.82690000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>331</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>321</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2235,12 +2247,12 @@
         <v>27080.14910000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>331</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>321</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2274,12 +2286,12 @@
         <v>27080.14910000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>332</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>321</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2313,19 +2325,19 @@
         <v>26933.14910000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>332</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>321</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>1.026152647975078</v>
       </c>
       <c r="M50" t="inlineStr"/>
     </row>
@@ -2352,17 +2364,11 @@
         <v>22831.9795</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2391,17 +2397,11 @@
         <v>25263.48953423</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2430,17 +2430,11 @@
         <v>22700.17493423</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2469,17 +2463,11 @@
         <v>22700.17493423</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2508,17 +2496,11 @@
         <v>22700.17493423</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2547,17 +2529,11 @@
         <v>23172.37273423</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2586,17 +2562,11 @@
         <v>23172.37273423</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2625,17 +2595,11 @@
         <v>23186.42103423</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2668,11 +2632,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2701,17 +2661,11 @@
         <v>23186.42103423</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2698,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2777,17 +2727,11 @@
         <v>23186.42103423</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2816,17 +2760,11 @@
         <v>23186.42103423</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2855,17 +2793,11 @@
         <v>20401.33363423</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>333</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2894,17 +2826,11 @@
         <v>20401.33363423</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2933,17 +2859,11 @@
         <v>20401.33363423</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2972,17 +2892,11 @@
         <v>20401.33363423</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3011,17 +2925,11 @@
         <v>16521.33363423</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3050,17 +2958,11 @@
         <v>16521.33363423</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3089,17 +2991,11 @@
         <v>16643.43093423</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3128,17 +3024,11 @@
         <v>16643.43093423</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3167,17 +3057,11 @@
         <v>16643.43093423</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3206,17 +3090,11 @@
         <v>16643.43093423</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3245,17 +3123,11 @@
         <v>16527.43093423</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3284,17 +3156,11 @@
         <v>16527.43093423</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3323,17 +3189,11 @@
         <v>26008.43093423</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3362,15 +3222,11 @@
         <v>39795.11093423</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3399,15 +3255,11 @@
         <v>39795.11093423</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3436,15 +3288,11 @@
         <v>41568.11093423</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3473,17 +3321,11 @@
         <v>42524.35053423</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>341</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3512,15 +3354,11 @@
         <v>47217.45223423</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3549,15 +3387,11 @@
         <v>49483.99423423001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3586,15 +3420,11 @@
         <v>47169.26673423</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3623,15 +3453,11 @@
         <v>47169.26673423</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3660,15 +3486,11 @@
         <v>46636.50633423001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3697,15 +3519,11 @@
         <v>47541.30743423</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3734,15 +3552,11 @@
         <v>47014.70143423</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3589,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3812,11 +3622,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +3655,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3688,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3923,11 +3721,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3960,11 +3754,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3997,11 +3787,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4034,11 +3820,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +3853,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4108,11 +3886,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +3919,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4182,11 +3952,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4219,11 +3985,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4256,11 +4018,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4293,11 +4051,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4330,11 +4084,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4367,11 +4117,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4404,11 +4150,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4441,11 +4183,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4478,11 +4216,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4515,11 +4249,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4552,11 +4282,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4589,11 +4315,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4626,11 +4348,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4663,11 +4381,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +4414,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4737,11 +4447,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4480,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4513,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4848,11 +4546,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4885,11 +4579,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +4612,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +4645,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4996,11 +4678,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5033,11 +4711,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +4744,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +4777,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +4810,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5181,11 +4843,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5218,11 +4876,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5255,11 +4909,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5292,11 +4942,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5329,11 +4975,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5366,11 +5008,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5041,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5074,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5477,11 +5107,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5140,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5173,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5206,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5625,11 +5239,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5272,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5305,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5736,11 +5338,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5371,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5810,11 +5404,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5437,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5470,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5503,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5536,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5569,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5602,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5635,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5668,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5701,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +5734,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +5767,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +5800,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +5833,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +5866,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6365,11 +5899,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +5932,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6439,11 +5965,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +5998,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6031,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +6064,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +6097,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +6130,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6661,11 +6163,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6196,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +6229,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6262,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +6295,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6328,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6361,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +6394,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +6427,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +6460,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7031,11 +6493,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7068,11 +6526,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +6559,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +6592,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7179,11 +6625,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +6658,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7253,11 +6691,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7286,16 +6720,14 @@
         <v>152187.01405821</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
       <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -7321,7 +6753,7 @@
         <v>151488.63418531</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7354,7 +6786,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7387,7 +6819,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7420,7 +6852,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7453,7 +6885,7 @@
         <v>135545.51626438</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7486,7 +6918,7 @@
         <v>163390.80936438</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7519,7 +6951,7 @@
         <v>157288.42786438</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7552,7 +6984,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7585,7 +7017,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7618,7 +7050,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7651,7 +7083,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7684,7 +7116,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7717,7 +7149,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7750,7 +7182,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7783,7 +7215,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7816,7 +7248,7 @@
         <v>155682.57866438</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7849,7 +7281,7 @@
         <v>165010.7486643801</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7882,7 +7314,7 @@
         <v>163461.6231643801</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7915,7 +7347,7 @@
         <v>162863.6373643801</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7948,7 +7380,7 @@
         <v>168096.3652643801</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7981,7 +7413,7 @@
         <v>168096.3652643801</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8014,7 +7446,7 @@
         <v>166433.7868643801</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8047,7 +7479,7 @@
         <v>165564.4980643801</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8080,7 +7512,7 @@
         <v>165565.4980643801</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8113,7 +7545,7 @@
         <v>163517.5293643801</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8146,7 +7578,7 @@
         <v>163174.83796438</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8179,7 +7611,7 @@
         <v>163174.83796438</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8212,7 +7644,7 @@
         <v>163205.83796438</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8245,7 +7677,7 @@
         <v>163205.83796438</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8608,7 +8040,7 @@
         <v>158115.8252643801</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8674,7 +8106,7 @@
         <v>159419.72816438</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8707,7 +8139,7 @@
         <v>161690.56306438</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8773,7 +8205,7 @@
         <v>153097.80666438</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8806,7 +8238,7 @@
         <v>153097.80666438</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8839,7 +8271,7 @@
         <v>153097.80666438</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8872,7 +8304,7 @@
         <v>153098.80666438</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8905,7 +8337,7 @@
         <v>153098.80666438</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8938,7 +8370,7 @@
         <v>153098.80666438</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8971,7 +8403,7 @@
         <v>153099.80666438</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9004,7 +8436,7 @@
         <v>153050.50276438</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9037,7 +8469,7 @@
         <v>143514.29956438</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9070,7 +8502,7 @@
         <v>143514.29956438</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9103,7 +8535,7 @@
         <v>143514.29956438</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9136,7 +8568,7 @@
         <v>143488.05426438</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9169,7 +8601,7 @@
         <v>143488.05426438</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9202,7 +8634,7 @@
         <v>145524.42166438</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9235,7 +8667,7 @@
         <v>142400.98246438</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9268,7 +8700,7 @@
         <v>142400.98246438</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9301,7 +8733,7 @@
         <v>142450.91786438</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9334,7 +8766,7 @@
         <v>142451.91786438</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9367,7 +8799,7 @@
         <v>144278.94756438</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9400,7 +8832,7 @@
         <v>143045.18686438</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9433,7 +8865,7 @@
         <v>147343.18106438</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9466,7 +8898,7 @@
         <v>151035.84666438</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9499,7 +8931,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9532,7 +8964,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9565,7 +8997,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9598,7 +9030,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9631,7 +9063,7 @@
         <v>147589.67456438</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9664,7 +9096,7 @@
         <v>147724.93276438</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10126,7 +9558,7 @@
         <v>130725.77486438</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10159,7 +9591,7 @@
         <v>130117.03386438</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10192,7 +9624,7 @@
         <v>147379.96196438</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10225,7 +9657,7 @@
         <v>137368.97766438</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10258,7 +9690,7 @@
         <v>137368.97766438</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10291,7 +9723,7 @@
         <v>118486.36386438</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10324,7 +9756,7 @@
         <v>120165.92686438</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10357,7 +9789,7 @@
         <v>120265.92686438</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10390,7 +9822,7 @@
         <v>119505.87906438</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10423,7 +9855,7 @@
         <v>119505.87906438</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10456,7 +9888,7 @@
         <v>119505.87906438</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10489,7 +9921,7 @@
         <v>119505.87906438</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10522,7 +9954,7 @@
         <v>116536.50726438</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10555,7 +9987,7 @@
         <v>117034.64256438</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10588,7 +10020,7 @@
         <v>116363.64256438</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10621,7 +10053,7 @@
         <v>116363.64256438</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10654,7 +10086,7 @@
         <v>102309.96606438</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10687,7 +10119,7 @@
         <v>116452.96606438</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10720,7 +10152,7 @@
         <v>114675.92776438</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10753,7 +10185,7 @@
         <v>99291.12336437998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10786,7 +10218,7 @@
         <v>106897.92396438</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10819,7 +10251,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10852,7 +10284,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10885,7 +10317,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10918,7 +10350,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10951,7 +10383,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10984,7 +10416,7 @@
         <v>104866.10676438</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11017,7 +10449,7 @@
         <v>105713.23386438</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11050,7 +10482,7 @@
         <v>105713.23386438</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11083,7 +10515,7 @@
         <v>105195.49146438</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11116,7 +10548,7 @@
         <v>105196.49146438</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11149,7 +10581,7 @@
         <v>101458.29556438</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11182,7 +10614,7 @@
         <v>101458.29556438</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11215,7 +10647,7 @@
         <v>98673.73256437997</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -16528,7 +15960,7 @@
         <v>53230.24894032996</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17056,7 +16488,7 @@
         <v>64781.69954032996</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17122,7 +16554,7 @@
         <v>64323.38574032996</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17155,7 +16587,7 @@
         <v>64325.33874032996</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18541,7 +17973,7 @@
         <v>57432.92115723996</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18805,7 +18237,7 @@
         <v>50918.94115723996</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18970,7 +18402,7 @@
         <v>49067.84155723997</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19003,7 +18435,7 @@
         <v>49067.84155723997</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19036,7 +18468,7 @@
         <v>51312.30745723997</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19069,7 +18501,7 @@
         <v>50758.34975723997</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19102,7 +18534,7 @@
         <v>50759.34975723997</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19135,7 +18567,7 @@
         <v>50759.34975723997</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19234,7 +18666,7 @@
         <v>61588.84385723998</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19245,6 +18677,6 @@
       <c r="M545" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest MTL.xlsx
+++ b/BackTest/2019-10-25 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>-16519.9327</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-14870.4298</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>319</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-14870.4298</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>320</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-14870.4298</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>320</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -588,10 +606,12 @@
       <c r="I6" t="n">
         <v>320</v>
       </c>
-      <c r="J6" t="n">
-        <v>320</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -625,12 +645,10 @@
       <c r="I7" t="n">
         <v>319</v>
       </c>
-      <c r="J7" t="n">
-        <v>320</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -666,12 +684,10 @@
       <c r="I8" t="n">
         <v>320</v>
       </c>
-      <c r="J8" t="n">
-        <v>320</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -707,10 +723,12 @@
       <c r="I9" t="n">
         <v>321</v>
       </c>
-      <c r="J9" t="n">
-        <v>321</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -744,12 +762,10 @@
       <c r="I10" t="n">
         <v>320</v>
       </c>
-      <c r="J10" t="n">
-        <v>321</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -785,9 +801,7 @@
       <c r="I11" t="n">
         <v>323</v>
       </c>
-      <c r="J11" t="n">
-        <v>321</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -821,12 +835,12 @@
         <v>-13539.9856</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>320</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -860,12 +874,12 @@
         <v>-13539.9856</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>322</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -899,12 +913,12 @@
         <v>-17239.5428</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>322</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -943,9 +957,7 @@
       <c r="I15" t="n">
         <v>321</v>
       </c>
-      <c r="J15" t="n">
-        <v>321</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -984,9 +996,7 @@
       <c r="I16" t="n">
         <v>321</v>
       </c>
-      <c r="J16" t="n">
-        <v>321</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1025,9 +1035,7 @@
       <c r="I17" t="n">
         <v>323</v>
       </c>
-      <c r="J17" t="n">
-        <v>321</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1061,12 +1069,12 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>323</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1100,12 +1108,12 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>323</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1139,12 +1147,12 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>323</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1178,12 +1186,12 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>323</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1217,12 +1225,12 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>323</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1256,12 +1264,12 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>324</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1295,12 +1303,12 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>324</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1334,12 +1342,12 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>324</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1373,12 +1381,12 @@
         <v>-16788.1613</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>324</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1412,12 +1420,12 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>321</v>
       </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1451,12 +1459,12 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>323</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1490,12 +1498,12 @@
         <v>-17983.04399999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>323</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1534,9 +1542,7 @@
       <c r="I30" t="n">
         <v>321</v>
       </c>
-      <c r="J30" t="n">
-        <v>321</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1575,9 +1581,7 @@
       <c r="I31" t="n">
         <v>321</v>
       </c>
-      <c r="J31" t="n">
-        <v>321</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1616,9 +1620,7 @@
       <c r="I32" t="n">
         <v>321</v>
       </c>
-      <c r="J32" t="n">
-        <v>321</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1657,9 +1659,7 @@
       <c r="I33" t="n">
         <v>320</v>
       </c>
-      <c r="J33" t="n">
-        <v>321</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1698,9 +1698,7 @@
       <c r="I34" t="n">
         <v>322</v>
       </c>
-      <c r="J34" t="n">
-        <v>321</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1739,9 +1737,7 @@
       <c r="I35" t="n">
         <v>323</v>
       </c>
-      <c r="J35" t="n">
-        <v>321</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,9 +1776,7 @@
       <c r="I36" t="n">
         <v>324</v>
       </c>
-      <c r="J36" t="n">
-        <v>321</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1821,9 +1815,7 @@
       <c r="I37" t="n">
         <v>325</v>
       </c>
-      <c r="J37" t="n">
-        <v>321</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1860,9 +1852,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>321</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,9 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>321</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,9 +1926,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>321</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1977,9 +1963,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>321</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2016,9 +2000,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>321</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2055,9 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>321</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2094,9 +2074,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>321</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2133,9 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>321</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2172,9 +2148,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>321</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2211,9 +2185,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>321</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,9 +2222,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>321</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2289,9 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>321</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2325,4211 +2293,4715 @@
         <v>26933.14910000001</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>331</v>
+      </c>
+      <c r="C51" t="n">
+        <v>330</v>
+      </c>
+      <c r="D51" t="n">
+        <v>331</v>
+      </c>
+      <c r="E51" t="n">
+        <v>330</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4101.1696</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22831.9795</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>332</v>
+      </c>
+      <c r="C52" t="n">
+        <v>333</v>
+      </c>
+      <c r="D52" t="n">
+        <v>333</v>
+      </c>
+      <c r="E52" t="n">
+        <v>332</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2431.51003423</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25263.48953423</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>332</v>
+      </c>
+      <c r="C53" t="n">
+        <v>331</v>
+      </c>
+      <c r="D53" t="n">
+        <v>332</v>
+      </c>
+      <c r="E53" t="n">
+        <v>331</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2563.3146</v>
+      </c>
+      <c r="G53" t="n">
+        <v>22700.17493423</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>331</v>
+      </c>
+      <c r="C54" t="n">
+        <v>331</v>
+      </c>
+      <c r="D54" t="n">
+        <v>331</v>
+      </c>
+      <c r="E54" t="n">
+        <v>331</v>
+      </c>
+      <c r="F54" t="n">
+        <v>23</v>
+      </c>
+      <c r="G54" t="n">
+        <v>22700.17493423</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>331</v>
+      </c>
+      <c r="C55" t="n">
+        <v>331</v>
+      </c>
+      <c r="D55" t="n">
+        <v>331</v>
+      </c>
+      <c r="E55" t="n">
+        <v>331</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22700.17493423</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>332</v>
+      </c>
+      <c r="C56" t="n">
+        <v>332</v>
+      </c>
+      <c r="D56" t="n">
+        <v>333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>332</v>
+      </c>
+      <c r="F56" t="n">
+        <v>472.1978</v>
+      </c>
+      <c r="G56" t="n">
+        <v>23172.37273423</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>332</v>
+      </c>
+      <c r="C57" t="n">
+        <v>332</v>
+      </c>
+      <c r="D57" t="n">
+        <v>332</v>
+      </c>
+      <c r="E57" t="n">
+        <v>332</v>
+      </c>
+      <c r="F57" t="n">
+        <v>50</v>
+      </c>
+      <c r="G57" t="n">
+        <v>23172.37273423</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>333</v>
+      </c>
+      <c r="C58" t="n">
+        <v>333</v>
+      </c>
+      <c r="D58" t="n">
+        <v>333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>333</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14.0483</v>
+      </c>
+      <c r="G58" t="n">
+        <v>23186.42103423</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>333</v>
+      </c>
+      <c r="C59" t="n">
+        <v>333</v>
+      </c>
+      <c r="D59" t="n">
+        <v>333</v>
+      </c>
+      <c r="E59" t="n">
+        <v>333</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>23186.42103423</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>333</v>
+      </c>
+      <c r="C60" t="n">
+        <v>333</v>
+      </c>
+      <c r="D60" t="n">
+        <v>333</v>
+      </c>
+      <c r="E60" t="n">
+        <v>333</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="n">
+        <v>23186.42103423</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>333</v>
+      </c>
+      <c r="C61" t="n">
+        <v>333</v>
+      </c>
+      <c r="D61" t="n">
+        <v>333</v>
+      </c>
+      <c r="E61" t="n">
+        <v>333</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1710.8516</v>
+      </c>
+      <c r="G61" t="n">
+        <v>23186.42103423</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>333</v>
+      </c>
+      <c r="C62" t="n">
+        <v>333</v>
+      </c>
+      <c r="D62" t="n">
+        <v>333</v>
+      </c>
+      <c r="E62" t="n">
+        <v>333</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2153.1295</v>
+      </c>
+      <c r="G62" t="n">
+        <v>23186.42103423</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>333</v>
+      </c>
+      <c r="C63" t="n">
+        <v>333</v>
+      </c>
+      <c r="D63" t="n">
+        <v>333</v>
+      </c>
+      <c r="E63" t="n">
+        <v>333</v>
+      </c>
+      <c r="F63" t="n">
+        <v>306.6495</v>
+      </c>
+      <c r="G63" t="n">
+        <v>23186.42103423</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>332</v>
+      </c>
+      <c r="C64" t="n">
+        <v>331</v>
+      </c>
+      <c r="D64" t="n">
+        <v>332</v>
+      </c>
+      <c r="E64" t="n">
+        <v>331</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2785.0874</v>
+      </c>
+      <c r="G64" t="n">
+        <v>20401.33363423</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>331</v>
+      </c>
+      <c r="C65" t="n">
+        <v>331</v>
+      </c>
+      <c r="D65" t="n">
+        <v>331</v>
+      </c>
+      <c r="E65" t="n">
+        <v>331</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1713.8103</v>
+      </c>
+      <c r="G65" t="n">
+        <v>20401.33363423</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>331</v>
+      </c>
+      <c r="C66" t="n">
+        <v>331</v>
+      </c>
+      <c r="D66" t="n">
+        <v>331</v>
+      </c>
+      <c r="E66" t="n">
+        <v>331</v>
+      </c>
+      <c r="F66" t="n">
+        <v>300</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20401.33363423</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>331</v>
+      </c>
+      <c r="C67" t="n">
+        <v>331</v>
+      </c>
+      <c r="D67" t="n">
+        <v>331</v>
+      </c>
+      <c r="E67" t="n">
+        <v>331</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1333.7067</v>
+      </c>
+      <c r="G67" t="n">
+        <v>20401.33363423</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>331</v>
+      </c>
+      <c r="C68" t="n">
+        <v>330</v>
+      </c>
+      <c r="D68" t="n">
+        <v>331</v>
+      </c>
+      <c r="E68" t="n">
+        <v>330</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3880</v>
+      </c>
+      <c r="G68" t="n">
+        <v>16521.33363423</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>330</v>
+      </c>
+      <c r="C69" t="n">
+        <v>330</v>
+      </c>
+      <c r="D69" t="n">
+        <v>330</v>
+      </c>
+      <c r="E69" t="n">
+        <v>330</v>
+      </c>
+      <c r="F69" t="n">
+        <v>28.2815</v>
+      </c>
+      <c r="G69" t="n">
+        <v>16521.33363423</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>331</v>
+      </c>
+      <c r="C70" t="n">
+        <v>332</v>
+      </c>
+      <c r="D70" t="n">
+        <v>332</v>
+      </c>
+      <c r="E70" t="n">
+        <v>331</v>
+      </c>
+      <c r="F70" t="n">
+        <v>122.0973</v>
+      </c>
+      <c r="G70" t="n">
+        <v>16643.43093423</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>332</v>
+      </c>
+      <c r="C71" t="n">
+        <v>332</v>
+      </c>
+      <c r="D71" t="n">
+        <v>332</v>
+      </c>
+      <c r="E71" t="n">
+        <v>332</v>
+      </c>
+      <c r="F71" t="n">
+        <v>85.4508</v>
+      </c>
+      <c r="G71" t="n">
+        <v>16643.43093423</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>332</v>
+      </c>
+      <c r="C72" t="n">
+        <v>332</v>
+      </c>
+      <c r="D72" t="n">
+        <v>332</v>
+      </c>
+      <c r="E72" t="n">
+        <v>332</v>
+      </c>
+      <c r="F72" t="n">
+        <v>107.335</v>
+      </c>
+      <c r="G72" t="n">
+        <v>16643.43093423</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>332</v>
+      </c>
+      <c r="C73" t="n">
+        <v>332</v>
+      </c>
+      <c r="D73" t="n">
+        <v>332</v>
+      </c>
+      <c r="E73" t="n">
+        <v>332</v>
+      </c>
+      <c r="F73" t="n">
+        <v>320</v>
+      </c>
+      <c r="G73" t="n">
+        <v>16643.43093423</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>331</v>
+      </c>
+      <c r="C74" t="n">
+        <v>331</v>
+      </c>
+      <c r="D74" t="n">
+        <v>331</v>
+      </c>
+      <c r="E74" t="n">
+        <v>331</v>
+      </c>
+      <c r="F74" t="n">
+        <v>116</v>
+      </c>
+      <c r="G74" t="n">
+        <v>16527.43093423</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>333</v>
+      </c>
+      <c r="C75" t="n">
+        <v>331</v>
+      </c>
+      <c r="D75" t="n">
+        <v>337</v>
+      </c>
+      <c r="E75" t="n">
+        <v>331</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4248.9604</v>
+      </c>
+      <c r="G75" t="n">
+        <v>16527.43093423</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>337</v>
+      </c>
+      <c r="C76" t="n">
+        <v>339</v>
+      </c>
+      <c r="D76" t="n">
+        <v>339</v>
+      </c>
+      <c r="E76" t="n">
+        <v>337</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9481</v>
+      </c>
+      <c r="G76" t="n">
+        <v>26008.43093423</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>339</v>
+      </c>
+      <c r="C77" t="n">
+        <v>340</v>
+      </c>
+      <c r="D77" t="n">
+        <v>340</v>
+      </c>
+      <c r="E77" t="n">
+        <v>339</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13786.68</v>
+      </c>
+      <c r="G77" t="n">
+        <v>39795.11093423</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>339</v>
+      </c>
+      <c r="C78" t="n">
+        <v>340</v>
+      </c>
+      <c r="D78" t="n">
+        <v>340</v>
+      </c>
+      <c r="E78" t="n">
+        <v>339</v>
+      </c>
+      <c r="F78" t="n">
+        <v>11213.5007</v>
+      </c>
+      <c r="G78" t="n">
+        <v>39795.11093423</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>341</v>
+      </c>
+      <c r="C79" t="n">
+        <v>341</v>
+      </c>
+      <c r="D79" t="n">
+        <v>341</v>
+      </c>
+      <c r="E79" t="n">
+        <v>341</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1773</v>
+      </c>
+      <c r="G79" t="n">
+        <v>41568.11093423</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>341</v>
+      </c>
+      <c r="C80" t="n">
+        <v>342</v>
+      </c>
+      <c r="D80" t="n">
+        <v>342</v>
+      </c>
+      <c r="E80" t="n">
+        <v>341</v>
+      </c>
+      <c r="F80" t="n">
+        <v>956.2396</v>
+      </c>
+      <c r="G80" t="n">
+        <v>42524.35053423</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>343</v>
+      </c>
+      <c r="C81" t="n">
+        <v>345</v>
+      </c>
+      <c r="D81" t="n">
+        <v>345</v>
+      </c>
+      <c r="E81" t="n">
+        <v>343</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4693.1017</v>
+      </c>
+      <c r="G81" t="n">
+        <v>47217.45223423</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>345</v>
+      </c>
+      <c r="C82" t="n">
+        <v>348</v>
+      </c>
+      <c r="D82" t="n">
+        <v>348</v>
+      </c>
+      <c r="E82" t="n">
+        <v>345</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2266.542</v>
+      </c>
+      <c r="G82" t="n">
+        <v>49483.99423423001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>345</v>
+      </c>
+      <c r="C83" t="n">
+        <v>345</v>
+      </c>
+      <c r="D83" t="n">
+        <v>345</v>
+      </c>
+      <c r="E83" t="n">
+        <v>345</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2314.7275</v>
+      </c>
+      <c r="G83" t="n">
+        <v>47169.26673423</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>345</v>
+      </c>
+      <c r="C84" t="n">
+        <v>345</v>
+      </c>
+      <c r="D84" t="n">
+        <v>345</v>
+      </c>
+      <c r="E84" t="n">
+        <v>345</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2763.5593</v>
+      </c>
+      <c r="G84" t="n">
+        <v>47169.26673423</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>343</v>
+      </c>
+      <c r="C85" t="n">
+        <v>343</v>
+      </c>
+      <c r="D85" t="n">
+        <v>343</v>
+      </c>
+      <c r="E85" t="n">
+        <v>343</v>
+      </c>
+      <c r="F85" t="n">
+        <v>532.7604</v>
+      </c>
+      <c r="G85" t="n">
+        <v>46636.50633423001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>345</v>
+      </c>
+      <c r="C86" t="n">
+        <v>346</v>
+      </c>
+      <c r="D86" t="n">
+        <v>346</v>
+      </c>
+      <c r="E86" t="n">
+        <v>345</v>
+      </c>
+      <c r="F86" t="n">
+        <v>904.8011</v>
+      </c>
+      <c r="G86" t="n">
+        <v>47541.30743423</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>344</v>
+      </c>
+      <c r="C87" t="n">
+        <v>343</v>
+      </c>
+      <c r="D87" t="n">
+        <v>344</v>
+      </c>
+      <c r="E87" t="n">
+        <v>343</v>
+      </c>
+      <c r="F87" t="n">
+        <v>526.606</v>
+      </c>
+      <c r="G87" t="n">
+        <v>47014.70143423</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>344</v>
+      </c>
+      <c r="C88" t="n">
+        <v>338</v>
+      </c>
+      <c r="D88" t="n">
+        <v>344</v>
+      </c>
+      <c r="E88" t="n">
+        <v>338</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10562</v>
+      </c>
+      <c r="G88" t="n">
+        <v>36452.70143423</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>342</v>
+      </c>
+      <c r="C89" t="n">
+        <v>342</v>
+      </c>
+      <c r="D89" t="n">
+        <v>342</v>
+      </c>
+      <c r="E89" t="n">
+        <v>342</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>36453.70143423</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>340</v>
+      </c>
+      <c r="C90" t="n">
+        <v>340</v>
+      </c>
+      <c r="D90" t="n">
+        <v>340</v>
+      </c>
+      <c r="E90" t="n">
+        <v>340</v>
+      </c>
+      <c r="F90" t="n">
+        <v>782.4761</v>
+      </c>
+      <c r="G90" t="n">
+        <v>35671.22533423</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>342</v>
+      </c>
+      <c r="C91" t="n">
+        <v>342</v>
+      </c>
+      <c r="D91" t="n">
+        <v>342</v>
+      </c>
+      <c r="E91" t="n">
+        <v>342</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>35672.22533423</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>341</v>
+      </c>
+      <c r="C92" t="n">
+        <v>341</v>
+      </c>
+      <c r="D92" t="n">
+        <v>341</v>
+      </c>
+      <c r="E92" t="n">
+        <v>339</v>
+      </c>
+      <c r="F92" t="n">
+        <v>616.105</v>
+      </c>
+      <c r="G92" t="n">
+        <v>35056.12033423</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>340</v>
+      </c>
+      <c r="C93" t="n">
+        <v>341</v>
+      </c>
+      <c r="D93" t="n">
+        <v>341</v>
+      </c>
+      <c r="E93" t="n">
+        <v>340</v>
+      </c>
+      <c r="F93" t="n">
+        <v>217.3289</v>
+      </c>
+      <c r="G93" t="n">
+        <v>35056.12033423</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>341</v>
+      </c>
+      <c r="C94" t="n">
+        <v>341</v>
+      </c>
+      <c r="D94" t="n">
+        <v>341</v>
+      </c>
+      <c r="E94" t="n">
+        <v>337</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10304.3113</v>
+      </c>
+      <c r="G94" t="n">
+        <v>35056.12033423</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>341</v>
+      </c>
+      <c r="C95" t="n">
+        <v>339</v>
+      </c>
+      <c r="D95" t="n">
+        <v>341</v>
+      </c>
+      <c r="E95" t="n">
+        <v>339</v>
+      </c>
+      <c r="F95" t="n">
+        <v>787.963</v>
+      </c>
+      <c r="G95" t="n">
+        <v>34268.15733423</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>342</v>
+      </c>
+      <c r="C96" t="n">
+        <v>343</v>
+      </c>
+      <c r="D96" t="n">
+        <v>343</v>
+      </c>
+      <c r="E96" t="n">
+        <v>341</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2606.5552</v>
+      </c>
+      <c r="G96" t="n">
+        <v>36874.71253423</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>346</v>
+      </c>
+      <c r="C97" t="n">
+        <v>346</v>
+      </c>
+      <c r="D97" t="n">
+        <v>346</v>
+      </c>
+      <c r="E97" t="n">
+        <v>346</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>36875.71253423</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>345</v>
+      </c>
+      <c r="C98" t="n">
+        <v>346</v>
+      </c>
+      <c r="D98" t="n">
+        <v>346</v>
+      </c>
+      <c r="E98" t="n">
+        <v>345</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5273.9881</v>
+      </c>
+      <c r="G98" t="n">
+        <v>36875.71253423</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>346</v>
+      </c>
+      <c r="C99" t="n">
+        <v>348</v>
+      </c>
+      <c r="D99" t="n">
+        <v>348</v>
+      </c>
+      <c r="E99" t="n">
+        <v>346</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5251.2578</v>
+      </c>
+      <c r="G99" t="n">
+        <v>42126.97033423</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>348</v>
+      </c>
+      <c r="C100" t="n">
+        <v>348</v>
+      </c>
+      <c r="D100" t="n">
+        <v>348</v>
+      </c>
+      <c r="E100" t="n">
+        <v>348</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1662.7937</v>
+      </c>
+      <c r="G100" t="n">
+        <v>42126.97033423</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>348</v>
+      </c>
+      <c r="C101" t="n">
+        <v>350</v>
+      </c>
+      <c r="D101" t="n">
+        <v>350</v>
+      </c>
+      <c r="E101" t="n">
+        <v>347</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8426.9683</v>
+      </c>
+      <c r="G101" t="n">
+        <v>50553.93863423</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>350</v>
+      </c>
+      <c r="C102" t="n">
+        <v>346</v>
+      </c>
+      <c r="D102" t="n">
+        <v>350</v>
+      </c>
+      <c r="E102" t="n">
+        <v>346</v>
+      </c>
+      <c r="F102" t="n">
+        <v>222.0886</v>
+      </c>
+      <c r="G102" t="n">
+        <v>50331.85003423</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>349</v>
+      </c>
+      <c r="C103" t="n">
+        <v>349</v>
+      </c>
+      <c r="D103" t="n">
+        <v>349</v>
+      </c>
+      <c r="E103" t="n">
+        <v>349</v>
+      </c>
+      <c r="F103" t="n">
+        <v>151.8669</v>
+      </c>
+      <c r="G103" t="n">
+        <v>50483.71693423</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>347</v>
+      </c>
+      <c r="C104" t="n">
+        <v>347</v>
+      </c>
+      <c r="D104" t="n">
+        <v>349</v>
+      </c>
+      <c r="E104" t="n">
+        <v>347</v>
+      </c>
+      <c r="F104" t="n">
+        <v>795.0886</v>
+      </c>
+      <c r="G104" t="n">
+        <v>49688.62833422999</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>349</v>
+      </c>
+      <c r="C105" t="n">
+        <v>351</v>
+      </c>
+      <c r="D105" t="n">
+        <v>351</v>
+      </c>
+      <c r="E105" t="n">
+        <v>348</v>
+      </c>
+      <c r="F105" t="n">
+        <v>9016.4061</v>
+      </c>
+      <c r="G105" t="n">
+        <v>58705.03443422999</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>351</v>
+      </c>
+      <c r="C106" t="n">
+        <v>349</v>
+      </c>
+      <c r="D106" t="n">
+        <v>351</v>
+      </c>
+      <c r="E106" t="n">
+        <v>349</v>
+      </c>
+      <c r="F106" t="n">
+        <v>26</v>
+      </c>
+      <c r="G106" t="n">
+        <v>58679.03443422999</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>349</v>
+      </c>
+      <c r="C107" t="n">
+        <v>349</v>
+      </c>
+      <c r="D107" t="n">
+        <v>351</v>
+      </c>
+      <c r="E107" t="n">
+        <v>349</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>58679.03443422999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>348</v>
+      </c>
+      <c r="C108" t="n">
+        <v>348</v>
+      </c>
+      <c r="D108" t="n">
+        <v>348</v>
+      </c>
+      <c r="E108" t="n">
+        <v>348</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>58678.03443422999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>350</v>
+      </c>
+      <c r="C109" t="n">
+        <v>350</v>
+      </c>
+      <c r="D109" t="n">
+        <v>350</v>
+      </c>
+      <c r="E109" t="n">
+        <v>348</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2679.51</v>
+      </c>
+      <c r="G109" t="n">
+        <v>61357.54443423</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>350</v>
+      </c>
+      <c r="C110" t="n">
+        <v>350</v>
+      </c>
+      <c r="D110" t="n">
+        <v>350</v>
+      </c>
+      <c r="E110" t="n">
+        <v>350</v>
+      </c>
+      <c r="F110" t="n">
+        <v>195.6399</v>
+      </c>
+      <c r="G110" t="n">
+        <v>61357.54443423</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>349</v>
+      </c>
+      <c r="C111" t="n">
+        <v>348</v>
+      </c>
+      <c r="D111" t="n">
+        <v>349</v>
+      </c>
+      <c r="E111" t="n">
+        <v>348</v>
+      </c>
+      <c r="F111" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>321</v>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="G111" t="n">
+        <v>61355.54443423</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>351</v>
+      </c>
+      <c r="C112" t="n">
+        <v>345</v>
+      </c>
+      <c r="D112" t="n">
+        <v>351</v>
+      </c>
+      <c r="E112" t="n">
+        <v>345</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2443.7363</v>
+      </c>
+      <c r="G112" t="n">
+        <v>58911.80813423</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>349</v>
+      </c>
+      <c r="C113" t="n">
+        <v>347</v>
+      </c>
+      <c r="D113" t="n">
+        <v>349</v>
+      </c>
+      <c r="E113" t="n">
+        <v>347</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1544.0014</v>
+      </c>
+      <c r="G113" t="n">
+        <v>60455.80953423</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>347</v>
+      </c>
+      <c r="C114" t="n">
+        <v>346</v>
+      </c>
+      <c r="D114" t="n">
+        <v>347</v>
+      </c>
+      <c r="E114" t="n">
+        <v>346</v>
+      </c>
+      <c r="F114" t="n">
+        <v>51</v>
+      </c>
+      <c r="G114" t="n">
+        <v>60404.80953423</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>349</v>
+      </c>
+      <c r="C115" t="n">
+        <v>345</v>
+      </c>
+      <c r="D115" t="n">
+        <v>349</v>
+      </c>
+      <c r="E115" t="n">
+        <v>345</v>
+      </c>
+      <c r="F115" t="n">
+        <v>218.3495</v>
+      </c>
+      <c r="G115" t="n">
+        <v>60186.46003423</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>346</v>
+      </c>
+      <c r="C116" t="n">
+        <v>346</v>
+      </c>
+      <c r="D116" t="n">
+        <v>346</v>
+      </c>
+      <c r="E116" t="n">
+        <v>346</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10</v>
+      </c>
+      <c r="G116" t="n">
+        <v>60196.46003423</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>345</v>
+      </c>
+      <c r="C117" t="n">
+        <v>345</v>
+      </c>
+      <c r="D117" t="n">
+        <v>345</v>
+      </c>
+      <c r="E117" t="n">
+        <v>344</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13</v>
+      </c>
+      <c r="G117" t="n">
+        <v>60183.46003423</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>345</v>
+      </c>
+      <c r="C118" t="n">
+        <v>342</v>
+      </c>
+      <c r="D118" t="n">
+        <v>345</v>
+      </c>
+      <c r="E118" t="n">
+        <v>342</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4804.2582</v>
+      </c>
+      <c r="G118" t="n">
+        <v>55379.20183423</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>344</v>
+      </c>
+      <c r="C119" t="n">
+        <v>345</v>
+      </c>
+      <c r="D119" t="n">
+        <v>345</v>
+      </c>
+      <c r="E119" t="n">
+        <v>344</v>
+      </c>
+      <c r="F119" t="n">
+        <v>67.9987</v>
+      </c>
+      <c r="G119" t="n">
+        <v>55447.20053423</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>343</v>
+      </c>
+      <c r="C120" t="n">
+        <v>343</v>
+      </c>
+      <c r="D120" t="n">
+        <v>343</v>
+      </c>
+      <c r="E120" t="n">
+        <v>343</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>55446.20053423</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>345</v>
+      </c>
+      <c r="C121" t="n">
+        <v>342</v>
+      </c>
+      <c r="D121" t="n">
+        <v>345</v>
+      </c>
+      <c r="E121" t="n">
+        <v>342</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10.1335</v>
+      </c>
+      <c r="G121" t="n">
+        <v>55436.06703422999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>342</v>
+      </c>
+      <c r="C122" t="n">
+        <v>340</v>
+      </c>
+      <c r="D122" t="n">
+        <v>342</v>
+      </c>
+      <c r="E122" t="n">
+        <v>340</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2217.7829</v>
+      </c>
+      <c r="G122" t="n">
+        <v>53218.28413422999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>341</v>
+      </c>
+      <c r="C123" t="n">
+        <v>341</v>
+      </c>
+      <c r="D123" t="n">
+        <v>341</v>
+      </c>
+      <c r="E123" t="n">
+        <v>341</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>53219.28413422999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>343</v>
+      </c>
+      <c r="C124" t="n">
+        <v>343</v>
+      </c>
+      <c r="D124" t="n">
+        <v>343</v>
+      </c>
+      <c r="E124" t="n">
+        <v>343</v>
+      </c>
+      <c r="F124" t="n">
+        <v>607.1706</v>
+      </c>
+      <c r="G124" t="n">
+        <v>53826.45473422999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>343</v>
+      </c>
+      <c r="C125" t="n">
+        <v>343</v>
+      </c>
+      <c r="D125" t="n">
+        <v>343</v>
+      </c>
+      <c r="E125" t="n">
+        <v>343</v>
+      </c>
+      <c r="F125" t="n">
+        <v>48.5041</v>
+      </c>
+      <c r="G125" t="n">
+        <v>53826.45473422999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>343</v>
+      </c>
+      <c r="C126" t="n">
+        <v>342</v>
+      </c>
+      <c r="D126" t="n">
+        <v>343</v>
+      </c>
+      <c r="E126" t="n">
+        <v>342</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12.3811</v>
+      </c>
+      <c r="G126" t="n">
+        <v>53814.07363422999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>342</v>
+      </c>
+      <c r="C127" t="n">
+        <v>342</v>
+      </c>
+      <c r="D127" t="n">
+        <v>342</v>
+      </c>
+      <c r="E127" t="n">
+        <v>342</v>
+      </c>
+      <c r="F127" t="n">
+        <v>266.4339</v>
+      </c>
+      <c r="G127" t="n">
+        <v>53814.07363422999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>342</v>
+      </c>
+      <c r="C128" t="n">
+        <v>341</v>
+      </c>
+      <c r="D128" t="n">
+        <v>342</v>
+      </c>
+      <c r="E128" t="n">
+        <v>341</v>
+      </c>
+      <c r="F128" t="n">
+        <v>98.8549</v>
+      </c>
+      <c r="G128" t="n">
+        <v>53715.21873422999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>340</v>
+      </c>
+      <c r="C129" t="n">
+        <v>341</v>
+      </c>
+      <c r="D129" t="n">
+        <v>341</v>
+      </c>
+      <c r="E129" t="n">
+        <v>340</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6234.9277</v>
+      </c>
+      <c r="G129" t="n">
+        <v>53715.21873422999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>339</v>
+      </c>
+      <c r="C130" t="n">
+        <v>339</v>
+      </c>
+      <c r="D130" t="n">
+        <v>340</v>
+      </c>
+      <c r="E130" t="n">
+        <v>339</v>
+      </c>
+      <c r="F130" t="n">
+        <v>268.4339</v>
+      </c>
+      <c r="G130" t="n">
+        <v>53446.78483423</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>341</v>
+      </c>
+      <c r="C131" t="n">
+        <v>339</v>
+      </c>
+      <c r="D131" t="n">
+        <v>341</v>
+      </c>
+      <c r="E131" t="n">
+        <v>339</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" t="n">
+        <v>53446.78483423</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>340</v>
+      </c>
+      <c r="C132" t="n">
+        <v>339</v>
+      </c>
+      <c r="D132" t="n">
+        <v>341</v>
+      </c>
+      <c r="E132" t="n">
+        <v>339</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2294.0058</v>
+      </c>
+      <c r="G132" t="n">
+        <v>53446.78483423</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>342</v>
+      </c>
+      <c r="C133" t="n">
+        <v>341</v>
+      </c>
+      <c r="D133" t="n">
+        <v>342</v>
+      </c>
+      <c r="E133" t="n">
+        <v>341</v>
+      </c>
+      <c r="F133" t="n">
+        <v>785.438</v>
+      </c>
+      <c r="G133" t="n">
+        <v>54232.22283423</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>341</v>
+      </c>
+      <c r="C134" t="n">
+        <v>341</v>
+      </c>
+      <c r="D134" t="n">
+        <v>341</v>
+      </c>
+      <c r="E134" t="n">
+        <v>341</v>
+      </c>
+      <c r="F134" t="n">
+        <v>723.4025</v>
+      </c>
+      <c r="G134" t="n">
+        <v>54232.22283423</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>342</v>
+      </c>
+      <c r="C135" t="n">
+        <v>342</v>
+      </c>
+      <c r="D135" t="n">
+        <v>342</v>
+      </c>
+      <c r="E135" t="n">
+        <v>342</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16.6745</v>
+      </c>
+      <c r="G135" t="n">
+        <v>54248.89733423</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>342</v>
+      </c>
+      <c r="C136" t="n">
+        <v>342</v>
+      </c>
+      <c r="D136" t="n">
+        <v>342</v>
+      </c>
+      <c r="E136" t="n">
+        <v>342</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>54248.89733423</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>342</v>
+      </c>
+      <c r="C137" t="n">
+        <v>343</v>
+      </c>
+      <c r="D137" t="n">
+        <v>343</v>
+      </c>
+      <c r="E137" t="n">
+        <v>342</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3410.1576</v>
+      </c>
+      <c r="G137" t="n">
+        <v>57659.05493423</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>344</v>
+      </c>
+      <c r="C138" t="n">
+        <v>344</v>
+      </c>
+      <c r="D138" t="n">
+        <v>344</v>
+      </c>
+      <c r="E138" t="n">
+        <v>344</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22.9617</v>
+      </c>
+      <c r="G138" t="n">
+        <v>57682.01663423</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>344</v>
+      </c>
+      <c r="C139" t="n">
+        <v>343</v>
+      </c>
+      <c r="D139" t="n">
+        <v>344</v>
+      </c>
+      <c r="E139" t="n">
+        <v>343</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2750.0962</v>
+      </c>
+      <c r="G139" t="n">
+        <v>54931.92043423</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>343</v>
+      </c>
+      <c r="C140" t="n">
+        <v>345</v>
+      </c>
+      <c r="D140" t="n">
+        <v>345</v>
+      </c>
+      <c r="E140" t="n">
+        <v>343</v>
+      </c>
+      <c r="F140" t="n">
+        <v>260.0347</v>
+      </c>
+      <c r="G140" t="n">
+        <v>55191.95513423</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>345</v>
+      </c>
+      <c r="C141" t="n">
+        <v>346</v>
+      </c>
+      <c r="D141" t="n">
+        <v>346</v>
+      </c>
+      <c r="E141" t="n">
+        <v>345</v>
+      </c>
+      <c r="F141" t="n">
+        <v>984</v>
+      </c>
+      <c r="G141" t="n">
+        <v>56175.95513423</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>344</v>
+      </c>
+      <c r="C142" t="n">
+        <v>344</v>
+      </c>
+      <c r="D142" t="n">
+        <v>344</v>
+      </c>
+      <c r="E142" t="n">
+        <v>344</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>56174.95513423</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>345</v>
+      </c>
+      <c r="C143" t="n">
+        <v>345</v>
+      </c>
+      <c r="D143" t="n">
+        <v>345</v>
+      </c>
+      <c r="E143" t="n">
+        <v>345</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1452.3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>57627.25513423</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>344</v>
+      </c>
+      <c r="C144" t="n">
+        <v>344</v>
+      </c>
+      <c r="D144" t="n">
+        <v>344</v>
+      </c>
+      <c r="E144" t="n">
+        <v>344</v>
+      </c>
+      <c r="F144" t="n">
+        <v>268.7208</v>
+      </c>
+      <c r="G144" t="n">
+        <v>57358.53433423</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>344</v>
+      </c>
+      <c r="C145" t="n">
+        <v>344</v>
+      </c>
+      <c r="D145" t="n">
+        <v>344</v>
+      </c>
+      <c r="E145" t="n">
+        <v>344</v>
+      </c>
+      <c r="F145" t="n">
+        <v>118.1656</v>
+      </c>
+      <c r="G145" t="n">
+        <v>57358.53433423</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>344</v>
+      </c>
+      <c r="C146" t="n">
+        <v>344</v>
+      </c>
+      <c r="D146" t="n">
+        <v>344</v>
+      </c>
+      <c r="E146" t="n">
+        <v>344</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5160.9834</v>
+      </c>
+      <c r="G146" t="n">
+        <v>57358.53433423</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>344</v>
+      </c>
+      <c r="C147" t="n">
+        <v>344</v>
+      </c>
+      <c r="D147" t="n">
+        <v>344</v>
+      </c>
+      <c r="E147" t="n">
+        <v>344</v>
+      </c>
+      <c r="F147" t="n">
+        <v>99.705</v>
+      </c>
+      <c r="G147" t="n">
+        <v>57358.53433423</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>341</v>
+      </c>
+      <c r="C148" t="n">
+        <v>341</v>
+      </c>
+      <c r="D148" t="n">
+        <v>341</v>
+      </c>
+      <c r="E148" t="n">
+        <v>341</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>57357.53433423</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>343</v>
+      </c>
+      <c r="C149" t="n">
+        <v>340</v>
+      </c>
+      <c r="D149" t="n">
+        <v>343</v>
+      </c>
+      <c r="E149" t="n">
+        <v>340</v>
+      </c>
+      <c r="F149" t="n">
+        <v>135.4383</v>
+      </c>
+      <c r="G149" t="n">
+        <v>57222.09603422999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>340</v>
+      </c>
+      <c r="C150" t="n">
+        <v>340</v>
+      </c>
+      <c r="D150" t="n">
+        <v>340</v>
+      </c>
+      <c r="E150" t="n">
+        <v>340</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>57222.09603422999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>341</v>
+      </c>
+      <c r="C151" t="n">
+        <v>341</v>
+      </c>
+      <c r="D151" t="n">
+        <v>341</v>
+      </c>
+      <c r="E151" t="n">
+        <v>341</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.4917</v>
+      </c>
+      <c r="G151" t="n">
+        <v>57224.58773422999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>342</v>
+      </c>
+      <c r="C152" t="n">
+        <v>344</v>
+      </c>
+      <c r="D152" t="n">
+        <v>344</v>
+      </c>
+      <c r="E152" t="n">
+        <v>342</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5313.5783</v>
+      </c>
+      <c r="G152" t="n">
+        <v>62538.16603422999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>344</v>
+      </c>
+      <c r="C153" t="n">
+        <v>344</v>
+      </c>
+      <c r="D153" t="n">
+        <v>344</v>
+      </c>
+      <c r="E153" t="n">
+        <v>344</v>
+      </c>
+      <c r="F153" t="n">
+        <v>850.3633</v>
+      </c>
+      <c r="G153" t="n">
+        <v>62538.16603422999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>342</v>
+      </c>
+      <c r="C154" t="n">
+        <v>342</v>
+      </c>
+      <c r="D154" t="n">
+        <v>342</v>
+      </c>
+      <c r="E154" t="n">
+        <v>342</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>62537.16603422999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>344</v>
+      </c>
+      <c r="C155" t="n">
+        <v>344</v>
+      </c>
+      <c r="D155" t="n">
+        <v>344</v>
+      </c>
+      <c r="E155" t="n">
+        <v>344</v>
+      </c>
+      <c r="F155" t="n">
+        <v>681.2169</v>
+      </c>
+      <c r="G155" t="n">
+        <v>63218.38293422999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>346</v>
+      </c>
+      <c r="C156" t="n">
+        <v>346</v>
+      </c>
+      <c r="D156" t="n">
+        <v>346</v>
+      </c>
+      <c r="E156" t="n">
+        <v>346</v>
+      </c>
+      <c r="F156" t="n">
+        <v>44.8437</v>
+      </c>
+      <c r="G156" t="n">
+        <v>63263.22663422999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>348</v>
+      </c>
+      <c r="C157" t="n">
+        <v>347</v>
+      </c>
+      <c r="D157" t="n">
+        <v>351</v>
+      </c>
+      <c r="E157" t="n">
+        <v>347</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3954.6</v>
+      </c>
+      <c r="G157" t="n">
+        <v>67217.82663422999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>348</v>
+      </c>
+      <c r="C158" t="n">
+        <v>349</v>
+      </c>
+      <c r="D158" t="n">
+        <v>349</v>
+      </c>
+      <c r="E158" t="n">
+        <v>347</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3095.0451</v>
+      </c>
+      <c r="G158" t="n">
+        <v>70312.87173422999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>350</v>
+      </c>
+      <c r="C159" t="n">
+        <v>350</v>
+      </c>
+      <c r="D159" t="n">
+        <v>350</v>
+      </c>
+      <c r="E159" t="n">
+        <v>350</v>
+      </c>
+      <c r="F159" t="n">
+        <v>21.2694</v>
+      </c>
+      <c r="G159" t="n">
+        <v>70334.14113423</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>351</v>
+      </c>
+      <c r="C160" t="n">
+        <v>350</v>
+      </c>
+      <c r="D160" t="n">
+        <v>351</v>
+      </c>
+      <c r="E160" t="n">
+        <v>350</v>
+      </c>
+      <c r="F160" t="n">
+        <v>15640.7244</v>
+      </c>
+      <c r="G160" t="n">
+        <v>70334.14113423</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>351</v>
+      </c>
+      <c r="C161" t="n">
+        <v>351</v>
+      </c>
+      <c r="D161" t="n">
+        <v>351</v>
+      </c>
+      <c r="E161" t="n">
+        <v>349</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7823.5093</v>
+      </c>
+      <c r="G161" t="n">
+        <v>78157.65043423</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>350</v>
+      </c>
+      <c r="C162" t="n">
+        <v>350</v>
+      </c>
+      <c r="D162" t="n">
+        <v>350</v>
+      </c>
+      <c r="E162" t="n">
+        <v>350</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>78156.65043423</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>350</v>
+      </c>
+      <c r="C163" t="n">
+        <v>351</v>
+      </c>
+      <c r="D163" t="n">
+        <v>351</v>
+      </c>
+      <c r="E163" t="n">
+        <v>349</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3774.75317891</v>
+      </c>
+      <c r="G163" t="n">
+        <v>81931.40361314001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>351</v>
+      </c>
+      <c r="C164" t="n">
+        <v>350</v>
+      </c>
+      <c r="D164" t="n">
+        <v>351</v>
+      </c>
+      <c r="E164" t="n">
+        <v>350</v>
+      </c>
+      <c r="F164" t="n">
+        <v>713.2507000000001</v>
+      </c>
+      <c r="G164" t="n">
+        <v>81218.15291314</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>351</v>
+      </c>
+      <c r="C165" t="n">
+        <v>350</v>
+      </c>
+      <c r="D165" t="n">
+        <v>351</v>
+      </c>
+      <c r="E165" t="n">
+        <v>350</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3522.5669</v>
+      </c>
+      <c r="G165" t="n">
+        <v>81218.15291314</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>350</v>
+      </c>
+      <c r="C166" t="n">
+        <v>351</v>
+      </c>
+      <c r="D166" t="n">
+        <v>351</v>
+      </c>
+      <c r="E166" t="n">
+        <v>350</v>
+      </c>
+      <c r="F166" t="n">
+        <v>24429.5144</v>
+      </c>
+      <c r="G166" t="n">
+        <v>105647.66731314</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>350</v>
+      </c>
+      <c r="C167" t="n">
+        <v>350</v>
+      </c>
+      <c r="D167" t="n">
+        <v>350</v>
+      </c>
+      <c r="E167" t="n">
+        <v>350</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>105646.66731314</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>351</v>
+      </c>
+      <c r="C168" t="n">
+        <v>351</v>
+      </c>
+      <c r="D168" t="n">
+        <v>351</v>
+      </c>
+      <c r="E168" t="n">
+        <v>350</v>
+      </c>
+      <c r="F168" t="n">
+        <v>13777.1567</v>
+      </c>
+      <c r="G168" t="n">
+        <v>119423.82401314</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>351</v>
+      </c>
+      <c r="C169" t="n">
+        <v>351</v>
+      </c>
+      <c r="D169" t="n">
+        <v>351</v>
+      </c>
+      <c r="E169" t="n">
+        <v>351</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2110.81812109</v>
+      </c>
+      <c r="G169" t="n">
+        <v>119423.82401314</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>352</v>
+      </c>
+      <c r="C170" t="n">
+        <v>351</v>
+      </c>
+      <c r="D170" t="n">
+        <v>352</v>
+      </c>
+      <c r="E170" t="n">
+        <v>351</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5585.9658</v>
+      </c>
+      <c r="G170" t="n">
+        <v>119423.82401314</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>352</v>
+      </c>
+      <c r="C171" t="n">
+        <v>352</v>
+      </c>
+      <c r="D171" t="n">
+        <v>352</v>
+      </c>
+      <c r="E171" t="n">
+        <v>351</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16050.2999</v>
+      </c>
+      <c r="G171" t="n">
+        <v>135474.12391314</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>351</v>
+      </c>
+      <c r="C172" t="n">
+        <v>353</v>
+      </c>
+      <c r="D172" t="n">
+        <v>353</v>
+      </c>
+      <c r="E172" t="n">
+        <v>351</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5389.8171</v>
+      </c>
+      <c r="G172" t="n">
+        <v>140863.94101314</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>353</v>
+      </c>
+      <c r="C173" t="n">
+        <v>355</v>
+      </c>
+      <c r="D173" t="n">
+        <v>355</v>
+      </c>
+      <c r="E173" t="n">
+        <v>353</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6144.27834507</v>
+      </c>
+      <c r="G173" t="n">
+        <v>147008.21935821</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>355</v>
+      </c>
+      <c r="C174" t="n">
+        <v>354</v>
+      </c>
+      <c r="D174" t="n">
+        <v>355</v>
+      </c>
+      <c r="E174" t="n">
+        <v>354</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8733.3943</v>
+      </c>
+      <c r="G174" t="n">
+        <v>138274.82505821</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>354</v>
+      </c>
+      <c r="C175" t="n">
+        <v>355</v>
+      </c>
+      <c r="D175" t="n">
+        <v>355</v>
+      </c>
+      <c r="E175" t="n">
+        <v>354</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4352.2089</v>
+      </c>
+      <c r="G175" t="n">
+        <v>142627.03395821</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>355</v>
+      </c>
+      <c r="C176" t="n">
+        <v>356</v>
+      </c>
+      <c r="D176" t="n">
+        <v>356</v>
+      </c>
+      <c r="E176" t="n">
+        <v>355</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2801.54191629</v>
+      </c>
+      <c r="G176" t="n">
+        <v>145428.5758745</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>354</v>
+      </c>
+      <c r="C177" t="n">
+        <v>354</v>
+      </c>
+      <c r="D177" t="n">
+        <v>354</v>
+      </c>
+      <c r="E177" t="n">
+        <v>354</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10</v>
+      </c>
+      <c r="G177" t="n">
+        <v>145418.5758745</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1.026152647975078</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>331</v>
-      </c>
-      <c r="C51" t="n">
-        <v>330</v>
-      </c>
-      <c r="D51" t="n">
-        <v>331</v>
-      </c>
-      <c r="E51" t="n">
-        <v>330</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4101.1696</v>
-      </c>
-      <c r="G51" t="n">
-        <v>22831.9795</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>332</v>
-      </c>
-      <c r="C52" t="n">
-        <v>333</v>
-      </c>
-      <c r="D52" t="n">
-        <v>333</v>
-      </c>
-      <c r="E52" t="n">
-        <v>332</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2431.51003423</v>
-      </c>
-      <c r="G52" t="n">
-        <v>25263.48953423</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>332</v>
-      </c>
-      <c r="C53" t="n">
-        <v>331</v>
-      </c>
-      <c r="D53" t="n">
-        <v>332</v>
-      </c>
-      <c r="E53" t="n">
-        <v>331</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2563.3146</v>
-      </c>
-      <c r="G53" t="n">
-        <v>22700.17493423</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>331</v>
-      </c>
-      <c r="C54" t="n">
-        <v>331</v>
-      </c>
-      <c r="D54" t="n">
-        <v>331</v>
-      </c>
-      <c r="E54" t="n">
-        <v>331</v>
-      </c>
-      <c r="F54" t="n">
-        <v>23</v>
-      </c>
-      <c r="G54" t="n">
-        <v>22700.17493423</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>331</v>
-      </c>
-      <c r="C55" t="n">
-        <v>331</v>
-      </c>
-      <c r="D55" t="n">
-        <v>331</v>
-      </c>
-      <c r="E55" t="n">
-        <v>331</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
-      </c>
-      <c r="G55" t="n">
-        <v>22700.17493423</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>332</v>
-      </c>
-      <c r="C56" t="n">
-        <v>332</v>
-      </c>
-      <c r="D56" t="n">
-        <v>333</v>
-      </c>
-      <c r="E56" t="n">
-        <v>332</v>
-      </c>
-      <c r="F56" t="n">
-        <v>472.1978</v>
-      </c>
-      <c r="G56" t="n">
-        <v>23172.37273423</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>332</v>
-      </c>
-      <c r="C57" t="n">
-        <v>332</v>
-      </c>
-      <c r="D57" t="n">
-        <v>332</v>
-      </c>
-      <c r="E57" t="n">
-        <v>332</v>
-      </c>
-      <c r="F57" t="n">
-        <v>50</v>
-      </c>
-      <c r="G57" t="n">
-        <v>23172.37273423</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>333</v>
-      </c>
-      <c r="C58" t="n">
-        <v>333</v>
-      </c>
-      <c r="D58" t="n">
-        <v>333</v>
-      </c>
-      <c r="E58" t="n">
-        <v>333</v>
-      </c>
-      <c r="F58" t="n">
-        <v>14.0483</v>
-      </c>
-      <c r="G58" t="n">
-        <v>23186.42103423</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>333</v>
-      </c>
-      <c r="C59" t="n">
-        <v>333</v>
-      </c>
-      <c r="D59" t="n">
-        <v>333</v>
-      </c>
-      <c r="E59" t="n">
-        <v>333</v>
-      </c>
-      <c r="F59" t="n">
-        <v>5</v>
-      </c>
-      <c r="G59" t="n">
-        <v>23186.42103423</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>333</v>
-      </c>
-      <c r="C60" t="n">
-        <v>333</v>
-      </c>
-      <c r="D60" t="n">
-        <v>333</v>
-      </c>
-      <c r="E60" t="n">
-        <v>333</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10</v>
-      </c>
-      <c r="G60" t="n">
-        <v>23186.42103423</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>333</v>
-      </c>
-      <c r="C61" t="n">
-        <v>333</v>
-      </c>
-      <c r="D61" t="n">
-        <v>333</v>
-      </c>
-      <c r="E61" t="n">
-        <v>333</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1710.8516</v>
-      </c>
-      <c r="G61" t="n">
-        <v>23186.42103423</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>333</v>
-      </c>
-      <c r="C62" t="n">
-        <v>333</v>
-      </c>
-      <c r="D62" t="n">
-        <v>333</v>
-      </c>
-      <c r="E62" t="n">
-        <v>333</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2153.1295</v>
-      </c>
-      <c r="G62" t="n">
-        <v>23186.42103423</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>333</v>
-      </c>
-      <c r="C63" t="n">
-        <v>333</v>
-      </c>
-      <c r="D63" t="n">
-        <v>333</v>
-      </c>
-      <c r="E63" t="n">
-        <v>333</v>
-      </c>
-      <c r="F63" t="n">
-        <v>306.6495</v>
-      </c>
-      <c r="G63" t="n">
-        <v>23186.42103423</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>332</v>
-      </c>
-      <c r="C64" t="n">
-        <v>331</v>
-      </c>
-      <c r="D64" t="n">
-        <v>332</v>
-      </c>
-      <c r="E64" t="n">
-        <v>331</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2785.0874</v>
-      </c>
-      <c r="G64" t="n">
-        <v>20401.33363423</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>331</v>
-      </c>
-      <c r="C65" t="n">
-        <v>331</v>
-      </c>
-      <c r="D65" t="n">
-        <v>331</v>
-      </c>
-      <c r="E65" t="n">
-        <v>331</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1713.8103</v>
-      </c>
-      <c r="G65" t="n">
-        <v>20401.33363423</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>331</v>
-      </c>
-      <c r="C66" t="n">
-        <v>331</v>
-      </c>
-      <c r="D66" t="n">
-        <v>331</v>
-      </c>
-      <c r="E66" t="n">
-        <v>331</v>
-      </c>
-      <c r="F66" t="n">
-        <v>300</v>
-      </c>
-      <c r="G66" t="n">
-        <v>20401.33363423</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>331</v>
-      </c>
-      <c r="C67" t="n">
-        <v>331</v>
-      </c>
-      <c r="D67" t="n">
-        <v>331</v>
-      </c>
-      <c r="E67" t="n">
-        <v>331</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1333.7067</v>
-      </c>
-      <c r="G67" t="n">
-        <v>20401.33363423</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>331</v>
-      </c>
-      <c r="C68" t="n">
-        <v>330</v>
-      </c>
-      <c r="D68" t="n">
-        <v>331</v>
-      </c>
-      <c r="E68" t="n">
-        <v>330</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3880</v>
-      </c>
-      <c r="G68" t="n">
-        <v>16521.33363423</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>330</v>
-      </c>
-      <c r="C69" t="n">
-        <v>330</v>
-      </c>
-      <c r="D69" t="n">
-        <v>330</v>
-      </c>
-      <c r="E69" t="n">
-        <v>330</v>
-      </c>
-      <c r="F69" t="n">
-        <v>28.2815</v>
-      </c>
-      <c r="G69" t="n">
-        <v>16521.33363423</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>331</v>
-      </c>
-      <c r="C70" t="n">
-        <v>332</v>
-      </c>
-      <c r="D70" t="n">
-        <v>332</v>
-      </c>
-      <c r="E70" t="n">
-        <v>331</v>
-      </c>
-      <c r="F70" t="n">
-        <v>122.0973</v>
-      </c>
-      <c r="G70" t="n">
-        <v>16643.43093423</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>332</v>
-      </c>
-      <c r="C71" t="n">
-        <v>332</v>
-      </c>
-      <c r="D71" t="n">
-        <v>332</v>
-      </c>
-      <c r="E71" t="n">
-        <v>332</v>
-      </c>
-      <c r="F71" t="n">
-        <v>85.4508</v>
-      </c>
-      <c r="G71" t="n">
-        <v>16643.43093423</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>332</v>
-      </c>
-      <c r="C72" t="n">
-        <v>332</v>
-      </c>
-      <c r="D72" t="n">
-        <v>332</v>
-      </c>
-      <c r="E72" t="n">
-        <v>332</v>
-      </c>
-      <c r="F72" t="n">
-        <v>107.335</v>
-      </c>
-      <c r="G72" t="n">
-        <v>16643.43093423</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>332</v>
-      </c>
-      <c r="C73" t="n">
-        <v>332</v>
-      </c>
-      <c r="D73" t="n">
-        <v>332</v>
-      </c>
-      <c r="E73" t="n">
-        <v>332</v>
-      </c>
-      <c r="F73" t="n">
-        <v>320</v>
-      </c>
-      <c r="G73" t="n">
-        <v>16643.43093423</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>331</v>
-      </c>
-      <c r="C74" t="n">
-        <v>331</v>
-      </c>
-      <c r="D74" t="n">
-        <v>331</v>
-      </c>
-      <c r="E74" t="n">
-        <v>331</v>
-      </c>
-      <c r="F74" t="n">
-        <v>116</v>
-      </c>
-      <c r="G74" t="n">
-        <v>16527.43093423</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>333</v>
-      </c>
-      <c r="C75" t="n">
-        <v>331</v>
-      </c>
-      <c r="D75" t="n">
-        <v>337</v>
-      </c>
-      <c r="E75" t="n">
-        <v>331</v>
-      </c>
-      <c r="F75" t="n">
-        <v>4248.9604</v>
-      </c>
-      <c r="G75" t="n">
-        <v>16527.43093423</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>337</v>
-      </c>
-      <c r="C76" t="n">
-        <v>339</v>
-      </c>
-      <c r="D76" t="n">
-        <v>339</v>
-      </c>
-      <c r="E76" t="n">
-        <v>337</v>
-      </c>
-      <c r="F76" t="n">
-        <v>9481</v>
-      </c>
-      <c r="G76" t="n">
-        <v>26008.43093423</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>339</v>
-      </c>
-      <c r="C77" t="n">
-        <v>340</v>
-      </c>
-      <c r="D77" t="n">
-        <v>340</v>
-      </c>
-      <c r="E77" t="n">
-        <v>339</v>
-      </c>
-      <c r="F77" t="n">
-        <v>13786.68</v>
-      </c>
-      <c r="G77" t="n">
-        <v>39795.11093423</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>339</v>
-      </c>
-      <c r="C78" t="n">
-        <v>340</v>
-      </c>
-      <c r="D78" t="n">
-        <v>340</v>
-      </c>
-      <c r="E78" t="n">
-        <v>339</v>
-      </c>
-      <c r="F78" t="n">
-        <v>11213.5007</v>
-      </c>
-      <c r="G78" t="n">
-        <v>39795.11093423</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>341</v>
-      </c>
-      <c r="C79" t="n">
-        <v>341</v>
-      </c>
-      <c r="D79" t="n">
-        <v>341</v>
-      </c>
-      <c r="E79" t="n">
-        <v>341</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1773</v>
-      </c>
-      <c r="G79" t="n">
-        <v>41568.11093423</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>341</v>
-      </c>
-      <c r="C80" t="n">
-        <v>342</v>
-      </c>
-      <c r="D80" t="n">
-        <v>342</v>
-      </c>
-      <c r="E80" t="n">
-        <v>341</v>
-      </c>
-      <c r="F80" t="n">
-        <v>956.2396</v>
-      </c>
-      <c r="G80" t="n">
-        <v>42524.35053423</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>343</v>
-      </c>
-      <c r="C81" t="n">
-        <v>345</v>
-      </c>
-      <c r="D81" t="n">
-        <v>345</v>
-      </c>
-      <c r="E81" t="n">
-        <v>343</v>
-      </c>
-      <c r="F81" t="n">
-        <v>4693.1017</v>
-      </c>
-      <c r="G81" t="n">
-        <v>47217.45223423</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>345</v>
-      </c>
-      <c r="C82" t="n">
-        <v>348</v>
-      </c>
-      <c r="D82" t="n">
-        <v>348</v>
-      </c>
-      <c r="E82" t="n">
-        <v>345</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2266.542</v>
-      </c>
-      <c r="G82" t="n">
-        <v>49483.99423423001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>345</v>
-      </c>
-      <c r="C83" t="n">
-        <v>345</v>
-      </c>
-      <c r="D83" t="n">
-        <v>345</v>
-      </c>
-      <c r="E83" t="n">
-        <v>345</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2314.7275</v>
-      </c>
-      <c r="G83" t="n">
-        <v>47169.26673423</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>345</v>
-      </c>
-      <c r="C84" t="n">
-        <v>345</v>
-      </c>
-      <c r="D84" t="n">
-        <v>345</v>
-      </c>
-      <c r="E84" t="n">
-        <v>345</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2763.5593</v>
-      </c>
-      <c r="G84" t="n">
-        <v>47169.26673423</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>343</v>
-      </c>
-      <c r="C85" t="n">
-        <v>343</v>
-      </c>
-      <c r="D85" t="n">
-        <v>343</v>
-      </c>
-      <c r="E85" t="n">
-        <v>343</v>
-      </c>
-      <c r="F85" t="n">
-        <v>532.7604</v>
-      </c>
-      <c r="G85" t="n">
-        <v>46636.50633423001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>345</v>
-      </c>
-      <c r="C86" t="n">
-        <v>346</v>
-      </c>
-      <c r="D86" t="n">
-        <v>346</v>
-      </c>
-      <c r="E86" t="n">
-        <v>345</v>
-      </c>
-      <c r="F86" t="n">
-        <v>904.8011</v>
-      </c>
-      <c r="G86" t="n">
-        <v>47541.30743423</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>344</v>
-      </c>
-      <c r="C87" t="n">
-        <v>343</v>
-      </c>
-      <c r="D87" t="n">
-        <v>344</v>
-      </c>
-      <c r="E87" t="n">
-        <v>343</v>
-      </c>
-      <c r="F87" t="n">
-        <v>526.606</v>
-      </c>
-      <c r="G87" t="n">
-        <v>47014.70143423</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>344</v>
-      </c>
-      <c r="C88" t="n">
-        <v>338</v>
-      </c>
-      <c r="D88" t="n">
-        <v>344</v>
-      </c>
-      <c r="E88" t="n">
-        <v>338</v>
-      </c>
-      <c r="F88" t="n">
-        <v>10562</v>
-      </c>
-      <c r="G88" t="n">
-        <v>36452.70143423</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>342</v>
-      </c>
-      <c r="C89" t="n">
-        <v>342</v>
-      </c>
-      <c r="D89" t="n">
-        <v>342</v>
-      </c>
-      <c r="E89" t="n">
-        <v>342</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="n">
-        <v>36453.70143423</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>340</v>
-      </c>
-      <c r="C90" t="n">
-        <v>340</v>
-      </c>
-      <c r="D90" t="n">
-        <v>340</v>
-      </c>
-      <c r="E90" t="n">
-        <v>340</v>
-      </c>
-      <c r="F90" t="n">
-        <v>782.4761</v>
-      </c>
-      <c r="G90" t="n">
-        <v>35671.22533423</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>342</v>
-      </c>
-      <c r="C91" t="n">
-        <v>342</v>
-      </c>
-      <c r="D91" t="n">
-        <v>342</v>
-      </c>
-      <c r="E91" t="n">
-        <v>342</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="n">
-        <v>35672.22533423</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>341</v>
-      </c>
-      <c r="C92" t="n">
-        <v>341</v>
-      </c>
-      <c r="D92" t="n">
-        <v>341</v>
-      </c>
-      <c r="E92" t="n">
-        <v>339</v>
-      </c>
-      <c r="F92" t="n">
-        <v>616.105</v>
-      </c>
-      <c r="G92" t="n">
-        <v>35056.12033423</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>340</v>
-      </c>
-      <c r="C93" t="n">
-        <v>341</v>
-      </c>
-      <c r="D93" t="n">
-        <v>341</v>
-      </c>
-      <c r="E93" t="n">
-        <v>340</v>
-      </c>
-      <c r="F93" t="n">
-        <v>217.3289</v>
-      </c>
-      <c r="G93" t="n">
-        <v>35056.12033423</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>341</v>
-      </c>
-      <c r="C94" t="n">
-        <v>341</v>
-      </c>
-      <c r="D94" t="n">
-        <v>341</v>
-      </c>
-      <c r="E94" t="n">
-        <v>337</v>
-      </c>
-      <c r="F94" t="n">
-        <v>10304.3113</v>
-      </c>
-      <c r="G94" t="n">
-        <v>35056.12033423</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>341</v>
-      </c>
-      <c r="C95" t="n">
-        <v>339</v>
-      </c>
-      <c r="D95" t="n">
-        <v>341</v>
-      </c>
-      <c r="E95" t="n">
-        <v>339</v>
-      </c>
-      <c r="F95" t="n">
-        <v>787.963</v>
-      </c>
-      <c r="G95" t="n">
-        <v>34268.15733423</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>342</v>
-      </c>
-      <c r="C96" t="n">
-        <v>343</v>
-      </c>
-      <c r="D96" t="n">
-        <v>343</v>
-      </c>
-      <c r="E96" t="n">
-        <v>341</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2606.5552</v>
-      </c>
-      <c r="G96" t="n">
-        <v>36874.71253423</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>346</v>
-      </c>
-      <c r="C97" t="n">
-        <v>346</v>
-      </c>
-      <c r="D97" t="n">
-        <v>346</v>
-      </c>
-      <c r="E97" t="n">
-        <v>346</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>36875.71253423</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>345</v>
-      </c>
-      <c r="C98" t="n">
-        <v>346</v>
-      </c>
-      <c r="D98" t="n">
-        <v>346</v>
-      </c>
-      <c r="E98" t="n">
-        <v>345</v>
-      </c>
-      <c r="F98" t="n">
-        <v>5273.9881</v>
-      </c>
-      <c r="G98" t="n">
-        <v>36875.71253423</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>346</v>
-      </c>
-      <c r="C99" t="n">
-        <v>348</v>
-      </c>
-      <c r="D99" t="n">
-        <v>348</v>
-      </c>
-      <c r="E99" t="n">
-        <v>346</v>
-      </c>
-      <c r="F99" t="n">
-        <v>5251.2578</v>
-      </c>
-      <c r="G99" t="n">
-        <v>42126.97033423</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>348</v>
-      </c>
-      <c r="C100" t="n">
-        <v>348</v>
-      </c>
-      <c r="D100" t="n">
-        <v>348</v>
-      </c>
-      <c r="E100" t="n">
-        <v>348</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1662.7937</v>
-      </c>
-      <c r="G100" t="n">
-        <v>42126.97033423</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>348</v>
-      </c>
-      <c r="C101" t="n">
-        <v>350</v>
-      </c>
-      <c r="D101" t="n">
-        <v>350</v>
-      </c>
-      <c r="E101" t="n">
-        <v>347</v>
-      </c>
-      <c r="F101" t="n">
-        <v>8426.9683</v>
-      </c>
-      <c r="G101" t="n">
-        <v>50553.93863423</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>350</v>
-      </c>
-      <c r="C102" t="n">
-        <v>346</v>
-      </c>
-      <c r="D102" t="n">
-        <v>350</v>
-      </c>
-      <c r="E102" t="n">
-        <v>346</v>
-      </c>
-      <c r="F102" t="n">
-        <v>222.0886</v>
-      </c>
-      <c r="G102" t="n">
-        <v>50331.85003423</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>349</v>
-      </c>
-      <c r="C103" t="n">
-        <v>349</v>
-      </c>
-      <c r="D103" t="n">
-        <v>349</v>
-      </c>
-      <c r="E103" t="n">
-        <v>349</v>
-      </c>
-      <c r="F103" t="n">
-        <v>151.8669</v>
-      </c>
-      <c r="G103" t="n">
-        <v>50483.71693423</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>347</v>
-      </c>
-      <c r="C104" t="n">
-        <v>347</v>
-      </c>
-      <c r="D104" t="n">
-        <v>349</v>
-      </c>
-      <c r="E104" t="n">
-        <v>347</v>
-      </c>
-      <c r="F104" t="n">
-        <v>795.0886</v>
-      </c>
-      <c r="G104" t="n">
-        <v>49688.62833422999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>349</v>
-      </c>
-      <c r="C105" t="n">
-        <v>351</v>
-      </c>
-      <c r="D105" t="n">
-        <v>351</v>
-      </c>
-      <c r="E105" t="n">
-        <v>348</v>
-      </c>
-      <c r="F105" t="n">
-        <v>9016.4061</v>
-      </c>
-      <c r="G105" t="n">
-        <v>58705.03443422999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>351</v>
-      </c>
-      <c r="C106" t="n">
-        <v>349</v>
-      </c>
-      <c r="D106" t="n">
-        <v>351</v>
-      </c>
-      <c r="E106" t="n">
-        <v>349</v>
-      </c>
-      <c r="F106" t="n">
-        <v>26</v>
-      </c>
-      <c r="G106" t="n">
-        <v>58679.03443422999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>349</v>
-      </c>
-      <c r="C107" t="n">
-        <v>349</v>
-      </c>
-      <c r="D107" t="n">
-        <v>351</v>
-      </c>
-      <c r="E107" t="n">
-        <v>349</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3</v>
-      </c>
-      <c r="G107" t="n">
-        <v>58679.03443422999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>348</v>
-      </c>
-      <c r="C108" t="n">
-        <v>348</v>
-      </c>
-      <c r="D108" t="n">
-        <v>348</v>
-      </c>
-      <c r="E108" t="n">
-        <v>348</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" t="n">
-        <v>58678.03443422999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>350</v>
-      </c>
-      <c r="C109" t="n">
-        <v>350</v>
-      </c>
-      <c r="D109" t="n">
-        <v>350</v>
-      </c>
-      <c r="E109" t="n">
-        <v>348</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2679.51</v>
-      </c>
-      <c r="G109" t="n">
-        <v>61357.54443423</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>350</v>
-      </c>
-      <c r="C110" t="n">
-        <v>350</v>
-      </c>
-      <c r="D110" t="n">
-        <v>350</v>
-      </c>
-      <c r="E110" t="n">
-        <v>350</v>
-      </c>
-      <c r="F110" t="n">
-        <v>195.6399</v>
-      </c>
-      <c r="G110" t="n">
-        <v>61357.54443423</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>349</v>
-      </c>
-      <c r="C111" t="n">
-        <v>348</v>
-      </c>
-      <c r="D111" t="n">
-        <v>349</v>
-      </c>
-      <c r="E111" t="n">
-        <v>348</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2</v>
-      </c>
-      <c r="G111" t="n">
-        <v>61355.54443423</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>351</v>
-      </c>
-      <c r="C112" t="n">
-        <v>345</v>
-      </c>
-      <c r="D112" t="n">
-        <v>351</v>
-      </c>
-      <c r="E112" t="n">
-        <v>345</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2443.7363</v>
-      </c>
-      <c r="G112" t="n">
-        <v>58911.80813423</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>349</v>
-      </c>
-      <c r="C113" t="n">
-        <v>347</v>
-      </c>
-      <c r="D113" t="n">
-        <v>349</v>
-      </c>
-      <c r="E113" t="n">
-        <v>347</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1544.0014</v>
-      </c>
-      <c r="G113" t="n">
-        <v>60455.80953423</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>347</v>
-      </c>
-      <c r="C114" t="n">
-        <v>346</v>
-      </c>
-      <c r="D114" t="n">
-        <v>347</v>
-      </c>
-      <c r="E114" t="n">
-        <v>346</v>
-      </c>
-      <c r="F114" t="n">
-        <v>51</v>
-      </c>
-      <c r="G114" t="n">
-        <v>60404.80953423</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>349</v>
-      </c>
-      <c r="C115" t="n">
-        <v>345</v>
-      </c>
-      <c r="D115" t="n">
-        <v>349</v>
-      </c>
-      <c r="E115" t="n">
-        <v>345</v>
-      </c>
-      <c r="F115" t="n">
-        <v>218.3495</v>
-      </c>
-      <c r="G115" t="n">
-        <v>60186.46003423</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>346</v>
-      </c>
-      <c r="C116" t="n">
-        <v>346</v>
-      </c>
-      <c r="D116" t="n">
-        <v>346</v>
-      </c>
-      <c r="E116" t="n">
-        <v>346</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>60196.46003423</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>345</v>
-      </c>
-      <c r="C117" t="n">
-        <v>345</v>
-      </c>
-      <c r="D117" t="n">
-        <v>345</v>
-      </c>
-      <c r="E117" t="n">
-        <v>344</v>
-      </c>
-      <c r="F117" t="n">
-        <v>13</v>
-      </c>
-      <c r="G117" t="n">
-        <v>60183.46003423</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>345</v>
-      </c>
-      <c r="C118" t="n">
-        <v>342</v>
-      </c>
-      <c r="D118" t="n">
-        <v>345</v>
-      </c>
-      <c r="E118" t="n">
-        <v>342</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4804.2582</v>
-      </c>
-      <c r="G118" t="n">
-        <v>55379.20183423</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>344</v>
-      </c>
-      <c r="C119" t="n">
-        <v>345</v>
-      </c>
-      <c r="D119" t="n">
-        <v>345</v>
-      </c>
-      <c r="E119" t="n">
-        <v>344</v>
-      </c>
-      <c r="F119" t="n">
-        <v>67.9987</v>
-      </c>
-      <c r="G119" t="n">
-        <v>55447.20053423</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>343</v>
-      </c>
-      <c r="C120" t="n">
-        <v>343</v>
-      </c>
-      <c r="D120" t="n">
-        <v>343</v>
-      </c>
-      <c r="E120" t="n">
-        <v>343</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" t="n">
-        <v>55446.20053423</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>345</v>
-      </c>
-      <c r="C121" t="n">
-        <v>342</v>
-      </c>
-      <c r="D121" t="n">
-        <v>345</v>
-      </c>
-      <c r="E121" t="n">
-        <v>342</v>
-      </c>
-      <c r="F121" t="n">
-        <v>10.1335</v>
-      </c>
-      <c r="G121" t="n">
-        <v>55436.06703422999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>342</v>
-      </c>
-      <c r="C122" t="n">
-        <v>340</v>
-      </c>
-      <c r="D122" t="n">
-        <v>342</v>
-      </c>
-      <c r="E122" t="n">
-        <v>340</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2217.7829</v>
-      </c>
-      <c r="G122" t="n">
-        <v>53218.28413422999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>341</v>
-      </c>
-      <c r="C123" t="n">
-        <v>341</v>
-      </c>
-      <c r="D123" t="n">
-        <v>341</v>
-      </c>
-      <c r="E123" t="n">
-        <v>341</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" t="n">
-        <v>53219.28413422999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>343</v>
-      </c>
-      <c r="C124" t="n">
-        <v>343</v>
-      </c>
-      <c r="D124" t="n">
-        <v>343</v>
-      </c>
-      <c r="E124" t="n">
-        <v>343</v>
-      </c>
-      <c r="F124" t="n">
-        <v>607.1706</v>
-      </c>
-      <c r="G124" t="n">
-        <v>53826.45473422999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>343</v>
-      </c>
-      <c r="C125" t="n">
-        <v>343</v>
-      </c>
-      <c r="D125" t="n">
-        <v>343</v>
-      </c>
-      <c r="E125" t="n">
-        <v>343</v>
-      </c>
-      <c r="F125" t="n">
-        <v>48.5041</v>
-      </c>
-      <c r="G125" t="n">
-        <v>53826.45473422999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>343</v>
-      </c>
-      <c r="C126" t="n">
-        <v>342</v>
-      </c>
-      <c r="D126" t="n">
-        <v>343</v>
-      </c>
-      <c r="E126" t="n">
-        <v>342</v>
-      </c>
-      <c r="F126" t="n">
-        <v>12.3811</v>
-      </c>
-      <c r="G126" t="n">
-        <v>53814.07363422999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>342</v>
-      </c>
-      <c r="C127" t="n">
-        <v>342</v>
-      </c>
-      <c r="D127" t="n">
-        <v>342</v>
-      </c>
-      <c r="E127" t="n">
-        <v>342</v>
-      </c>
-      <c r="F127" t="n">
-        <v>266.4339</v>
-      </c>
-      <c r="G127" t="n">
-        <v>53814.07363422999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>342</v>
-      </c>
-      <c r="C128" t="n">
-        <v>341</v>
-      </c>
-      <c r="D128" t="n">
-        <v>342</v>
-      </c>
-      <c r="E128" t="n">
-        <v>341</v>
-      </c>
-      <c r="F128" t="n">
-        <v>98.8549</v>
-      </c>
-      <c r="G128" t="n">
-        <v>53715.21873422999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>340</v>
-      </c>
-      <c r="C129" t="n">
-        <v>341</v>
-      </c>
-      <c r="D129" t="n">
-        <v>341</v>
-      </c>
-      <c r="E129" t="n">
-        <v>340</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6234.9277</v>
-      </c>
-      <c r="G129" t="n">
-        <v>53715.21873422999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>339</v>
-      </c>
-      <c r="C130" t="n">
-        <v>339</v>
-      </c>
-      <c r="D130" t="n">
-        <v>340</v>
-      </c>
-      <c r="E130" t="n">
-        <v>339</v>
-      </c>
-      <c r="F130" t="n">
-        <v>268.4339</v>
-      </c>
-      <c r="G130" t="n">
-        <v>53446.78483423</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>341</v>
-      </c>
-      <c r="C131" t="n">
-        <v>339</v>
-      </c>
-      <c r="D131" t="n">
-        <v>341</v>
-      </c>
-      <c r="E131" t="n">
-        <v>339</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2</v>
-      </c>
-      <c r="G131" t="n">
-        <v>53446.78483423</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>340</v>
-      </c>
-      <c r="C132" t="n">
-        <v>339</v>
-      </c>
-      <c r="D132" t="n">
-        <v>341</v>
-      </c>
-      <c r="E132" t="n">
-        <v>339</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2294.0058</v>
-      </c>
-      <c r="G132" t="n">
-        <v>53446.78483423</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>342</v>
-      </c>
-      <c r="C133" t="n">
-        <v>341</v>
-      </c>
-      <c r="D133" t="n">
-        <v>342</v>
-      </c>
-      <c r="E133" t="n">
-        <v>341</v>
-      </c>
-      <c r="F133" t="n">
-        <v>785.438</v>
-      </c>
-      <c r="G133" t="n">
-        <v>54232.22283423</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>341</v>
-      </c>
-      <c r="C134" t="n">
-        <v>341</v>
-      </c>
-      <c r="D134" t="n">
-        <v>341</v>
-      </c>
-      <c r="E134" t="n">
-        <v>341</v>
-      </c>
-      <c r="F134" t="n">
-        <v>723.4025</v>
-      </c>
-      <c r="G134" t="n">
-        <v>54232.22283423</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>342</v>
-      </c>
-      <c r="C135" t="n">
-        <v>342</v>
-      </c>
-      <c r="D135" t="n">
-        <v>342</v>
-      </c>
-      <c r="E135" t="n">
-        <v>342</v>
-      </c>
-      <c r="F135" t="n">
-        <v>16.6745</v>
-      </c>
-      <c r="G135" t="n">
-        <v>54248.89733423</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>342</v>
-      </c>
-      <c r="C136" t="n">
-        <v>342</v>
-      </c>
-      <c r="D136" t="n">
-        <v>342</v>
-      </c>
-      <c r="E136" t="n">
-        <v>342</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>54248.89733423</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>342</v>
-      </c>
-      <c r="C137" t="n">
-        <v>343</v>
-      </c>
-      <c r="D137" t="n">
-        <v>343</v>
-      </c>
-      <c r="E137" t="n">
-        <v>342</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3410.1576</v>
-      </c>
-      <c r="G137" t="n">
-        <v>57659.05493423</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>344</v>
-      </c>
-      <c r="C138" t="n">
-        <v>344</v>
-      </c>
-      <c r="D138" t="n">
-        <v>344</v>
-      </c>
-      <c r="E138" t="n">
-        <v>344</v>
-      </c>
-      <c r="F138" t="n">
-        <v>22.9617</v>
-      </c>
-      <c r="G138" t="n">
-        <v>57682.01663423</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>344</v>
-      </c>
-      <c r="C139" t="n">
-        <v>343</v>
-      </c>
-      <c r="D139" t="n">
-        <v>344</v>
-      </c>
-      <c r="E139" t="n">
-        <v>343</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2750.0962</v>
-      </c>
-      <c r="G139" t="n">
-        <v>54931.92043423</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>343</v>
-      </c>
-      <c r="C140" t="n">
-        <v>345</v>
-      </c>
-      <c r="D140" t="n">
-        <v>345</v>
-      </c>
-      <c r="E140" t="n">
-        <v>343</v>
-      </c>
-      <c r="F140" t="n">
-        <v>260.0347</v>
-      </c>
-      <c r="G140" t="n">
-        <v>55191.95513423</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>345</v>
-      </c>
-      <c r="C141" t="n">
-        <v>346</v>
-      </c>
-      <c r="D141" t="n">
-        <v>346</v>
-      </c>
-      <c r="E141" t="n">
-        <v>345</v>
-      </c>
-      <c r="F141" t="n">
-        <v>984</v>
-      </c>
-      <c r="G141" t="n">
-        <v>56175.95513423</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>344</v>
-      </c>
-      <c r="C142" t="n">
-        <v>344</v>
-      </c>
-      <c r="D142" t="n">
-        <v>344</v>
-      </c>
-      <c r="E142" t="n">
-        <v>344</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" t="n">
-        <v>56174.95513423</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>345</v>
-      </c>
-      <c r="C143" t="n">
-        <v>345</v>
-      </c>
-      <c r="D143" t="n">
-        <v>345</v>
-      </c>
-      <c r="E143" t="n">
-        <v>345</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1452.3</v>
-      </c>
-      <c r="G143" t="n">
-        <v>57627.25513423</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>344</v>
-      </c>
-      <c r="C144" t="n">
-        <v>344</v>
-      </c>
-      <c r="D144" t="n">
-        <v>344</v>
-      </c>
-      <c r="E144" t="n">
-        <v>344</v>
-      </c>
-      <c r="F144" t="n">
-        <v>268.7208</v>
-      </c>
-      <c r="G144" t="n">
-        <v>57358.53433423</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>344</v>
-      </c>
-      <c r="C145" t="n">
-        <v>344</v>
-      </c>
-      <c r="D145" t="n">
-        <v>344</v>
-      </c>
-      <c r="E145" t="n">
-        <v>344</v>
-      </c>
-      <c r="F145" t="n">
-        <v>118.1656</v>
-      </c>
-      <c r="G145" t="n">
-        <v>57358.53433423</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>344</v>
-      </c>
-      <c r="C146" t="n">
-        <v>344</v>
-      </c>
-      <c r="D146" t="n">
-        <v>344</v>
-      </c>
-      <c r="E146" t="n">
-        <v>344</v>
-      </c>
-      <c r="F146" t="n">
-        <v>5160.9834</v>
-      </c>
-      <c r="G146" t="n">
-        <v>57358.53433423</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>344</v>
-      </c>
-      <c r="C147" t="n">
-        <v>344</v>
-      </c>
-      <c r="D147" t="n">
-        <v>344</v>
-      </c>
-      <c r="E147" t="n">
-        <v>344</v>
-      </c>
-      <c r="F147" t="n">
-        <v>99.705</v>
-      </c>
-      <c r="G147" t="n">
-        <v>57358.53433423</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>341</v>
-      </c>
-      <c r="C148" t="n">
-        <v>341</v>
-      </c>
-      <c r="D148" t="n">
-        <v>341</v>
-      </c>
-      <c r="E148" t="n">
-        <v>341</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" t="n">
-        <v>57357.53433423</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>343</v>
-      </c>
-      <c r="C149" t="n">
-        <v>340</v>
-      </c>
-      <c r="D149" t="n">
-        <v>343</v>
-      </c>
-      <c r="E149" t="n">
-        <v>340</v>
-      </c>
-      <c r="F149" t="n">
-        <v>135.4383</v>
-      </c>
-      <c r="G149" t="n">
-        <v>57222.09603422999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>340</v>
-      </c>
-      <c r="C150" t="n">
-        <v>340</v>
-      </c>
-      <c r="D150" t="n">
-        <v>340</v>
-      </c>
-      <c r="E150" t="n">
-        <v>340</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" t="n">
-        <v>57222.09603422999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>341</v>
-      </c>
-      <c r="C151" t="n">
-        <v>341</v>
-      </c>
-      <c r="D151" t="n">
-        <v>341</v>
-      </c>
-      <c r="E151" t="n">
-        <v>341</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2.4917</v>
-      </c>
-      <c r="G151" t="n">
-        <v>57224.58773422999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>342</v>
-      </c>
-      <c r="C152" t="n">
-        <v>344</v>
-      </c>
-      <c r="D152" t="n">
-        <v>344</v>
-      </c>
-      <c r="E152" t="n">
-        <v>342</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5313.5783</v>
-      </c>
-      <c r="G152" t="n">
-        <v>62538.16603422999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>344</v>
-      </c>
-      <c r="C153" t="n">
-        <v>344</v>
-      </c>
-      <c r="D153" t="n">
-        <v>344</v>
-      </c>
-      <c r="E153" t="n">
-        <v>344</v>
-      </c>
-      <c r="F153" t="n">
-        <v>850.3633</v>
-      </c>
-      <c r="G153" t="n">
-        <v>62538.16603422999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>342</v>
-      </c>
-      <c r="C154" t="n">
-        <v>342</v>
-      </c>
-      <c r="D154" t="n">
-        <v>342</v>
-      </c>
-      <c r="E154" t="n">
-        <v>342</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" t="n">
-        <v>62537.16603422999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>344</v>
-      </c>
-      <c r="C155" t="n">
-        <v>344</v>
-      </c>
-      <c r="D155" t="n">
-        <v>344</v>
-      </c>
-      <c r="E155" t="n">
-        <v>344</v>
-      </c>
-      <c r="F155" t="n">
-        <v>681.2169</v>
-      </c>
-      <c r="G155" t="n">
-        <v>63218.38293422999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>346</v>
-      </c>
-      <c r="C156" t="n">
-        <v>346</v>
-      </c>
-      <c r="D156" t="n">
-        <v>346</v>
-      </c>
-      <c r="E156" t="n">
-        <v>346</v>
-      </c>
-      <c r="F156" t="n">
-        <v>44.8437</v>
-      </c>
-      <c r="G156" t="n">
-        <v>63263.22663422999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>348</v>
-      </c>
-      <c r="C157" t="n">
-        <v>347</v>
-      </c>
-      <c r="D157" t="n">
-        <v>351</v>
-      </c>
-      <c r="E157" t="n">
-        <v>347</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3954.6</v>
-      </c>
-      <c r="G157" t="n">
-        <v>67217.82663422999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>348</v>
-      </c>
-      <c r="C158" t="n">
-        <v>349</v>
-      </c>
-      <c r="D158" t="n">
-        <v>349</v>
-      </c>
-      <c r="E158" t="n">
-        <v>347</v>
-      </c>
-      <c r="F158" t="n">
-        <v>3095.0451</v>
-      </c>
-      <c r="G158" t="n">
-        <v>70312.87173422999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>350</v>
-      </c>
-      <c r="C159" t="n">
-        <v>350</v>
-      </c>
-      <c r="D159" t="n">
-        <v>350</v>
-      </c>
-      <c r="E159" t="n">
-        <v>350</v>
-      </c>
-      <c r="F159" t="n">
-        <v>21.2694</v>
-      </c>
-      <c r="G159" t="n">
-        <v>70334.14113423</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>351</v>
-      </c>
-      <c r="C160" t="n">
-        <v>350</v>
-      </c>
-      <c r="D160" t="n">
-        <v>351</v>
-      </c>
-      <c r="E160" t="n">
-        <v>350</v>
-      </c>
-      <c r="F160" t="n">
-        <v>15640.7244</v>
-      </c>
-      <c r="G160" t="n">
-        <v>70334.14113423</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>351</v>
-      </c>
-      <c r="C161" t="n">
-        <v>351</v>
-      </c>
-      <c r="D161" t="n">
-        <v>351</v>
-      </c>
-      <c r="E161" t="n">
-        <v>349</v>
-      </c>
-      <c r="F161" t="n">
-        <v>7823.5093</v>
-      </c>
-      <c r="G161" t="n">
-        <v>78157.65043423</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>350</v>
-      </c>
-      <c r="C162" t="n">
-        <v>350</v>
-      </c>
-      <c r="D162" t="n">
-        <v>350</v>
-      </c>
-      <c r="E162" t="n">
-        <v>350</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" t="n">
-        <v>78156.65043423</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>350</v>
-      </c>
-      <c r="C163" t="n">
-        <v>351</v>
-      </c>
-      <c r="D163" t="n">
-        <v>351</v>
-      </c>
-      <c r="E163" t="n">
-        <v>349</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3774.75317891</v>
-      </c>
-      <c r="G163" t="n">
-        <v>81931.40361314001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>351</v>
-      </c>
-      <c r="C164" t="n">
-        <v>350</v>
-      </c>
-      <c r="D164" t="n">
-        <v>351</v>
-      </c>
-      <c r="E164" t="n">
-        <v>350</v>
-      </c>
-      <c r="F164" t="n">
-        <v>713.2507000000001</v>
-      </c>
-      <c r="G164" t="n">
-        <v>81218.15291314</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>351</v>
-      </c>
-      <c r="C165" t="n">
-        <v>350</v>
-      </c>
-      <c r="D165" t="n">
-        <v>351</v>
-      </c>
-      <c r="E165" t="n">
-        <v>350</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3522.5669</v>
-      </c>
-      <c r="G165" t="n">
-        <v>81218.15291314</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>350</v>
-      </c>
-      <c r="C166" t="n">
-        <v>351</v>
-      </c>
-      <c r="D166" t="n">
-        <v>351</v>
-      </c>
-      <c r="E166" t="n">
-        <v>350</v>
-      </c>
-      <c r="F166" t="n">
-        <v>24429.5144</v>
-      </c>
-      <c r="G166" t="n">
-        <v>105647.66731314</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>350</v>
-      </c>
-      <c r="C167" t="n">
-        <v>350</v>
-      </c>
-      <c r="D167" t="n">
-        <v>350</v>
-      </c>
-      <c r="E167" t="n">
-        <v>350</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1</v>
-      </c>
-      <c r="G167" t="n">
-        <v>105646.66731314</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>351</v>
-      </c>
-      <c r="C168" t="n">
-        <v>351</v>
-      </c>
-      <c r="D168" t="n">
-        <v>351</v>
-      </c>
-      <c r="E168" t="n">
-        <v>350</v>
-      </c>
-      <c r="F168" t="n">
-        <v>13777.1567</v>
-      </c>
-      <c r="G168" t="n">
-        <v>119423.82401314</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>351</v>
-      </c>
-      <c r="C169" t="n">
-        <v>351</v>
-      </c>
-      <c r="D169" t="n">
-        <v>351</v>
-      </c>
-      <c r="E169" t="n">
-        <v>351</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2110.81812109</v>
-      </c>
-      <c r="G169" t="n">
-        <v>119423.82401314</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>352</v>
-      </c>
-      <c r="C170" t="n">
-        <v>351</v>
-      </c>
-      <c r="D170" t="n">
-        <v>352</v>
-      </c>
-      <c r="E170" t="n">
-        <v>351</v>
-      </c>
-      <c r="F170" t="n">
-        <v>5585.9658</v>
-      </c>
-      <c r="G170" t="n">
-        <v>119423.82401314</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>352</v>
-      </c>
-      <c r="C171" t="n">
-        <v>352</v>
-      </c>
-      <c r="D171" t="n">
-        <v>352</v>
-      </c>
-      <c r="E171" t="n">
-        <v>351</v>
-      </c>
-      <c r="F171" t="n">
-        <v>16050.2999</v>
-      </c>
-      <c r="G171" t="n">
-        <v>135474.12391314</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>351</v>
-      </c>
-      <c r="C172" t="n">
-        <v>353</v>
-      </c>
-      <c r="D172" t="n">
-        <v>353</v>
-      </c>
-      <c r="E172" t="n">
-        <v>351</v>
-      </c>
-      <c r="F172" t="n">
-        <v>5389.8171</v>
-      </c>
-      <c r="G172" t="n">
-        <v>140863.94101314</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>353</v>
-      </c>
-      <c r="C173" t="n">
-        <v>355</v>
-      </c>
-      <c r="D173" t="n">
-        <v>355</v>
-      </c>
-      <c r="E173" t="n">
-        <v>353</v>
-      </c>
-      <c r="F173" t="n">
-        <v>6144.27834507</v>
-      </c>
-      <c r="G173" t="n">
-        <v>147008.21935821</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>355</v>
-      </c>
-      <c r="C174" t="n">
-        <v>354</v>
-      </c>
-      <c r="D174" t="n">
-        <v>355</v>
-      </c>
-      <c r="E174" t="n">
-        <v>354</v>
-      </c>
-      <c r="F174" t="n">
-        <v>8733.3943</v>
-      </c>
-      <c r="G174" t="n">
-        <v>138274.82505821</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>354</v>
-      </c>
-      <c r="C175" t="n">
-        <v>355</v>
-      </c>
-      <c r="D175" t="n">
-        <v>355</v>
-      </c>
-      <c r="E175" t="n">
-        <v>354</v>
-      </c>
-      <c r="F175" t="n">
-        <v>4352.2089</v>
-      </c>
-      <c r="G175" t="n">
-        <v>142627.03395821</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>355</v>
-      </c>
-      <c r="C176" t="n">
-        <v>356</v>
-      </c>
-      <c r="D176" t="n">
-        <v>356</v>
-      </c>
-      <c r="E176" t="n">
-        <v>355</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2801.54191629</v>
-      </c>
-      <c r="G176" t="n">
-        <v>145428.5758745</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>354</v>
-      </c>
-      <c r="C177" t="n">
-        <v>354</v>
-      </c>
-      <c r="D177" t="n">
-        <v>354</v>
-      </c>
-      <c r="E177" t="n">
-        <v>354</v>
-      </c>
-      <c r="F177" t="n">
-        <v>10</v>
-      </c>
-      <c r="G177" t="n">
-        <v>145418.5758745</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -6555,7 +7027,7 @@
         <v>145418.5758745</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6588,7 +7060,7 @@
         <v>151589.6588745</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6621,7 +7093,7 @@
         <v>153834.74493111</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6654,7 +7126,7 @@
         <v>139820.41953111</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6687,7 +7159,7 @@
         <v>144877.98083111</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6720,7 +7192,7 @@
         <v>152187.01405821</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6753,7 +7225,7 @@
         <v>151488.63418531</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6786,7 +7258,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6819,7 +7291,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6852,7 +7324,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6885,7 +7357,7 @@
         <v>135545.51626438</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6918,7 +7390,7 @@
         <v>163390.80936438</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6951,7 +7423,7 @@
         <v>157288.42786438</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6984,7 +7456,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7017,7 +7489,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7050,7 +7522,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7083,7 +7555,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7116,7 +7588,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7149,7 +7621,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7182,7 +7654,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7215,7 +7687,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7248,7 +7720,7 @@
         <v>155682.57866438</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -15960,7 +16432,7 @@
         <v>53230.24894032996</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16488,7 +16960,7 @@
         <v>64781.69954032996</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16554,7 +17026,7 @@
         <v>64323.38574032996</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16587,7 +17059,7 @@
         <v>64325.33874032996</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
